--- a/data/Eventos.xlsx
+++ b/data/Eventos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -829,7 +829,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Andrea Daher</t>
+          <t>Antonio Carlos Jucá de Sampaio</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -837,7 +837,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DAHER, Andrea. A pequena grande história de Giovanni Levi. 2021. Filme.</t>
+          <t>SAMPAIO, ANTONIO CARLOS JUCÁ DE. 31º Simpósio Nacional de História da ANPUH. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -852,7 +852,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SAMPAIO, ANTONIO CARLOS JUCÁ DE. 31º Simpósio Nacional de História da ANPUH. 2021. (Congresso).</t>
+          <t>SAMPAIO, ANTONIO CARLOS JUCÁ DE. Seminário Internacional "Antigo Regime nos Trópicos: 20 anos". 2021. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SAMPAIO, ANTONIO CARLOS JUCÁ DE. Seminário Internacional "Antigo Regime nos Trópicos: 20 anos". 2021. (Congresso).</t>
+          <t>SAMPAIO, ANTONIO CARLOS JUCÁ DE. Simpósio temático "O Império e seus idiomas: governos ultramarinos, negociantes e escravos no mundo português". 2021. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -882,37 +882,37 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SAMPAIO, ANTONIO CARLOS JUCÁ DE. Simpósio temático "O Império e seus idiomas: governos ultramarinos, negociantes e escravos no mundo português". 2021. (Congresso).</t>
+          <t>SAMPAIO, ANTONIO CARLOS JUCÁ DE. ART em teses: novas pesquisas. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Antonio Carlos Jucá de Sampaio</t>
+          <t>Beatriz Catão Cruz Santos</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SAMPAIO, ANTONIO CARLOS JUCÁ DE. ART em teses: novas pesquisas. 2021. (Congresso).</t>
+          <t>SOUZA, F. P. ;SANTOS, Beatriz Catão Cruz. Pardos livres e a articulação de suas redes de poder na milícia e no artesanato (São Paulo, 1810-1821). 2023. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Beatriz Catão Cruz Santos</t>
+          <t>Deivid Valério Gaia</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SOUZA, F. P. ;SANTOS, Beatriz Catão Cruz. Pardos livres e a articulação de suas redes de poder na milícia e no artesanato (São Paulo, 1810-1821). 2023. (Outro).</t>
+          <t>Gaia, Deivid Valério. Organização do XXXII Ciclo de debates em História Antiga, realizado pelo laboratório de História Antiga (LHIA),. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Gaia, Deivid Valério. Organização do XXXII Ciclo de debates em História Antiga, realizado pelo laboratório de História Antiga (LHIA),. 2022. (Congresso).</t>
+          <t>FORMISANO, M. ;Gaia, Deivid Valério; SANTORO, F. . Organização do curso de extensão sobre História Antiga e problemas ambientais com Marco Formisano da Universidade de Gant - Belgica. 2022. (Outro).</t>
         </is>
       </c>
     </row>
@@ -938,18 +938,18 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>FORMISANO, M. ;Gaia, Deivid Valério; SANTORO, F. . Organização do curso de extensão sobre História Antiga e problemas ambientais com Marco Formisano da Universidade de Gant - Belgica. 2022. (Outro).</t>
+          <t>Gaia, Deivid Valério. Organização do XXXI Ciclo de debates em História Antiga, realizado pelo laboratório de História Antiga (LHIA),. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Deivid Valério Gaia</t>
+          <t>Felipe Charbel Teixeira</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -957,22 +957,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Gaia, Deivid Valério. Organização do XXXI Ciclo de debates em História Antiga, realizado pelo laboratório de História Antiga (LHIA),. 2021. (Congresso).</t>
+          <t>CHARBEL, Felipe; MAGRI, Ieda ; GUTIERREZ, Rafael . Leituras do contemporâneo: literatura e crítica no Brasil e na Argentina. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Felipe Charbel Teixeira</t>
+          <t>Gabriel de Carvalho Godoy Castanho</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CHARBEL, Felipe; MAGRI, Ieda ; GUTIERREZ, Rafael . Leituras do contemporâneo: literatura e crítica no Brasil e na Argentina. 2021. (Congresso).</t>
+          <t>CASTANHO, G; MAGNANI, E. ; PERREAUX, N. . Digitizing the Middle Ages: The Impacts of Digitized Corpora on Medieval Historiography (Mesa de comunicações no International Congress on Medieval Studies - Kalamazoo). 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CASTANHO, G; MAGNANI, E. ; PERREAUX, N. . Digitizing the Middle Ages: The Impacts of Digitized Corpora on Medieval Historiography (Mesa de comunicações no International Congress on Medieval Studies - Kalamazoo). 2023. (Outro).</t>
+          <t>CASTANHO, G; MAGNANI, E. ; PERREAUX, N. . Digitizing the Middle Ages: the impacts of digitized corpora on medieval historiography (Mesa de comunicações no International Medieval Congress - Leeds). 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CASTANHO, G; MAGNANI, E. ; PERREAUX, N. . Digitizing the Middle Ages: the impacts of digitized corpora on medieval historiography (Mesa de comunicações no International Medieval Congress - Leeds). 2023. (Outro).</t>
+          <t>CASTANHO, G; et alii. . A digitalização da medievalística brasileira  (e além...)  - XIII Encontro Internacional do LATHIMM. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CASTANHO, G; et alii. . A digitalização da medievalística brasileira  (e além...)  - XIII Encontro Internacional do LATHIMM. 2023. (Congresso).</t>
+          <t>CASTANHO, G; NEVES, L. C. S. . Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. 2022. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CASTANHO, G; NEVES, L. C. S. . Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. 2022. (Outro).</t>
+          <t>CASTANHO, G; PEREIRA, A. P. L. . Jornada  Emoções na Idade Média: abordagens,  historiografias e filosofias. 2022. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CASTANHO, G; PEREIRA, A. P. L. . Jornada  Emoções na Idade Média: abordagens,  historiografias e filosofias. 2022. (Outro).</t>
+          <t>CASTANHO, G; NEVES, L. C. S. ; et alii. . Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. Conceitos e Historiografias. 2022. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CASTANHO, G; NEVES, L. C. S. ; et alii. . Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. Conceitos e Historiografias. 2022. (Outro).</t>
+          <t>CASTANHO, G; NEVES, L. C. S. ; et alii. . Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. Estudos não "gregorianos". 2022. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CASTANHO, G; NEVES, L. C. S. ; et alii. . Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. Estudos não "gregorianos". 2022. (Outro).</t>
+          <t>CASTANHO, G; PEREIRA, A. P. L. . Jornada  Emoções na Idade Média: abordagens, historiografias e literaturas. 2022. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1088,11 +1088,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CASTANHO, G; PEREIRA, A. P. L. . Jornada  Emoções na Idade Média: abordagens, historiografias e literaturas. 2022. (Outro).</t>
+          <t>CASTANHO, G; PEREIRA, A. P. L. . Jornada Emoções na Idade Média: abordagens e historiografias. 2021. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CASTANHO, G; PEREIRA, A. P. L. . Jornada Emoções na Idade Média: abordagens e historiografias. 2021. (Outro).</t>
+          <t>CASTANHO, G C G; ASFORA, W. C. . Estudos do Discurso Medieval (ST 08  no XIV EIEM). 2021. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1122,22 +1122,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CASTANHO, G C G; ASFORA, W. C. . Estudos do Discurso Medieval (ST 08  no XIV EIEM). 2021. (Outro).</t>
+          <t>MAGNANI, E. ;CASTANHO, G C G; et alii. . Journée d?études CBMA (Corpus Burgundiae Medii Aevi) ? Hagiographie bourguignonne 2.0 ? corpus électronique et nouvelles recherches. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Gabriel de Carvalho Godoy Castanho</t>
+          <t>Henrique Buarque de Gusmão</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MAGNANI, E. ;CASTANHO, G C G; et alii. . Journée d?études CBMA (Corpus Burgundiae Medii Aevi) ? Hagiographie bourguignonne 2.0 ? corpus électronique et nouvelles recherches. 2021. (Outro).</t>
+          <t>GUSMAO, H. B.; SILVA, T. B. ; AZEVEDO, E. R. ; MOURA, M. . Semana de estudos em história do teatro. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1148,11 +1148,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GUSMAO, H. B.; SILVA, T. B. ; AZEVEDO, E. R. ; MOURA, M. . Semana de estudos em história do teatro. 2024. (Congresso).</t>
+          <t>GUSMAO, H. B.; SODRE, C. ; WAJNBERG, D. S. ; OLIVEIRA, D. . Jornada Studio Stanislavski: 30 anos de experimentação teatral. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1163,11 +1163,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GUSMAO, H. B.; SODRE, C. ; WAJNBERG, D. S. ; OLIVEIRA, D. . Jornada Studio Stanislavski: 30 anos de experimentação teatral. 2023. (Congresso).</t>
+          <t>GUSMAO, H. B.; DAHER, Andrea . Jornada de Estudos O ?efeito de escândalo? na literatura e nas artes brasileiras. 2022. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1178,11 +1178,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GUSMAO, H. B.; DAHER, Andrea . Jornada de Estudos O ?efeito de escândalo? na literatura e nas artes brasileiras. 2022. (Outro).</t>
+          <t>SILVA, T. B. ;GUSMAO, H. B.; FERREIRA, V. A. . Colóquio Teatro e Sociedade. 2021. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1197,22 +1197,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SILVA, T. B. ;GUSMAO, H. B.; FERREIRA, V. A. . Colóquio Teatro e Sociedade. 2021. (Outro).</t>
+          <t>GUSMAO, H. B.. IV Encontro Fluminense de Teoria e Historiografia. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Henrique Buarque de Gusmão</t>
+          <t>Isabele de Matos Pereira de Mello</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GUSMAO, H. B.. IV Encontro Fluminense de Teoria e Historiografia. 2021. (Outro).</t>
+          <t>FRAGOSO, J. ;SAMPAIO, A. C. J.;FERREIRA, R. G.;MELLO, Isabele de Matos P. de. Seminário: Humanidades Digitais e o uso do software Transkribus na pesquisa histórica. 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1223,11 +1223,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>FRAGOSO, J. ;SAMPAIO, A. C. J.;FERREIRA, R. G.;MELLO, Isabele de Matos P. de. Seminário: Humanidades Digitais e o uso do software Transkribus na pesquisa histórica. 2023. (Outro).</t>
+          <t>MELLO, Isabele de Matos P. de;LOUREIRO, M. J. G.. VIII Encontro Internacional de História Colonial - Coordenação de Simpósio Temático: O governo da justiça: instituições, discursos, poderes e magistrados (sécs. XVII-XIX). 2021. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MELLO, Isabele de Matos P. de;LOUREIRO, M. J. G.. VIII Encontro Internacional de História Colonial - Coordenação de Simpósio Temático: O governo da justiça: instituições, discursos, poderes e magistrados (sécs. XVII-XIX). 2021. (Outro).</t>
+          <t>FRAGOSO, J. ;BICALHO, M. F.;SAMPAIO, A. C. J.;FERREIRA, R. G.;MELLO, Isabele de Matos P. de; ALMEIDA, Carla M. ; CONCEICAO, H. . ART em Teses: Novas Pesquisas. 2021. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1257,14 +1257,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>FRAGOSO, J. ;BICALHO, M. F.;SAMPAIO, A. C. J.;FERREIRA, R. G.;MELLO, Isabele de Matos P. de; ALMEIDA, Carla M. ; CONCEICAO, H. . ART em Teses: Novas Pesquisas. 2021. (Outro).</t>
+          <t>ALMEIDA, Carla M. ;BICALHO, Maria Fernanda B.; CONCEICAO, H. ;FERREIRA, R. G.; FRAGOSO, J. ;MELLO, Isabele de Matos P. de;SAMPAIO, A. C. J.. Seminário Internacional Antigo Regime nos Trópicos - 20 Anos. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Isabele de Matos Pereira de Mello</t>
+          <t>Joao Luis Ribeiro Fragoso</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ALMEIDA, Carla M. ;BICALHO, Maria Fernanda B.; CONCEICAO, H. ;FERREIRA, R. G.; FRAGOSO, J. ;MELLO, Isabele de Matos P. de;SAMPAIO, A. C. J.. Seminário Internacional Antigo Regime nos Trópicos - 20 Anos. 2021. (Outro).</t>
+          <t>FRAGOSO, JOÃO; BICALHO, M. F. ; SAMPAIO, A. C. J. ; FERREIRA, Roberto Guedes ; MELLO, I. ;ALMEIDA, Carla Maria Carvalho de; CONCEICAO, H. S. . Antigo Regime nos Trópicos: 20 anos - Congresso Intarnacional. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1287,22 +1287,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>FRAGOSO, JOÃO; BICALHO, M. F. ; SAMPAIO, A. C. J. ; FERREIRA, Roberto Guedes ; MELLO, I. ;ALMEIDA, Carla Maria Carvalho de; CONCEICAO, H. S. . Antigo Regime nos Trópicos: 20 anos - Congresso Intarnacional. 2021. (Congresso).</t>
+          <t>FRAGOSO, JOÃO; BICALHO, M. F. ; SAMPAIO, A. C. J. ; FERREIRA, Roberto Guedes ; CONCEICAO, H. S. ;ALMEIDA, Carla Maria Carvalho de; MELLO, I. . Art em Teses. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Joao Luis Ribeiro Fragoso</t>
+          <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>FRAGOSO, JOÃO; BICALHO, M. F. ; SAMPAIO, A. C. J. ; FERREIRA, Roberto Guedes ; CONCEICAO, H. S. ;ALMEIDA, Carla Maria Carvalho de; MELLO, I. . Art em Teses. 2021. (Congresso).</t>
+          <t>SEDREZ, Lise F.; EICKELKAMP, U. . Landscapes of Deindustrialization - Panel in two sessions. 2024. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1313,11 +1313,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SEDREZ, Lise F.; EICKELKAMP, U. . Landscapes of Deindustrialization - Panel in two sessions. 2024. (Outro).</t>
+          <t>SEDREZ, Lise F.. 12o. Semana de Integração Acadêmica da UFRJ. 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SEDREZ, Lise F.. 12o. Semana de Integração Acadêmica da UFRJ. 2023. (Outro).</t>
+          <t>FONTES, P. R. R.;SEDREZ, Lise F.; SANTOS, R. . Desindustrialização e História Social: a experiência alemã. 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1343,11 +1343,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>FONTES, P. R. R.;SEDREZ, Lise F.; SANTOS, R. . Desindustrialização e História Social: a experiência alemã. 2023. (Outro).</t>
+          <t>SEDREZ, Lise F.. 11 Semana de Integração Acadêmica da UFRJ. 2022. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1358,26 +1358,26 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SEDREZ, Lise F.. 11 Semana de Integração Acadêmica da UFRJ. 2022. (Outro).</t>
+          <t>Sedrez, Lise. X SIMPOSIO SOLCHA. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Lise Fernanda Sedrez</t>
+          <t>Lorena Lopes da Costa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Sedrez, Lise. X SIMPOSIO SOLCHA. 2021. (Congresso).</t>
+          <t>LESSA, F. ; GAIA, D. V. ; MEGA, M. ; BUSTAMANTE, R. ; PEIXOTO, P. ;LOPES DA COSTA, L.. XXXIV Ciclo de Debates em História Antiga. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1388,11 +1388,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>LESSA, F. ; GAIA, D. V. ; MEGA, M. ; BUSTAMANTE, R. ; PEIXOTO, P. ;LOPES DA COSTA, L.. XXXIV Ciclo de Debates em História Antiga. 2024. (Congresso).</t>
+          <t>BUSTAMANTE, R. ; GAIA, D. V. ; LESSA, F. ; MEGA, M. ; PEIXOTO, P. ;LOPES DA COSTA, L.. XXXIII Ciclo de Debates em História Antiga - LHIA. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1403,26 +1403,26 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BUSTAMANTE, R. ; GAIA, D. V. ; LESSA, F. ; MEGA, M. ; PEIXOTO, P. ;LOPES DA COSTA, L.. XXXIII Ciclo de Debates em História Antiga - LHIA. 2023. (Congresso).</t>
+          <t>PEIXOTO, P. ;LOPES DA COSTA, L.. XXXII Ciclo de Debates em História Antiga - LHIA. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Lorena Lopes da Costa</t>
+          <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>PEIXOTO, P. ;LOPES DA COSTA, L.. XXXII Ciclo de Debates em História Antiga - LHIA. 2022. (Congresso).</t>
+          <t>SILVA MELLO, L. L.; RODRIGUES, H. E. . Seminário Nacional História e Ficção: as formas do (des)encontro. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1433,18 +1433,18 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SILVA MELLO, L. L.; RODRIGUES, H. E. . Seminário Nacional História e Ficção: as formas do (des)encontro. 2024. (Congresso).</t>
+          <t>LARANGEIRA DA SILVA MELLO, L.; CALDAS, Pedro S. P. ; CORREIA, S. A. B. . I Jornada de Estudos em Pensamento Crítico Contemporâneo: experiências, memórias e mediações das crises do século XX. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Luiza Larangeira da Silva Mello</t>
+          <t>Maria Paula Nascimento Araujo</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>LARANGEIRA DA SILVA MELLO, L.; CALDAS, Pedro S. P. ; CORREIA, S. A. B. . I Jornada de Estudos em Pensamento Crítico Contemporâneo: experiências, memórias e mediações das crises do século XX. 2023. (Congresso).</t>
+          <t>MANGUEIRA, B. ; SANTOS, D. R. ; SILVA, I. P. ; CORREA, L. ;ARAUJO, M. P. N.; Ferreira, M. M. ; GHERMAN, M. ; QUADRAT, S. V. ; PINTO, S. ; SILVA, F. C. ; RIOS, C. ; GEROMEL, B. ; GOMES, P. C. ; RIBERTI, L. ; DAHAS, N. . Semináro História Oral, Memória e Violência Política no Mundo Contemporâneo. 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1463,11 +1463,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MANGUEIRA, B. ; SANTOS, D. R. ; SILVA, I. P. ; CORREA, L. ;ARAUJO, M. P. N.; Ferreira, M. M. ; GHERMAN, M. ; QUADRAT, S. V. ; PINTO, S. ; SILVA, F. C. ; RIOS, C. ; GEROMEL, B. ; GOMES, P. C. ; RIBERTI, L. ; DAHAS, N. . Semináro História Oral, Memória e Violência Política no Mundo Contemporâneo. 2023. (Outro).</t>
+          <t>ARAUJO, MARIA PAULA NASCIMENTO; SILVA, I. P. ; Fico, Carlos ; QUADRAT, S. V. ; BAUER, C. S. ; CATELA, L. ; CAPELATO, M. H. R. ; GHERMAN, M. ; PIRES JUNIOR, P. A. ; FRANCO, M. ; CRENZEL, E. ; OBERTI, A. . Seminário Internacional 45 anos do golpe e da ditadura na Argentina: história, memória e diálogos com o Brasil. 2021. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1482,37 +1482,37 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ARAUJO, MARIA PAULA NASCIMENTO; SILVA, I. P. ; Fico, Carlos ; QUADRAT, S. V. ; BAUER, C. S. ; CATELA, L. ; CAPELATO, M. H. R. ; GHERMAN, M. ; PIRES JUNIOR, P. A. ; FRANCO, M. ; CRENZEL, E. ; OBERTI, A. . Seminário Internacional 45 anos do golpe e da ditadura na Argentina: história, memória e diálogos com o Brasil. 2021. (Outro).</t>
+          <t>ARAUJO, M. P. N.; SILVA, I. P. ; MANGUEIRA, B. ; PEDRETTI, L. ; CORREA, L. ; CUNHA, M. . História Oral, memória e experiência na luta por direitos. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Maria Paula Nascimento Araujo</t>
+          <t>Marieta de Moraes Ferreira</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ARAUJO, M. P. N.; SILVA, I. P. ; MANGUEIRA, B. ; PEDRETTI, L. ; CORREA, L. ; CUNHA, M. . História Oral, memória e experiência na luta por direitos. 2021. (Outro).</t>
+          <t>FERREIRA, MARIETA DE MORAES; HOCHMAN, G. ; OLIVEIRA, L. M. L. ; OLIVEIRA, D. . 1922;O Passado no presente- permanências e transformações. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Marieta de Moraes Ferreira</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>FERREIRA, MARIETA DE MORAES; HOCHMAN, G. ; OLIVEIRA, L. M. L. ; OLIVEIRA, D. . 1922;O Passado no presente- permanências e transformações. 2022. (Outro).</t>
+          <t>Assaf Sthephanie ; PECHMAN, R. ; Marcondes Guilherme ; Penha-Lopes Vania ; SEGAL, R. ; Lerner, Katia ; MORAES, L. E. ; Caldas, Pedro ; GRIN, M. ; Caldeira Odilon ;GHERMAN, MICHEL; FRANCA, D. ; LEMOS, B. ; Bastos, Bianca ; Mello, Juçara . Usos políticos do Holocausto e do Genocídio. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1523,11 +1523,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Assaf Sthephanie ; PECHMAN, R. ; Marcondes Guilherme ; Penha-Lopes Vania ; SEGAL, R. ; Lerner, Katia ; MORAES, L. E. ; Caldas, Pedro ; GRIN, M. ; Caldeira Odilon ;GHERMAN, MICHEL; FRANCA, D. ; LEMOS, B. ; Bastos, Bianca ; Mello, Juçara . Usos políticos do Holocausto e do Genocídio. 2024. (Congresso).</t>
+          <t>Herz, Monica ; SPOSNIK, A. ;GHERMAN, MICHEL. Israel como modelo cultural: imaginários e usos na nova extrema-direita. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Herz, Monica ; SPOSNIK, A. ;GHERMAN, MICHEL. Israel como modelo cultural: imaginários e usos na nova extrema-direita. 2023. (Congresso).</t>
+          <t>AMARAL, J. ; LEMOS, B. ; Zunino, Olga ; RIBAS, A. ; Bastos, Bianca ; FRANCA, D. ;GHERMAN, MICHEL. Encontro de Pesquisa: História Política e Extrema Direita. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1553,33 +1553,33 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>AMARAL, J. ; LEMOS, B. ; Zunino, Olga ; RIBAS, A. ; Bastos, Bianca ; FRANCA, D. ;GHERMAN, MICHEL. Encontro de Pesquisa: História Política e Extrema Direita. 2023. (Congresso).</t>
+          <t>HERZ, M. ;GHERMAN, MICHEL; MIZRAHI, G. . Israel Imaginária na diplomacia brasileira de Bolsonaro. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>Monica Grin</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>HERZ, M. ;GHERMAN, MICHEL; MIZRAHI, G. . Israel Imaginária na diplomacia brasileira de Bolsonaro. 2021. (Outro).</t>
+          <t>GRIN, Monica; MAIO, Marcos Chor ; GHERMAN, M. ; HAJ, J. A. E. ; Monteiro, Giovanna ; DAVIDI, E. . Israel na Encruzilhada. 2023. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Monica Grin</t>
+          <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>GRIN, Monica; MAIO, Marcos Chor ; GHERMAN, M. ; HAJ, J. A. E. ; Monteiro, Giovanna ; DAVIDI, E. . Israel na Encruzilhada. 2023. (Outro).</t>
+          <t>CAMPOS, G. A. G. ; HAMSHARI, A. ;MEIHY, M. S. B.. 1a. Conferência Internacional Arab Latinos: migrações e solidariedade. 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1598,26 +1598,26 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CAMPOS, G. A. G. ; HAMSHARI, A. ;MEIHY, M. S. B.. 1a. Conferência Internacional Arab Latinos: migrações e solidariedade. 2023. (Outro).</t>
+          <t>MEIHY, M. S. B.; OSMAN, S. A. ; SANTOS, P. T. . Da guerra do Terror ao retorno do Talibã. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Murilo Sebe Bon Meihy</t>
+          <t>Nuno Carlos de Fragoso Vidal</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MEIHY, M. S. B.; OSMAN, S. A. ; SANTOS, P. T. . Da guerra do Terror ao retorno do Talibã. 2021. (Outro).</t>
+          <t>VIDAL, NUNO. Conferência de Luanda ?Processos de Democratização e Desenvolvimento em Angola?, Quinta-feira 9 de Junho de 2022,  Universidade Católica de Angola, Salão Nobre, Edifício Sede - Palanca  9 de Junho de 2022 UCAN ? Luanda. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>VIDAL, NUNO. Conferência de Luanda ?Processos de Democratização e Desenvolvimento em Angola?, Quinta-feira 9 de Junho de 2022,  Universidade Católica de Angola, Salão Nobre, Edifício Sede - Palanca  9 de Junho de 2022 UCAN ? Luanda. 2022. (Congresso).</t>
+          <t>Fragoso Vidal, Nuno. Conferência de Maputo - Pluralism Democratization and Electoral Integrity in Angola and Mozambique. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Fragoso Vidal, Nuno. Conferência de Maputo - Pluralism Democratization and Electoral Integrity in Angola and Mozambique. 2022. (Congresso).</t>
+          <t>Fragoso Vidal, Nuno. Pannel 2-O-4 on Electoral integrity in the Mozambique 2019 election and the democratization process. 2022. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1662,22 +1662,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Fragoso Vidal, Nuno. Pannel 2-O-4 on Electoral integrity in the Mozambique 2019 election and the democratization process. 2022. (Outro).</t>
+          <t>Fragoso Vidal, Nuno. Conferência Lisboa, ?Pluralismo, Democratização e Eleições em Angola e Moçambique?. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Nuno Carlos de Fragoso Vidal</t>
+          <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Fragoso Vidal, Nuno. Conferência Lisboa, ?Pluralismo, Democratização e Eleições em Angola e Moçambique?. 2022. (Congresso).</t>
+          <t>FONTES, Paulo. Workshop Desindustrialização e História Social: a construção de um campo de pesquisa (Brasil e Alemanha). 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1688,33 +1688,33 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>FONTES, Paulo. Workshop Desindustrialização e História Social: a construção de um campo de pesquisa (Brasil e Alemanha). 2023. (Outro).</t>
+          <t>FONTES, Paulo; COUTO, A. ; CORROCHANO, C. . O futuro das profissões. 2022. (Exposição).</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Paulo Roberto Ribeiro Fontes</t>
+          <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>FONTES, Paulo; COUTO, A. ; CORROCHANO, C. . O futuro das profissões. 2022. (Exposição).</t>
+          <t>LEMOS, Renato Luís do Couto Neto e. Sessão Coordenada Emrpesariado e Estado. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Renato Luis do Couto Neto e Lemos</t>
+          <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>LEMOS, Renato Luís do Couto Neto e. Sessão Coordenada Emrpesariado e Estado. 2021. (Outro).</t>
+          <t>GUEDES, ROBERTO; FRAGOSO, J. L. R. ; BICALHO, M. F. B. ; SAMPAIO, Antonio Carlos Jucá de ; MELLO, I. ; CONCEICAO, H. . Seminário Internacional Antigo Regime nos Trópicos: 20 anos. 2021. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1737,22 +1737,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>GUEDES, ROBERTO; FRAGOSO, J. L. R. ; BICALHO, M. F. B. ; SAMPAIO, Antonio Carlos Jucá de ; MELLO, I. ; CONCEICAO, H. . Seminário Internacional Antigo Regime nos Trópicos: 20 anos. 2021. (Outro).</t>
+          <t>GUEDES, ROBERTO; IVO, I. P. ; Eduardo França Paiva . Co-org. das palestras do Grupo de Estudos História da Escraivão e História dos Índios: diálogos. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Roberto Guedes Ferreira</t>
+          <t>Silvia Regina Liebel</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>GUEDES, ROBERTO; IVO, I. P. ; Eduardo França Paiva . Co-org. das palestras do Grupo de Estudos História da Escraivão e História dos Índios: diálogos. 2021. (Outro).</t>
+          <t>ARINOS, T. M. ;LIEBEL, Vinícius;LIEBEL, Silvia.;LIEBEL, Silvia.. O antissemitismo no fascismo espanhol. Palestra de Toni Morant i Ariños. 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ARINOS, T. M. ;LIEBEL, Vinícius;LIEBEL, Silvia.;LIEBEL, Silvia.. O antissemitismo no fascismo espanhol. Palestra de Toni Morant i Ariños. 2023. (Outro).</t>
+          <t>LIEBEL, Silvia.;LIEBEL, Silvia.;LIEBEL, Vinícius; HERMANN, J. ; MARTINS, W. S. ; SANTOS, B. C. C. . Entre História Global e Microstoria: investigar a partir de processos da Inquisição Portuguesa. Palestra com José Pedro Paiva. 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>LIEBEL, Silvia.;LIEBEL, Silvia.;LIEBEL, Vinícius; HERMANN, J. ; MARTINS, W. S. ; SANTOS, B. C. C. . Entre História Global e Microstoria: investigar a partir de processos da Inquisição Portuguesa. Palestra com José Pedro Paiva. 2023. (Outro).</t>
+          <t>LIEBEL, Vinícius;LIEBEL, Silvia.;LIEBEL, Silvia.; CORDEIRO, J. ; REIS FILHO, D. A. ; ROLLEMBERG, D. ; ROTTA, H. . A Era de Ares. Reflexões a propósito do centenário do fascismo. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1793,11 +1793,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>LIEBEL, Vinícius;LIEBEL, Silvia.;LIEBEL, Silvia.; CORDEIRO, J. ; REIS FILHO, D. A. ; ROLLEMBERG, D. ; ROTTA, H. . A Era de Ares. Reflexões a propósito do centenário do fascismo. 2023. (Congresso).</t>
+          <t>BOTTI, A. ;LIEBEL, Vinícius;LIEBEL, Silvia.;LIEBEL, Silvia.. Os nacionalismos europeus e a atitude da Igreja Católica frente a eles (séculos XIX e XX). Palestra de Alfonso Botti. 2022. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1808,26 +1808,26 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>BOTTI, A. ;LIEBEL, Vinícius;LIEBEL, Silvia.;LIEBEL, Silvia.. Os nacionalismos europeus e a atitude da Igreja Católica frente a eles (séculos XIX e XX). Palestra de Alfonso Botti. 2022. (Outro).</t>
+          <t>LIEBEL, Silvia.;LIEBEL, Silvia.; REIS, M. V. . História das mulheres e das relações de gênero (séculos XIII-XVIII). 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Silvia Regina Liebel</t>
+          <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>LIEBEL, Silvia.;LIEBEL, Silvia.; REIS, M. V. . História das mulheres e das relações de gênero (séculos XIII-XVIII). 2021. (Congresso).</t>
+          <t>LIEBEL, Vinícius;LIEBEL, Silvia; CORDEIRO, Janaína ; ROLLEMBERG, Denise ; REIS FILHO, D. A. ; ROTTA, H. R. . A Era de Ares: Reflexões a Propósito do Centenário do Fascismo. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>LIEBEL, Vinícius;LIEBEL, Silvia; CORDEIRO, Janaína ; ROLLEMBERG, Denise ; REIS FILHO, D. A. ; ROTTA, H. R. . A Era de Ares: Reflexões a Propósito do Centenário do Fascismo. 2023. (Congresso).</t>
+          <t>MORANT I ARIÑOS, T. ;LIEBEL, Vinícius. O Antissemitismo no Fascismo Espanhol. 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>MORANT I ARIÑOS, T. ;LIEBEL, Vinícius. O Antissemitismo no Fascismo Espanhol. 2023. (Outro).</t>
+          <t>LIEBEL, Silvia;LIEBEL, Vinícius; CATÃO, B. ; HERMANN, J. ; Martins, W. . Entre História Global e Microstoria - investigar a partir de processos da inquisição portuguesa - Palestra com José Pedro Paiva. 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1868,11 +1868,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>LIEBEL, Silvia;LIEBEL, Vinícius; CATÃO, B. ; HERMANN, J. ; Martins, W. . Entre História Global e Microstoria - investigar a partir de processos da inquisição portuguesa - Palestra com José Pedro Paiva. 2023. (Outro).</t>
+          <t>HEUER, Wolfgang ;LIEBEL, Vinícius. Cosmos e República ? Sustentabilidade e Responsabilidade em Hannah Arendt e Alexander von Humboldt - Palestra de Wolfgang Heuer. 2022. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>HEUER, Wolfgang ;LIEBEL, Vinícius. Cosmos e República ? Sustentabilidade e Responsabilidade em Hannah Arendt e Alexander von Humboldt - Palestra de Wolfgang Heuer. 2022. (Outro).</t>
+          <t>BOTTI, A. ;LIEBEL, Silvia;LIEBEL, Vinícius. Os Nacionalismos Europeus e a Atitude da Igreja Católica frente a Eles (séc. XIX e XX) - Palestra de Alfonso Botti. 2022. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>BOTTI, A. ;LIEBEL, Silvia;LIEBEL, Vinícius. Os Nacionalismos Europeus e a Atitude da Igreja Católica frente a Eles (séc. XIX e XX) - Palestra de Alfonso Botti. 2022. (Outro).</t>
+          <t>LIEBEL, Vinícius; CORDEIRO, Janaína . ST Direitas, História e Memória (Anpuh-RJ). 2022. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1913,41 +1913,41 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>LIEBEL, Vinícius; CORDEIRO, Janaína . ST Direitas, História e Memória (Anpuh-RJ). 2022. (Outro).</t>
+          <t>LIEBEL, Vinícius. Coordenação de Sessão de Apresentação de Trabalhos - XLII JICTAC. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Vinícius Aurélio Liebel</t>
+          <t>Vitor Izecksohn</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>LIEBEL, Vinícius. Coordenação de Sessão de Apresentação de Trabalhos - XLII JICTAC. 2021. (Outro).</t>
+          <t>Schulz, John ; CRUZ, C. A. S. ; DIEGUEZ, C. ;IZECKSOHN, Vitor. Os Militares na Política. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Vitor Izecksohn</t>
+          <t>William de Souza Martins</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Schulz, John ; CRUZ, C. A. S. ; DIEGUEZ, C. ;IZECKSOHN, Vitor. Os Militares na Política. 2022. (Outro).</t>
+          <t>MARTINS, W. S.. Jornada de Estudos Históricos Professor Manoel Salgado - Edição 2023. 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1961,21 +1961,6 @@
         <v>2023</v>
       </c>
       <c r="C102" t="inlineStr">
-        <is>
-          <t>MARTINS, W. S.. Jornada de Estudos Históricos Professor Manoel Salgado - Edição 2023. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>William de Souza Martins</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C103" t="inlineStr">
         <is>
           <t>MARTINS, W. S.. Simpósio Temático Práticas religiosas e representações políticas e sociais no mundo moderno (no âmbito da Jornada Manoel Salgado). 2023. (Outro).</t>
         </is>
@@ -1992,7 +1977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C309"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2532,7 +2517,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Andréa Casa Nova Maia</t>
+          <t>Andrea Daher</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2540,14 +2525,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CARDOSO, L. C. ; LEMOS, C. M. E. ;MAIA, ANDRÉA CASA NOVA. "ST 30: Paisagem, memória e diversidade nas cidades fluminenses: entre o patrimônio de pedra e cal, material e o intangível, imaterial de indígenas, quilombolas e imigrantes que conformam nossa paisagem cultural",. 2024. (Congresso).</t>
+          <t>Workshop:  Da América ao Pacífico. Para além do mito do ?selvagem?.A presença da "palavra selvagem". 2024. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Andréa Casa Nova Maia</t>
+          <t>Antonio Carlos Jucá de Sampaio</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2555,59 +2540,61 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MAIA, ANDRÉA CASA NOVA. Desindustrialização e História Social: a experiência alemã. 2023. (Outro).</t>
+          <t>IX Encontro Internacional de História Colonial.Economia, moeda e crédito: um debate necessário.
+						2023. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Andréa Casa Nova Maia</t>
+          <t>Antonio Carlos Jucá de Sampaio</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MAIA, ANDRÉA CASA NOVA. 11ª Semana de Integração Acadêmica da Universidade Federal do Rio de Janeiro. 2022. (Outro).</t>
+          <t>Seminário Antigo Regime nos Trópicos: 20 anos.Mercado urbano e economia costumeira: a urbe carioca no setecentos. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Andréa Casa Nova Maia</t>
+          <t>Beatriz Catão Cruz Santos</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MAIA, ANDRÉA CASA NOVA. Simpósio 17 - Imagens e História: Abordagens multidisciplinares no Ensino e Pesquisa em História da XV Semana de História Política e XII Seminário Nacional de História: Política, Cultura e Sociedade. 2022. (Outro).</t>
+          <t>21º Encontro de História da ANPUH-Rio.Contas poucas, mas feitas. A procissão de Corpus Christi no orçamento da câmara de Lisboa ? 1ª metade do século XVIII.
+						2024. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Andréa Casa Nova Maia</t>
+          <t>Beatriz Catão Cruz Santos</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MAIA, ANDRÉA CASA NOVA. XVI Encontro Nacional de História Oral. 2022. (Congresso).</t>
+          <t>Memory and Performance: Classical Reception in Early Modern Festivals (15th-18th Century).The meanings of awnings and columns at the Lisbon Corpus Christi procession (1717-1777). 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Andréa Casa Nova Maia</t>
+          <t>Beatriz Catão Cruz Santos</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2615,29 +2602,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MAIA, A. C. N.. XVI Encontro Nacional de História Oral - Pandemia e Futuros Possíveis. 2022. (Congresso).</t>
+          <t>11a Semana de Integração Acadêmica da UFRJ.Religiosidades, Relações Sociais, Poder 2 (Coodenador e avaliador). 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Andréa Casa Nova Maia</t>
+          <t>Beatriz Catão Cruz Santos</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MAIA, ANDRÉA CASA NOVA. História Oral: Gênero e intersecções - Debate com as vencedoras do 2º Prêmio Ecléa Bosi de teses. 2021. (Outro).</t>
+          <t>Rituais públicos e alteridade no império português. As procissões no espaço e no tempo -  Corpus Christi e São Sebastião no Rio de Janeiro do século XVIII. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Andréa Casa Nova Maia</t>
+          <t>Beatriz Catão Cruz Santos</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2645,44 +2632,45 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MAIA, ANDRÉA CASA NOVA. Sessão Relações Étnicas e Raciais I da XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC/UFRJ). 2021. (Outro).</t>
+          <t>Mapear os Rituais Públicos no Império Português.O insigne pintor: uma leitura da autobiografia poética de Vieira Lusitano. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Andréa Casa Nova Maia</t>
+          <t>Fernando Luiz Vale Castro</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MAIA, ANDRÉA CASA NOVA. Sessão Sexualidade e Identidade de Gênero da XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC/UFRJ). 2021. (Outro).</t>
+          <t>Perspectivas Pós-coloniais e Decoloniais.Palestra.
+						2023. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Andréa Casa Nova Maia</t>
+          <t>Fernando Luiz Vale Castro</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MAIA, ANDRÉA CASA NOVA. Sessão Espaços Urbanos do Rio de Janeiro da XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC/UFRJ). 2021. (Outro).</t>
+          <t>VI Semana de História da UFRJ.Memória e História: regimes ditatoriais na América Latina. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Andréa Casa Nova Maia</t>
+          <t>Fernando Luiz Vale Castro</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2690,44 +2678,45 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MAIA, ANDRÉA CASA NOVA. Sessão Representação e Identidade Feminina da XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC/UFRJ). 2021. (Outro).</t>
+          <t>XX Semana de Relações Internacionais.?Latino, hispânico ou sul-americano? Questões étnicas e identitárias no continente?.
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Andréa Casa Nova Maia</t>
+          <t>Gabriel de Carvalho Godoy Castanho</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MAIA, ANDRÉA CASA NOVA. 42ª Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC). 2021. (Outro).</t>
+          <t>International Congress on Medieval Studies. Digitizing the Middle Ages: The Impacts of Digitized Corpora on Medieval Historiography. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Andréa Casa Nova Maia</t>
+          <t>Gabriel de Carvalho Godoy Castanho</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MAIA, ANDRÉA CASA NOVA. 1º Ciclo de Debates IMAM - Laboratório de Imagem, Memória, Arte e Metrópole. 2021. (Outro).</t>
+          <t>11ª SEMANA DE INTEGRAÇÃO ACADÊMICA DA UFRJ.História, Arte, Representação 2. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Andréa Casa Nova Maia</t>
+          <t>Gabriel de Carvalho Godoy Castanho</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2735,14 +2724,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MAIA, ANDRÉA CASA NOVA. XI Encontro Regional Sul de História Oral. 2021. (Outro).</t>
+          <t>1ª. Semana de Ciências Sociais, Geografia e História da FMU (REMOTO vi via Youtube)).Sobre desertos e homens: A história da solidão ocidental.. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Andréa Casa Nova Maia</t>
+          <t>Gabriel de Carvalho Godoy Castanho</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2750,44 +2739,44 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MAIA, ANDRÉA CASA NOVA. ST 12 - Pandemia, temporalidade e arquivo: Os desafios de arquivar a experiência contemporânea do 31º  Simpósio Nacional de História. 2021. (Outro).</t>
+          <t>XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC 2020 - Edição Especial).Centro de Filosofia e Ciências Humanas - Oral Padrão - Sessão 44. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Andréa Casa Nova Maia</t>
+          <t>Hanna Sonkajärvi</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MAIA, ANDRÉA CASA NOVA. ST: Imprensa e cidadania entre o Império e a Reública - projetos de modernidade e estratégias de inclusão na cidade do Rio de Janeiro, IV Seminário Internacional Brasil no século XIX. 2021. (Outro).</t>
+          <t>Metamorfoses Jurídicas: Metodologia, História, Codificação.Ponderações sobre a importância de estudar história da prática juridical no Brasil. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Andréa Casa Nova Maia</t>
+          <t>Hanna Sonkajärvi</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MAIA, ANDRÉA CASA NOVA. Simpósio 17 - Imagens e História: abordagens multidisciplinares no Ensino e Pesquisa em História da XV Semana de História Política e XII Seminário Nacional de História: Política, Cultura e Sociedade da Universidade do Estado do Rio de Janeiro. 2021. (Outro).</t>
+          <t>Poderes, poli-centrismo y regulaciones comerciales en los espacios ibéricos: monopolios, privilegios y regímenes exclusivos.Protecting the Basque Merchant's Privileges in the Early Modern Atlantic. The Coordinating Efforts of the Political Body of the Juntas y Regimientos de Vizcaya. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Andréa Casa Nova Maia</t>
+          <t>Hanna Sonkajärvi</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2795,14 +2784,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MAIA, ANDRÉA CASA NOVA; CORREA, R. S. . Curso de Formação em História Oral. 2021. (Outro).</t>
+          <t>Law and Diversity. European and Latin American experiences from a legal historical perspective - Private Law II -.Max-Planck-Institut für Rechtsgeschichte und Rechtstheorie. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Andréa Casa Nova Maia</t>
+          <t>Hanna Sonkajärvi</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2810,135 +2799,137 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MAIA, A. C. N.; SILVA, M. R. . XIII Encontro Regional Nordeste de História Oral: Práticas antirracistas e narrativas inclusivas. 2021. (Congresso).</t>
+          <t>Palestra, seminário de pesquisa, Instituto de História, Universidade de Regensburg.Die Juntas y Regimientos de Vizcaya: Eine zentrale Organisation der baskischen Handelskoordination in der Frühen Neuzeit. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Andréa Casa Nova Maia</t>
+          <t>Henrique Buarque de Gusmão</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MAIA, A. C. N.. XV Semana de História Política da Universidade do Estado do Rio de Janeiro | XII Seminário Nacional de História: Política, Cultura e Sociedade. 2021. (Congresso).</t>
+          <t>32o Simpósio Nacional de História da ANPUH.Divas na boca do lixo: escândalos e sucessos na cena carioca dos anos 1960.
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Andrea Daher</t>
+          <t>Henrique Buarque de Gusmão</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Workshop:  Da América ao Pacífico. Para além do mito do ?selvagem?.A presença da "palavra selvagem". 2024. (Outra).</t>
+          <t>20º Encontro de História da ANPUH-Rio.A longa história da temporada que não houve: "Perdoa-me por me traíres" em São Paulo (1957).
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Andrea Daher</t>
+          <t>Henrique Buarque de Gusmão</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DAHER, Andrea; LILTI, A. . Apresentação do livro de Antoine Lilti, A herança das Luzes. 2024. (Outro).</t>
+          <t>Jornada de Estudos O ?efeito de escândalo? na literatura e nas artes brasileiras.O espetáculo do escândalo. Nelson Rodrigues protagonista do ?caso Perdoa-me por me traíres?. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Andrea Daher</t>
+          <t>Henrique Buarque de Gusmão</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DAHER, Andrea; DESCOLA, Ph. . Mundos compostos: conversa com Philippe Descola. 2023. (Outro).</t>
+          <t>XVIII Encontro Internacional da ABRALIC: Mundos com/partilhados.O dramaturgo comentador de sua obra: a performance de Nelson Rodrigues como defensor de um sentido para sua obra.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Andrea Daher</t>
+          <t>Henrique Buarque de Gusmão</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DAHER, Andrea; DESCOLA, Ph. . Conferência de Philippe Descola: Cosmopolíticas da Terra. 2023. (Outro).</t>
+          <t>Colóquio Teatro e Sociedade. Textos, atrizes e públicos. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Andrea Daher</t>
+          <t>Henrique Buarque de Gusmão</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>DAHER, Andrea; DESCOLA, Ph. . Exibição de filme e debate: "Compor os mundos. O pensamento de Philippe Descola" de Eliza Lévy. 2023. (Outro).</t>
+          <t>I Jornada de Egressos Manolo Florentino.Sociedade e Cultura. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Andrea Daher</t>
+          <t>Isabele de Matos Pereira de Mello</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DAHER, Andrea; LEVI, G. . Debate com Giovanni Levi. 2022. (Outro).</t>
+          <t>II Ciclo de Conferências - Perspectivas em História Moderna.Negociação e Conflito (Palestrante George Félix Cabral; Coordenadora do debate: Isabele Mello).. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Antonio Carlos Jucá de Sampaio</t>
+          <t>Isabele de Matos Pereira de Mello</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>IX Encontro Internacional de História Colonial.Economia, moeda e crédito: um debate necessário.
-						2023. (Encontro).</t>
+          <t>Seminário Internacional Antigo Regime nos Trópicos - 20 Anos.Juízes sindicantes e sindicados: as residências e o perfil das testemunhas na América portuguesa (séc. XVIII). 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Antonio Carlos Jucá de Sampaio</t>
+          <t>Isabele de Matos Pereira de Mello</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2946,150 +2937,150 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Seminário Antigo Regime nos Trópicos: 20 anos.Mercado urbano e economia costumeira: a urbe carioca no setecentos. 2021. (Seminário).</t>
+          <t>VIII Encontro Internacional de História Colonial.O funcionamento dos Auditórios no século XVIII: A dinâmica entre os magistrados e os conhecedores nos negócios forenses.
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Antonio Carlos Jucá de Sampaio</t>
+          <t>Jacqueline Hermann</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SAMPAIO, ANTONIO CARLOS JUCÁ DE. 31º Simpósio Nacional de História da ANPUH. 2021. (Congresso).</t>
+          <t>Congresso Internacional Migrações Forçadas entre a cristandade o Islão. Judeu, língua, espião, embaicador: Matias Bicudo a serviço de D.Antônio, Prior do Crato (1580-1590). 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Antonio Carlos Jucá de Sampaio</t>
+          <t>Jacqueline Hermann</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SAMPAIO, ANTONIO CARLOS JUCÁ DE. Seminário Internacional "Antigo Regime nos Trópicos: 20 anos". 2021. (Congresso).</t>
+          <t>Mesa Redonda Morte e Ficção do Rei Dom Sebastião.Morte e Ficção do Rei Dom Sebastião. 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Antonio Carlos Jucá de Sampaio</t>
+          <t>Jacqueline Hermann</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SAMPAIO, ANTONIO CARLOS JUCÁ DE. Simpósio temático "O Império e seus idiomas: governos ultramarinos, negociantes e escravos no mundo português". 2021. (Congresso).</t>
+          <t>Fake News na Época Moderna.Acreditavam os modernos em suas crenças?Mistério, profecia e política na construção da verdade. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Antonio Carlos Jucá de Sampaio</t>
+          <t>Jacqueline Hermann</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SAMPAIO, ANTONIO CARLOS JUCÁ DE. ART em teses: novas pesquisas. 2021. (Congresso).</t>
+          <t>Jornada de Estudos Históricos Professor Manoel Salgado.O legado de Manoel. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Beatriz Catão Cruz Santos</t>
+          <t>Jacqueline Hermann</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>21º Encontro de História da ANPUH-Rio.Contas poucas, mas feitas. A procissão de Corpus Christi no orçamento da câmara de Lisboa ? 1ª metade do século XVIII.
-						2024. (Encontro).</t>
+          <t>A Inquisição Portuguesa: 200 anos depois. Mesa 3: Freiras, visionárias e sacerdócio. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Beatriz Catão Cruz Santos</t>
+          <t>Jacqueline Hermann</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Memory and Performance: Classical Reception in Early Modern Festivals (15th-18th Century).The meanings of awnings and columns at the Lisbon Corpus Christi procession (1717-1777). 2023. (Seminário).</t>
+          <t>Colóquio ?Fake News na Época Moderna?.Entre verdadeiros e falsos profetas: D.João de Castro, Bandarra e o messianismo político português. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Beatriz Catão Cruz Santos</t>
+          <t>Jacqueline Hermann</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>11a Semana de Integração Acadêmica da UFRJ.Religiosidades, Relações Sociais, Poder 2 (Coodenador e avaliador). 2022. (Outra).</t>
+          <t>Perspectiva em História Moderna."Em uma Época de Traduções": tradução, materialidade do impresso e conexões anglo-ibéricas no século XVII".. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Beatriz Catão Cruz Santos</t>
+          <t>João Rodolfo Munhoz Ohara</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Rituais públicos e alteridade no império português. As procissões no espaço e no tempo -  Corpus Christi e São Sebastião no Rio de Janeiro do século XVIII. 2022. (Congresso).</t>
+          <t>5th INTH Conference. History and Inductive Risk, or the Social Harms of Bad Histories. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Beatriz Catão Cruz Santos</t>
+          <t>João Rodolfo Munhoz Ohara</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Mapear os Rituais Públicos no Império Português.O insigne pintor: uma leitura da autobiografia poética de Vieira Lusitano. 2021. (Seminário).</t>
+          <t>XII Seminário Brasileiro de Teoria e História da Historiografia.Realismos e Antirrealismos Históricos. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Beatriz Catão Cruz Santos</t>
+          <t>João Rodolfo Munhoz Ohara</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3097,60 +3088,59 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SOUZA, F. P. ;SANTOS, Beatriz Catão Cruz. Pardos livres e a articulação de suas redes de poder na milícia e no artesanato (São Paulo, 1810-1821). 2023. (Outro).</t>
+          <t>X Conferência de Epistemologia Social.Construindo pontes entre a epistemologia social e a filosofia da história. 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Felipe Charbel Teixeira</t>
+          <t>João Rodolfo Munhoz Ohara</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CHARBEL, Felipe; MAGRI, Ieda ; GUTIERREZ, Rafael . Leituras do contemporâneo: literatura e crítica no Brasil e na Argentina. 2021. (Congresso).</t>
+          <t>Centre for Philosophical Studies of History Research Seminar.Historical Knowledge and Epistemic Dependence: Issues of Trust and Expertise. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Fernando Luiz Vale Castro</t>
+          <t>João Rodolfo Munhoz Ohara</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Perspectivas Pós-coloniais e Decoloniais.Palestra.
-						2023. (Encontro).</t>
+          <t>Seminário Brasileiro de Teoria e História da Historiografia.Ethos do historiador e autonomia relativa da disciplina. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Fernando Luiz Vale Castro</t>
+          <t>João Rodolfo Munhoz Ohara</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>VI Semana de História da UFRJ.Memória e História: regimes ditatoriais na América Latina. 2023. (Seminário).</t>
+          <t>Ética na Pesquisa com Seres Humanos e no Ensino de História.Existe uma "Ética da História"? Os historiadores e nossas relações com o passado.. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Fernando Luiz Vale Castro</t>
+          <t>João Rodolfo Munhoz Ohara</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3158,60 +3148,60 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>XX Semana de Relações Internacionais.?Latino, hispânico ou sul-americano? Questões étnicas e identitárias no continente?.
-						2021. (Encontro).</t>
+          <t>Semana de Recepção de História.A Emergência da Historiografia Brasileira Universitária (1942-1980). 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Gabriel de Carvalho Godoy Castanho</t>
+          <t>Jorge Victor de Araújo Souza</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>International Congress on Medieval Studies. Digitizing the Middle Ages: The Impacts of Digitized Corpora on Medieval Historiography. 2023. (Congresso).</t>
+          <t>JICTAC 2024.Filosofia, Estética, Emoções.
+						2024. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Gabriel de Carvalho Godoy Castanho</t>
+          <t>Jorge Victor de Araújo Souza</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>11ª SEMANA DE INTEGRAÇÃO ACADÊMICA DA UFRJ.História, Arte, Representação 2. 2022. (Outra).</t>
+          <t>IX Encontro Internacional de História Colonial (EIHC): ?Dimensões globais e locais dos impérios coloniais: redes, circulação e dinâmicas (sécs. XV-XIX)?,. Iconografia Imperial: o mito colonial do indígena ingenuamente generoso e a sua contravisualidade. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Gabriel de Carvalho Godoy Castanho</t>
+          <t>Jorge Victor de Araújo Souza</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1ª. Semana de Ciências Sociais, Geografia e História da FMU (REMOTO vi via Youtube)).Sobre desertos e homens: A história da solidão ocidental.. 2021. (Outra).</t>
+          <t>V Semana Infernal: Pactos e Rituais.DEMÔNIOS NA CULTURA POLÍTICA CASTELHANA: IMAGENS EM LIVROS DE EMBLEMAS. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Gabriel de Carvalho Godoy Castanho</t>
+          <t>Jorge Victor de Araújo Souza</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3219,224 +3209,228 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC 2020 - Edição Especial).Centro de Filosofia e Ciências Humanas - Oral Padrão - Sessão 44. 2021. (Outra).</t>
+          <t>Encontro Nacional de Estudos da Imagem e V Encontro Internacional de Estudos da Imagem,.NO PALCO DAS LETRAS: ESCRITA E IMAGEM ENREDADOS NA EMBLEMÁTICA DO SÉCULO DE OURO ESPANHOL?.
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Gabriel de Carvalho Godoy Castanho</t>
+          <t>Jorge Victor de Araújo Souza</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CASTANHO, G; MAGNANI, E. ; PERREAUX, N. . Digitizing the Middle Ages: The Impacts of Digitized Corpora on Medieval Historiography (Mesa de comunicações no International Congress on Medieval Studies - Kalamazoo). 2023. (Outro).</t>
+          <t>I SEMANA DA PÓS-GRADUAÇÃO IFF MARICÁ.Mnemosyne entre disputas: quando uma divindade participa da derrubada de estátuas..
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Gabriel de Carvalho Godoy Castanho</t>
+          <t>Joao Luis Ribeiro Fragoso</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CASTANHO, G; MAGNANI, E. ; PERREAUX, N. . Digitizing the Middle Ages: the impacts of digitized corpora on medieval historiography (Mesa de comunicações no International Medieval Congress - Leeds). 2023. (Outro).</t>
+          <t>lecture our Joseph C. Miller Memorilal Lecture Series.Sugar Mill Owners, Slavery and the Slave Trade in  Brazil : Bahia and Rio de Janeiro, 1600-1750. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Gabriel de Carvalho Godoy Castanho</t>
+          <t>Joao Luis Ribeiro Fragoso</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CASTANHO, G; et alii. . A digitalização da medievalística brasileira  (e além...)  - XIII Encontro Internacional do LATHIMM. 2023. (Congresso).</t>
+          <t>FAMILIA, ESTRATEGIAS DE PODER Y CAMBIO GENERACIONAL EN.Gerações de famílias da elite colonial na América lusa ao longo do século XVIII: terra e estratégias poder no Rio de Janeiro.. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Gabriel de Carvalho Godoy Castanho</t>
+          <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CASTANHO, G; NEVES, L. C. S. . Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. 2022. (Outro).</t>
+          <t>4th World Congress of Environmental History. Oral history and noxious deindustrialization in comparative perspective: preliminary reflections on the cases of Guanabara Bay (Brazil) and Bizkaia Bay (Spain) in the Great Acceleration. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Gabriel de Carvalho Godoy Castanho</t>
+          <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CASTANHO, G; PEREIRA, A. P. L. . Jornada  Emoções na Idade Média: abordagens,  historiografias e filosofias. 2022. (Outro).</t>
+          <t>Minicurso virtual Wikipédia para professores universitários.Experiências de História Ambiental na Wikipedia. 2024. (Oficina).</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Gabriel de Carvalho Godoy Castanho</t>
+          <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CASTANHO, G; NEVES, L. C. S. ; et alii. . Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. Conceitos e Historiografias. 2022. (Outro).</t>
+          <t>Mundos em Colisão: Representações, Práticas e Materialidade (XV-XIX).História Ambiental da Época Moderna: Revisitando os limites entre Cultura e Natureza.
+						2024. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Gabriel de Carvalho Godoy Castanho</t>
+          <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CASTANHO, G; NEVES, L. C. S. ; et alii. . Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. Estudos não "gregorianos". 2022. (Outro).</t>
+          <t>Rio de Janeiro em Foco: Desenvolvimento, Crise Climática e Urbanização  na CIdade Maravilhosa.Rio de Janeiro em Foco: Desenvolvimento, Crise Climática e Urbanização  na CIdade Maravilhosa. 2024. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Gabriel de Carvalho Godoy Castanho</t>
+          <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CASTANHO, G; PEREIRA, A. P. L. . Jornada  Emoções na Idade Média: abordagens, historiografias e literaturas. 2022. (Outro).</t>
+          <t>Società Italiana degli Urbanisti. Communities and Climates: stories of vulnerability, resilience and places. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Gabriel de Carvalho Godoy Castanho</t>
+          <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CASTANHO, G; PEREIRA, A. P. L. . Jornada Emoções na Idade Média: abordagens e historiografias. 2021. (Outro).</t>
+          <t>XI Simposio de la Sociedad Latinoamericana y Caribeña de Historia Ambiental. Morro de Babilonia: dos medos nasce uma floresta, e de uma floresta novas identidades comunitárias. Rio de Janeiro, 1955- 2020. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Gabriel de Carvalho Godoy Castanho</t>
+          <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CASTANHO, G C G; ASFORA, W. C. . Estudos do Discurso Medieval (ST 08  no XIV EIEM). 2021. (Outro).</t>
+          <t>XI Simposio de la Sociedad Latinoamericana y Caribeña de Historia Ambiental. Fundadores: 20 anos de história ambiental latinoamericana y caribeña. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Gabriel de Carvalho Godoy Castanho</t>
+          <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>MAGNANI, E. ;CASTANHO, G C G; et alii. . Journée d?études CBMA (Corpus Burgundiae Medii Aevi) ? Hagiographie bourguignonne 2.0 ? corpus électronique et nouvelles recherches. 2021. (Outro).</t>
+          <t>XI Simposio de la Sociedad Latinoamericana y Caribeña de Historia Ambiental. Apresentação do Livro: História Ambiental e Ecologia Urbana para Quito. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Hanna Sonkajärvi</t>
+          <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Metamorfoses Jurídicas: Metodologia, História, Codificação.Ponderações sobre a importância de estudar história da prática juridical no Brasil. 2024. (Seminário).</t>
+          <t>XXII IOHAInternational Conference: Oral History in a Digital and Audiovisual World. Redes de solidaridad en tiempos de inundacióndel Río Doce: Governador Valadares, Minas Gerais, Brazil. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Hanna Sonkajärvi</t>
+          <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Poderes, poli-centrismo y regulaciones comerciales en los espacios ibéricos: monopolios, privilegios y regímenes exclusivos.Protecting the Basque Merchant's Privileges in the Early Modern Atlantic. The Coordinating Efforts of the Political Body of the Juntas y Regimientos de Vizcaya. 2024. (Seminário).</t>
+          <t>11 Semana de Integração Acadêmica da UFRJ.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Hanna Sonkajärvi</t>
+          <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Law and Diversity. European and Latin American experiences from a legal historical perspective - Private Law II -.Max-Planck-Institut für Rechtsgeschichte und Rechtstheorie. 2021. (Seminário).</t>
+          <t>American Society for Environmental History?s 2022 Annual Conference. Babilonia Hill: urban forestry, community identity and strategy in Rio de Janeiro (1995-2020). 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Hanna Sonkajärvi</t>
+          <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -3444,152 +3438,153 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Palestra, seminário de pesquisa, Instituto de História, Universidade de Regensburg.Die Juntas y Regimientos de Vizcaya: Eine zentrale Organisation der baskischen Handelskoordination in der Frühen Neuzeit. 2021. (Seminário).</t>
+          <t>Environmental History symposium.Tales of an Urban Forest: The human and non-human communities of Morro da Babilônia, Rio de Janeiro, (1995-2021).
+						2022. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Henrique Buarque de Gusmão</t>
+          <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>32o Simpósio Nacional de História da ANPUH.Divas na boca do lixo: escândalos e sucessos na cena carioca dos anos 1960.
-						2023. (Simpósio).</t>
+          <t>Environmental History symposium.Tales of an Urban Forest: The human and non-human communities of Morro da Babilônia, Rio de Janeiro, (1995-2021).
+						2022. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Henrique Buarque de Gusmão</t>
+          <t>Lorena Lopes da Costa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>20º Encontro de História da ANPUH-Rio.A longa história da temporada que não houve: "Perdoa-me por me traíres" em São Paulo (1957).
-						2022. (Encontro).</t>
+          <t>IV Seminário  Docere, Delectare et Movere: Sonhos, Ficções e (ir)Racionalidades.Mirar (e ver) os símiles da Ilíada no sertão. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Henrique Buarque de Gusmão</t>
+          <t>Lorena Lopes da Costa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Jornada de Estudos O ?efeito de escândalo? na literatura e nas artes brasileiras.O espetáculo do escândalo. Nelson Rodrigues protagonista do ?caso Perdoa-me por me traíres?. 2022. (Outra).</t>
+          <t>L?INVENTION D?ORIGINES GRECQUES DANS LES CULTURES TEXTUELLES ET VISUELLES DE L?EUROPE PRÉ-MODERNE (1100-1600). Chanter un Ulysse portugais : l?héroïsme maritime pour présenter le nouveau monde. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Henrique Buarque de Gusmão</t>
+          <t>Lorena Lopes da Costa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>XVIII Encontro Internacional da ABRALIC: Mundos com/partilhados.O dramaturgo comentador de sua obra: a performance de Nelson Rodrigues como defensor de um sentido para sua obra.
-						2022. (Encontro).</t>
+          <t>Laboratório de Estudos sobre Ficção e História LEFH.Guimarães Rosa lê Homero: os símiles da Ilíada no Grande Sertão. 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Henrique Buarque de Gusmão</t>
+          <t>Lorena Lopes da Costa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Colóquio Teatro e Sociedade. Textos, atrizes e públicos. 2021. (Congresso).</t>
+          <t>O Pré-Capitalismo em Perspectiva &amp; II Jornada Norte-Fluminense de Estudos sobre o Pré-Capitalismp. Cantar um Ulisses português: o presente na Antiguidade. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Henrique Buarque de Gusmão</t>
+          <t>Lorena Lopes da Costa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>I Jornada de Egressos Manolo Florentino.Sociedade e Cultura. 2021. (Outra).</t>
+          <t>Razão e História:  do século XVII ao XXI.Recepção da Antiguidade: uma interseção  entre a Teoria e os Estudos Clássicos. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Henrique Buarque de Gusmão</t>
+          <t>Lorena Lopes da Costa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>GUSMAO, H. B.; SILVA, T. B. ; AZEVEDO, E. R. ; MOURA, M. . Semana de estudos em história do teatro. 2024. (Congresso).</t>
+          <t>X CIEAM. Odisseu à moda portuguesa. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Henrique Buarque de Gusmão</t>
+          <t>Lorena Lopes da Costa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>GUSMAO, H. B.; SODRE, C. ; WAJNBERG, D. S. ; OLIVEIRA, D. . Jornada Studio Stanislavski: 30 anos de experimentação teatral. 2023. (Congresso).</t>
+          <t>X Simpósio Lendo, Vendo e Ouvindo o Passado: "Metamorfoses" e metamorfoses.A metamorfose do herói: odisseias francesas de 1914.
+						2022. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Henrique Buarque de Gusmão</t>
+          <t>Lorena Lopes da Costa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>GUSMAO, H. B.; DAHER, Andrea . Jornada de Estudos O ?efeito de escândalo? na literatura e nas artes brasileiras. 2022. (Outro).</t>
+          <t>31° Simpósio Nacional de História ? História, verdade e tecnologia.A Ilíada e o Ciclo Épico no sertão de João Guimarães Rosa.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Henrique Buarque de Gusmão</t>
+          <t>Lorena Lopes da Costa</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -3597,14 +3592,15 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SILVA, T. B. ;GUSMAO, H. B.; FERREIRA, V. A. . Colóquio Teatro e Sociedade. 2021. (Outro).</t>
+          <t>31 Simpósio Nacional de História.A Ilíada e o Ciclo Épico no sertão de João Guimarães Rosa.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Henrique Buarque de Gusmão</t>
+          <t>Lorena Lopes da Costa</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -3612,14 +3608,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>GUSMAO, H. B.. IV Encontro Fluminense de Teoria e Historiografia. 2021. (Outro).</t>
+          <t>Encontros da Escola Lacaniana de Psicanálise de Vitória.Homero, João Guimarães Rosa e o som das nossas dores. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Isabele de Matos Pereira de Mello</t>
+          <t>Lorena Lopes da Costa</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -3627,14 +3623,15 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>II Ciclo de Conferências - Perspectivas em História Moderna.Negociação e Conflito (Palestrante George Félix Cabral; Coordenadora do debate: Isabele Mello).. 2021. (Outra).</t>
+          <t>II Encontro Nacional de História do Baixo Amazonas.Narrar e existir: Sônia Viegas, leitora de João Guimarães Rosa.
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Isabele de Matos Pereira de Mello</t>
+          <t>Lorena Lopes da Costa</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -3642,14 +3639,15 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Seminário Internacional Antigo Regime nos Trópicos - 20 Anos.Juízes sindicantes e sindicados: as residências e o perfil das testemunhas na América portuguesa (séc. XVIII). 2021. (Seminário).</t>
+          <t>III SEMANA ACADÊMICA DE HISTÓRIA.A relevância da Antiguidade e as (re)leituras feministas da Odisseia.
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Isabele de Matos Pereira de Mello</t>
+          <t>Lorena Lopes da Costa</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -3657,120 +3655,121 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>VIII Encontro Internacional de História Colonial.O funcionamento dos Auditórios no século XVIII: A dinâmica entre os magistrados e os conhecedores nos negócios forenses.
-						2021. (Encontro).</t>
+          <t>Kyklos 2021 (CHS / Harvard University) - The Greek Epic Cycle and its Reception.Reception of the Iliad and the Epic Cycle in postcolonial literature by João Guimarães  Rosa: the Greek hero in the Brazilian backlands. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Isabele de Matos Pereira de Mello</t>
+          <t>Lorena Lopes da Costa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>FRAGOSO, J. ;SAMPAIO, A. C. J.;FERREIRA, R. G.;MELLO, Isabele de Matos P. de. Seminário: Humanidades Digitais e o uso do software Transkribus na pesquisa histórica. 2023. (Outro).</t>
+          <t>XXXI Ciclo de Debates em História Antiga.O que faz a dor: Hécuba na Ilíada e no teatro de Eurípides. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Isabele de Matos Pereira de Mello</t>
+          <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>MELLO, Isabele de Matos P. de;LOUREIRO, M. J. G.. VIII Encontro Internacional de História Colonial - Coordenação de Simpósio Temático: O governo da justiça: instituições, discursos, poderes e magistrados (sécs. XVII-XIX). 2021. (Outro).</t>
+          <t>5th INTH Network Conference: History &amp; Responsibility: Doing History in Times of Conflicting Political Demands.The writing of crisis in Annie Ernaux?s and Elena Ferrante?s work.
+						2024. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Isabele de Matos Pereira de Mello</t>
+          <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>FRAGOSO, J. ;BICALHO, M. F.;SAMPAIO, A. C. J.;FERREIRA, R. G.;MELLO, Isabele de Matos P. de; ALMEIDA, Carla M. ; CONCEICAO, H. . ART em Teses: Novas Pesquisas. 2021. (Outro).</t>
+          <t>XII Seminário Brasileiro de Teoria e História da Historiografia (SNHH).História e Ficção em Annie Ernaux e Elena Ferrante. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Isabele de Matos Pereira de Mello</t>
+          <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>ALMEIDA, Carla M. ;BICALHO, Maria Fernanda B.; CONCEICAO, H. ;FERREIRA, R. G.; FRAGOSO, J. ;MELLO, Isabele de Matos P. de;SAMPAIO, A. C. J.. Seminário Internacional Antigo Regime nos Trópicos - 20 Anos. 2021. (Outro).</t>
+          <t>11a Semana de Integração Acadêmica da UFRJ.Coordenadora de Sessão. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Jacqueline Hermann</t>
+          <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Congresso Internacional Migrações Forçadas entre a cristandade o Islão. Judeu, língua, espião, embaicador: Matias Bicudo a serviço de D.Antônio, Prior do Crato (1580-1590). 2023. (Congresso).</t>
+          <t>4th INTH Network Conference: Media, Mediations and Mediators: (Re) Mediating History in the 21st Century.Figurations of Time: the end in Elena Ferrante?s Neapolitan tetralogy.
+						2022. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Jacqueline Hermann</t>
+          <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Mesa Redonda Morte e Ficção do Rei Dom Sebastião.Morte e Ficção do Rei Dom Sebastião. 2023. (Outra).</t>
+          <t>Colóquio Teatro e Sociedade.Shakespeare, entre o epos e o romance. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Jacqueline Hermann</t>
+          <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Fake News na Época Moderna.Acreditavam os modernos em suas crenças?Mistério, profecia e política na construção da verdade. 2022. (Seminário).</t>
+          <t>I Jornada Internacional de Estudos sobre Henry James.?Vontade de crescer?: formação, cultura e modernidade na obra de Henry James. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Jacqueline Hermann</t>
+          <t>Maria Paula Nascimento Araujo</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -3778,59 +3777,61 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Jornada de Estudos Históricos Professor Manoel Salgado.O legado de Manoel. 2022. (Outra).</t>
+          <t>XVI Encontro Nacional de História Oral - Pandemia e Futuros Possíveis.A luta das mulheres pela ampliação democrática: depoimentos de mulheres colombianas no esforço pela paz.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Jacqueline Hermann</t>
+          <t>Marieta de Moraes Ferreira</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>A Inquisição Portuguesa: 200 anos depois. Mesa 3: Freiras, visionárias e sacerdócio. 2021. (Congresso).</t>
+          <t>1964-2024 A distadura brasileira em perspectiva comparada.Ditadura militar e ensino de história. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Jacqueline Hermann</t>
+          <t>Marieta de Moraes Ferreira</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Colóquio ?Fake News na Época Moderna?.Entre verdadeiros e falsos profetas: D.João de Castro, Bandarra e o messianismo político português. 2021. (Outra).</t>
+          <t>XII Seminario Brasileiro de teoria e historiografia- Ensinar história  e imaginar democracias.Ensino de historia, profissionalização e democracia. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Jacqueline Hermann</t>
+          <t>Marieta de Moraes Ferreira</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Perspectiva em História Moderna."Em uma Época de Traduções": tradução, materialidade do impresso e conexões anglo-ibéricas no século XVII".. 2021. (Seminário).</t>
+          <t>XVII encontro nacional de história oral.participante.
+						2024. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>João Rodolfo Munhoz Ohara</t>
+          <t>Marieta de Moraes Ferreira</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -3838,44 +3839,45 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>5th INTH Conference. History and Inductive Risk, or the Social Harms of Bad Histories. 2024. (Congresso).</t>
+          <t>XVII encontro nacional de história oral.convidado e participante , palestrante.
+						2024. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>João Rodolfo Munhoz Ohara</t>
+          <t>Marieta de Moraes Ferreira</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>XII Seminário Brasileiro de Teoria e História da Historiografia.Realismos e Antirrealismos Históricos. 2024. (Seminário).</t>
+          <t>XXII International Oral History Conference. A história oral no Brasil e suas relações com a International Oral History  Association (IOHA). 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>João Rodolfo Munhoz Ohara</t>
+          <t>Marieta de Moraes Ferreira</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>X Conferência de Epistemologia Social.Construindo pontes entre a epistemologia social e a filosofia da história. 2023. (Outra).</t>
+          <t>democracia em foco.A fusão do Rio de janeiro: efeitos sobre arranjos políticos fluminenses. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>João Rodolfo Munhoz Ohara</t>
+          <t>Marieta de Moraes Ferreira</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -3883,59 +3885,61 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Centre for Philosophical Studies of History Research Seminar.Historical Knowledge and Epistemic Dependence: Issues of Trust and Expertise. 2022. (Seminário).</t>
+          <t>histoire du temps present: reflexions e changements.História do tempo presente.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>João Rodolfo Munhoz Ohara</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Seminário Brasileiro de Teoria e História da Historiografia.Ethos do historiador e autonomia relativa da disciplina. 2022. (Seminário).</t>
+          <t>40 th Annual Conference of AIS: Israel and Israel Studies: The European and International Perspectiv. Exploring the Landscape: Israel Studies in Non-Western Contexts. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>João Rodolfo Munhoz Ohara</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Ética na Pesquisa com Seres Humanos e no Ensino de História.Existe uma "Ética da História"? Os historiadores e nossas relações com o passado.. 2021. (Outra).</t>
+          <t>Abordagens Históricas e Historiográficas, no XXIV Encontro Regional de História da Anpuh-MG. Novos Negacionismos do Holocausto e do Nazismo: estratégias e linguagens. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>João Rodolfo Munhoz Ohara</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Semana de Recepção de História.A Emergência da Historiografia Brasileira Universitária (1942-1980). 2021. (Outra).</t>
+          <t>aula inaugural do PPGCOM/UFMT.A nova  gramática da extrema direita.
+						2024. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Jorge Victor de Araújo Souza</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -3943,137 +3947,139 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>JICTAC 2024.Filosofia, Estética, Emoções.
-						2024. (Simpósio).</t>
+          <t>Brazil: Histories and Legacies March 31, April 1-2, 2024, Brown University.The Language of Bolsonaro. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Jorge Victor de Araújo Souza</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>IX Encontro Internacional de História Colonial (EIHC): ?Dimensões globais e locais dos impérios coloniais: redes, circulação e dinâmicas (sécs. XV-XIX)?,. Iconografia Imperial: o mito colonial do indígena ingenuamente generoso e a sua contravisualidade. 2023. (Congresso).</t>
+          <t>Extrema direita no Brasil Sujeitos e coletivos pela ?restauração nacional?.Nova Gramática Política da Extrema Direita.
+						2024. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Jorge Victor de Araújo Souza</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>V Semana Infernal: Pactos e Rituais.DEMÔNIOS NA CULTURA POLÍTICA CASTELHANA: IMAGENS EM LIVROS DE EMBLEMAS. 2022. (Seminário).</t>
+          <t>Gramáticas de violência e reconstrução no Horizonte: a guerra na Palestina e suas consequências políticas.Gramáticas de violência e reconstrução no Horizonte: a guerra na Palestina e suas consequências políticas.
+						2024. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Jorge Victor de Araújo Souza</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Encontro Nacional de Estudos da Imagem e V Encontro Internacional de Estudos da Imagem,.NO PALCO DAS LETRAS: ESCRITA E IMAGEM ENREDADOS NA EMBLEMÁTICA DO SÉCULO DE OURO ESPANHOL?.
-						2021. (Encontro).</t>
+          <t>III Seminário Nacional de Educação em Direitos Humanos da Unespar. Extremismos no século XXI e o diálogo como ato revolucionário. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Jorge Victor de Araújo Souza</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>I SEMANA DA PÓS-GRADUAÇÃO IFF MARICÁ.Mnemosyne entre disputas: quando uma divindade participa da derrubada de estátuas..
-						2021. (Encontro).</t>
+          <t>Lançamento 10ª edição CEBRI-Revista | A guerra de Gaza e seus reflexos no Brasil.A Guerra de Gza e seus reflexos no Brasil. 2024. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Joao Luis Ribeiro Fragoso</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>lecture our Joseph C. Miller Memorilal Lecture Series.Sugar Mill Owners, Slavery and the Slave Trade in  Brazil : Bahia and Rio de Janeiro, 1600-1750. 2022. (Seminário).</t>
+          <t>Nova era dos Extremos: debates sobre paz e democracia na ordem mundial".A nova Gramática da Extrema Direita.
+						2024. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Joao Luis Ribeiro Fragoso</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>FAMILIA, ESTRATEGIAS DE PODER Y CAMBIO GENERACIONAL EN.Gerações de famílias da elite colonial na América lusa ao longo do século XVIII: terra e estratégias poder no Rio de Janeiro.. 2021. (Seminário).</t>
+          <t>PPGH-UNIMONTES.Gramáticas de violência e reconstrução no Horizonte: a guerra na Palestina e suas consequências políticas.
+						2024. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Joao Luis Ribeiro Fragoso</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>FRAGOSO, JOÃO; BICALHO, M. F. ; SAMPAIO, A. C. J. ; FERREIRA, Roberto Guedes ; MELLO, I. ;ALMEIDA, Carla Maria Carvalho de; CONCEICAO, H. S. . Antigo Regime nos Trópicos: 20 anos - Congresso Intarnacional. 2021. (Congresso).</t>
+          <t>Seminário Internacional- 1964 + 60. Direitas Ontem e Hoje. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Joao Luis Ribeiro Fragoso</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>FRAGOSO, JOÃO; BICALHO, M. F. ; SAMPAIO, A. C. J. ; FERREIRA, Roberto Guedes ; CONCEICAO, H. S. ;ALMEIDA, Carla Maria Carvalho de; MELLO, I. . Art em Teses. 2021. (Congresso).</t>
+          <t>Uso Políticos do Holocausto e do Genocídio.Instrumentalização do Antissemitismo no Brasil.
+						2024. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Lise Fernanda Sedrez</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -4081,75 +4087,75 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>4th World Congress of Environmental History. Oral history and noxious deindustrialization in comparative perspective: preliminary reflections on the cases of Guanabara Bay (Brazil) and Bizkaia Bay (Spain) in the Great Acceleration. 2024. (Congresso).</t>
+          <t>XVII Congresso da Associação de Estudos Brasileiros. Negros e Judeus em Diálogo: Relações Raciais, Políticas, Religiosas e Culturais. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Lise Fernanda Sedrez</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Minicurso virtual Wikipédia para professores universitários.Experiências de História Ambiental na Wikipedia. 2024. (Oficina).</t>
+          <t>Direita Radical em Debate-USP. A colonização do judaísmo pelo bolsonarismo: estratégias da nova extrema direita brasileira. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Lise Fernanda Sedrez</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Mundos em Colisão: Representações, Práticas e Materialidade (XV-XIX).História Ambiental da Época Moderna: Revisitando os limites entre Cultura e Natureza.
-						2024. (Simpósio).</t>
+          <t>Disciplina Raça , Genero e Etnia- Pós Graduação Direito Usp.Identidades em Choque: Judeidade e Negritude no Brasil.
+						2023. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Lise Fernanda Sedrez</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Rio de Janeiro em Foco: Desenvolvimento, Crise Climática e Urbanização  na CIdade Maravilhosa.Rio de Janeiro em Foco: Desenvolvimento, Crise Climática e Urbanização  na CIdade Maravilhosa. 2024. (Outra).</t>
+          <t>DWIH SÃO PAULO NA 75ª REUNIÃO ANUAL DA SBPC. É preciso combater ?letramento nazista? em progresso no Brasil. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Lise Fernanda Sedrez</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Società Italiana degli Urbanisti. Communities and Climates: stories of vulnerability, resilience and places. 2024. (Congresso).</t>
+          <t>Encontro de Pesquisa: História Política e Extrema Direita. Encontro de Pesquisa: História Política e Extrema Direita. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Lise Fernanda Sedrez</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -4157,14 +4163,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>XI Simposio de la Sociedad Latinoamericana y Caribeña de Historia Ambiental. Morro de Babilonia: dos medos nasce uma floresta, e de uma floresta novas identidades comunitárias. Rio de Janeiro, 1955- 2020. 2023. (Congresso).</t>
+          <t>Enfrentamento ao Neonazismo em Santa Catarina.. Pós nazismo no Brasil hoje. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Lise Fernanda Sedrez</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -4172,14 +4178,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>XI Simposio de la Sociedad Latinoamericana y Caribeña de Historia Ambiental. Fundadores: 20 anos de história ambiental latinoamericana y caribeña. 2023. (Congresso).</t>
+          <t>Hamas X Israel: Impressões iniciais e algumas projeções-IRI  PUC rj.Nethanyahu, Hamas e a implusão dos conceiros de segurança nacional. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Lise Fernanda Sedrez</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -4187,14 +4193,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>XI Simposio de la Sociedad Latinoamericana y Caribeña de Historia Ambiental. Apresentação do Livro: História Ambiental e Ecologia Urbana para Quito. 2023. (Congresso).</t>
+          <t>II Congresso IBI NO Campus: Estudos sobre antissemitismo. Estudos sobre antissemitismo. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Lise Fernanda Sedrez</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -4202,92 +4208,92 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>XXII IOHAInternational Conference: Oral History in a Digital and Audiovisual World. Redes de solidaridad en tiempos de inundacióndel Río Doce: Governador Valadares, Minas Gerais, Brazil. 2023. (Congresso).</t>
+          <t>II Simpósio IBI no Campus. Israel Hamas e a Guerra: ra ?Conflito Israel-Palestina: perspectivas de paz e coexistência.?. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Lise Fernanda Sedrez</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>11 Semana de Integração Acadêmica da UFRJ.
-						2022. (Encontro).</t>
+          <t>Israel como modelo cultural: imaginários e usos na nova extrema-direita.Israel imaginária e redes ideológicas transnacionais: O Não Judeu- judeu e a Extrema Direita.
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Lise Fernanda Sedrez</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>American Society for Environmental History?s 2022 Annual Conference. Babilonia Hill: urban forestry, community identity and strategy in Rio de Janeiro (1995-2020). 2022. (Congresso).</t>
+          <t>Israel na Enrcrizilhada.Israel e a nova direita.
+						2023. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Lise Fernanda Sedrez</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Environmental History symposium.Tales of an Urban Forest: The human and non-human communities of Morro da Babilônia, Rio de Janeiro, (1995-2021).
-						2022. (Simpósio).</t>
+          <t>Michel Gherman fala sobre ?A gramática da nova extrema direita: cenários e possibilidades?.A gramática da nova extrema direita: cenários e possibilidad. 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Lise Fernanda Sedrez</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Environmental History symposium.Tales of an Urban Forest: The human and non-human communities of Morro da Babilônia, Rio de Janeiro, (1995-2021).
-						2022. (Simpósio).</t>
+          <t>Semana da Economia 2023 - Ascensão do Neonazismo.A Extrema direita e o Pós Nazismo e o Judeu Imaginário no Brasil.
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Lise Fernanda Sedrez</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SEDREZ, Lise F.; EICKELKAMP, U. . Landscapes of Deindustrialization - Panel in two sessions. 2024. (Outro).</t>
+          <t>Sociedade Brasileira para o Progresso da Ciência. O PAPEL DA EDUCAÇÃO E DA CIÊNCIA PARA SUPERAR, NA ALEMANHA E NO BRASIL, O PRECONCEITO E O ÓDIO (DWIH-SP, SBPC). 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Lise Fernanda Sedrez</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -4295,29 +4301,30 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>SEDREZ, Lise F.. 12o. Semana de Integração Acadêmica da UFRJ. 2023. (Outro).</t>
+          <t>Um ano do Movimento Nacional em Defesa dos Direitos das Vítimas.Enfrentamento do discurso de ódio ? mecanismos para evitar a vitimização. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Lise Fernanda Sedrez</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>FONTES, P. R. R.;SEDREZ, Lise F.; SANTOS, R. . Desindustrialização e História Social: a experiência alemã. 2023. (Outro).</t>
+          <t>33a Reunião Brasileira de Antropologia.Backlash: ?guerra ao gênero? e aos ?identitarismos.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Lise Fernanda Sedrez</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -4325,135 +4332,139 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SEDREZ, Lise F.. 11 Semana de Integração Acadêmica da UFRJ. 2022. (Outro).</t>
+          <t>46o Encontro Anual do Anpons.Sociologia da Cultura em tempos incertos: Espectros e configurações na cena política contemporânea.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Lise Fernanda Sedrez</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Sedrez, Lise. X SIMPOSIO SOLCHA. 2021. (Congresso).</t>
+          <t>Antisemitismo en America Latina.Reflections on a Concealed Hate: Antisemitism and the Far Right in Brazil / Reflexión sobre un odio disimulado: Antisemitismo y la Extrema Derecha en Bras. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Lorena Lopes da Costa</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>IV Seminário  Docere, Delectare et Movere: Sonhos, Ficções e (ir)Racionalidades.Mirar (e ver) os símiles da Ilíada no sertão. 2024. (Seminário).</t>
+          <t>Lançamento de Livro "O Não Judeu Judeu": Tentativa de Colonização do Judaismo pelo Bolsonarismo.Lançamento de Livro "O Não Judeu Judeu": Tentativa de Colonização do Judaismo pelo Bolsonarismo.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Lorena Lopes da Costa</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>L?INVENTION D?ORIGINES GRECQUES DANS LES CULTURES TEXTUELLES ET VISUELLES DE L?EUROPE PRÉ-MODERNE (1100-1600). Chanter un Ulysse portugais : l?héroïsme maritime pour présenter le nouveau monde. 2023. (Congresso).</t>
+          <t>Novembro Negro.Um letramento antifascista: Por uma sociologia de Combate ao Nazismo.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Lorena Lopes da Costa</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Laboratório de Estudos sobre Ficção e História LEFH.Guimarães Rosa lê Homero: os símiles da Ilíada no Grande Sertão. 2023. (Outra).</t>
+          <t>O judeu imaginário nos horizontes políticos da Nova Direita. O judeu imaginário nos horizontes políticos da Nova Direita. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Lorena Lopes da Costa</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>O Pré-Capitalismo em Perspectiva &amp; II Jornada Norte-Fluminense de Estudos sobre o Pré-Capitalismp. Cantar um Ulisses português: o presente na Antiguidade. 2023. (Congresso).</t>
+          <t>Produção de Ciência na Era do Negacionismo.Mediação. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Lorena Lopes da Costa</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Razão e História:  do século XVII ao XXI.Recepção da Antiguidade: uma interseção  entre a Teoria e os Estudos Clássicos. 2023. (Seminário).</t>
+          <t>THE EIGHTEENTH WORLD CONGRESS OF JEWISH STUDIES August 8-12, 2022 PROGRAM JERUSALEM. Senkman Non-Jews, Jews, and The Brazilian New Right Movements: A Case of Political Conversion and ?Disconversion. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Lorena Lopes da Costa</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>X CIEAM. Odisseu à moda portuguesa. 2023. (Congresso).</t>
+          <t>Aula Inaugural: Departamento de Historia e PPGH unb.O conflito palestino-israelense e sua pertinência na gramática política contemporânea?.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Lorena Lopes da Costa</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>X Simpósio Lendo, Vendo e Ouvindo o Passado: "Metamorfoses" e metamorfoses.A metamorfose do herói: odisseias francesas de 1914.
-						2022. (Simpósio).</t>
+          <t>etween Converted and Disconverted; Anti-Semitism and Philosemitism: Drama and Change Among Jews and New Far Right Movements in Brazil.etween Converted and Disconverted; Anti-Semitism and Philosemitism: Drama and Change Among Jews and New Far Right Movements in Brazil.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Lorena Lopes da Costa</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -4461,93 +4472,93 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>31° Simpósio Nacional de História ? História, verdade e tecnologia.A Ilíada e o Ciclo Épico no sertão de João Guimarães Rosa.
-						2021. (Simpósio).</t>
+          <t>Instituto de Desarollo Economico y Social. Brasil, Israel y los Judios en Tiempos de Bolsonaro. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Lorena Lopes da Costa</t>
+          <t>Monica Grin</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>31 Simpósio Nacional de História.A Ilíada e o Ciclo Épico no sertão de João Guimarães Rosa.
-						2021. (Simpósio).</t>
+          <t>32 Simpósio Nacional de História ANPUH Nacional.Jean Améry e o advento da vítima ressentida.
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Lorena Lopes da Costa</t>
+          <t>Monica Grin</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Encontros da Escola Lacaniana de Psicanálise de Vitória.Homero, João Guimarães Rosa e o som das nossas dores. 2021. (Outra).</t>
+          <t>Histrória Política e Extrema Direita.Fundamentalismo, Conspiracionismo e Neofascismo.
+						2023. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Lorena Lopes da Costa</t>
+          <t>Monica Grin</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>II Encontro Nacional de História do Baixo Amazonas.Narrar e existir: Sônia Viegas, leitora de João Guimarães Rosa.
-						2021. (Encontro).</t>
+          <t>I Congresso Internacional de Pesquisadores em Estudos Judaicos. Resistências brasileiras ao nazismo e à ditadura. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Lorena Lopes da Costa</t>
+          <t>Monica Grin</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>III SEMANA ACADÊMICA DE HISTÓRIA.A relevância da Antiguidade e as (re)leituras feministas da Odisseia.
-						2021. (Encontro).</t>
+          <t>Israel como modelo cultural: imaginarios e usos na nova extrema-direita.ressentimentos morais e extrema-direita.
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Lorena Lopes da Costa</t>
+          <t>Monica Grin</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Kyklos 2021 (CHS / Harvard University) - The Greek Epic Cycle and its Reception.Reception of the Iliad and the Epic Cycle in postcolonial literature by João Guimarães  Rosa: the Greek hero in the Brazilian backlands. 2021. (Seminário).</t>
+          <t>O Julgamento de Eichmann em Perspectiva Transmedial: figuras da memória, do direito e da Justiça em literatura  e cinema.O Impacto do Julgamento de Eichmann no "paraíso racial": impressões da média brasileira sobre perpetradores e vítimas de violência racial (1960-1970).
+						2022. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Lorena Lopes da Costa</t>
+          <t>Monica Grin</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -4555,75 +4566,77 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>XXXI Ciclo de Debates em História Antiga.O que faz a dor: Hécuba na Ilíada e no teatro de Eurípides. 2021. (Seminário).</t>
+          <t>Congresso Nacional de Pesquisadores em Estudos Judaicos 2021.Sobre o Direito ao Ressentimento: Vítima, memória e reparação.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Lorena Lopes da Costa</t>
+          <t>Monica Grin</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>LESSA, F. ; GAIA, D. V. ; MEGA, M. ; BUSTAMANTE, R. ; PEIXOTO, P. ;LOPES DA COSTA, L.. XXXIV Ciclo de Debates em História Antiga. 2024. (Congresso).</t>
+          <t>Perspectivas em História Moderna: ciclo de conferências.Como estudar a questão racial na história moderna/colonial?. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Lorena Lopes da Costa</t>
+          <t>Monica Grin</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>BUSTAMANTE, R. ; GAIA, D. V. ; LESSA, F. ; MEGA, M. ; PEIXOTO, P. ;LOPES DA COSTA, L.. XXXIII Ciclo de Debates em História Antiga - LHIA. 2023. (Congresso).</t>
+          <t>Recepção e memória do Julgamento de Eichmann em Perspectiva  Transnacionalns.Recepção do Julgamento de Eichmann no Brasil: projeto e perspectivas.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Lorena Lopes da Costa</t>
+          <t>Monica Grin</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>PEIXOTO, P. ;LOPES DA COSTA, L.. XXXII Ciclo de Debates em História Antiga - LHIA. 2022. (Congresso).</t>
+          <t>XIX International Research Conference da Latin American Jewish Studies Association. A Divided Community: the Right Wing and Jews in Brazil. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Luiza Larangeira da Silva Mello</t>
+          <t>Mônica Lima e Souza</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>5th INTH Network Conference: History &amp; Responsibility: Doing History in Times of Conflicting Political Demands.The writing of crisis in Annie Ernaux?s and Elena Ferrante?s work.
-						2024. (Simpósio).</t>
+          <t>Jornada de Estudos Históricos Manoel Salgado Guimarães  2023.Atuei como moderadora da mesa.
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Luiza Larangeira da Silva Mello</t>
+          <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -4631,90 +4644,91 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>XII Seminário Brasileiro de Teoria e História da Historiografia (SNHH).História e Ficção em Annie Ernaux e Elena Ferrante. 2024. (Seminário).</t>
+          <t>Democracia e diversidade: o modelo político do Líbano e do Brasil.A política libanesa e seu contexto regional. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Luiza Larangeira da Silva Mello</t>
+          <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>11a Semana de Integração Acadêmica da UFRJ.Coordenadora de Sessão. 2022. (Outra).</t>
+          <t>1a. Conferência Internacional Arab Latinos: migrações e solidariedade.Memória, território e direitos culturais. 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Luiza Larangeira da Silva Mello</t>
+          <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>4th INTH Network Conference: Media, Mediations and Mediators: (Re) Mediating History in the 21st Century.Figurations of Time: the end in Elena Ferrante?s Neapolitan tetralogy.
-						2022. (Simpósio).</t>
+          <t>100 anos de E.P.Thompson.E.P.Thompson e a História Social do Trabalho.
+                            2024. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Luiza Larangeira da Silva Mello</t>
+          <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Colóquio Teatro e Sociedade.Shakespeare, entre o epos e o romance. 2021. (Seminário).</t>
+          <t>Deindustrialization and Transformation in Brazil and Germany ? comparative perspectives.Factories and Favelas: working-class memories and (de)industrialization in Rio de Janeiro. 2024. (Oficina).</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Luiza Larangeira da Silva Mello</t>
+          <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>I Jornada Internacional de Estudos sobre Henry James.?Vontade de crescer?: formação, cultura e modernidade na obra de Henry James. 2021. (Seminário).</t>
+          <t>Ciclo de palestras do Laboratório História e Natureza da UFRJ.Só resta o passado para os trabalhadores? Desindustrialização e o futuro do trabalho.
+                            2023. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Luiza Larangeira da Silva Mello</t>
+          <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SILVA MELLO, L. L.; RODRIGUES, H. E. . Seminário Nacional História e Ficção: as formas do (des)encontro. 2024. (Congresso).</t>
+          <t>Consuming the city.Consumer Capitalism and its Consequences. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Luiza Larangeira da Silva Mello</t>
+          <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -4722,30 +4736,30 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>LARANGEIRA DA SILVA MELLO, L.; CALDAS, Pedro S. P. ; CORREIA, S. A. B. . I Jornada de Estudos em Pensamento Crítico Contemporâneo: experiências, memórias e mediações das crises do século XX. 2023. (Congresso).</t>
+          <t>História e narrativas audiovisuais.Memórias de um Rio fabril: história do trabalho e narrativas audiovisuais.
+                            2023. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Maria Paula Nascimento Araujo</t>
+          <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>XVI Encontro Nacional de História Oral - Pandemia e Futuros Possíveis.A luta das mulheres pela ampliação democrática: depoimentos de mulheres colombianas no esforço pela paz.
-						2022. (Encontro).</t>
+          <t>re:work Final Conference.How Labour (History) is doing? A round trip. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Maria Paula Nascimento Araujo</t>
+          <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -4753,399 +4767,396 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>MANGUEIRA, B. ; SANTOS, D. R. ; SILVA, I. P. ; CORREA, L. ;ARAUJO, M. P. N.; Ferreira, M. M. ; GHERMAN, M. ; QUADRAT, S. V. ; PINTO, S. ; SILVA, F. C. ; RIOS, C. ; GEROMEL, B. ; GOMES, P. C. ; RIBERTI, L. ; DAHAS, N. . Semináro História Oral, Memória e Violência Política no Mundo Contemporâneo. 2023. (Outro).</t>
+          <t>Seminários do Grupo de pesquisa: "Globalização, Trabalho e Lutas Sociais"."Só resta o passado para os trabalhadores?": desindustrialização e história social do trabalho. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Maria Paula Nascimento Araujo</t>
+          <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>ARAUJO, MARIA PAULA NASCIMENTO; SILVA, I. P. ; Fico, Carlos ; QUADRAT, S. V. ; BAUER, C. S. ; CATELA, L. ; CAPELATO, M. H. R. ; GHERMAN, M. ; PIRES JUNIOR, P. A. ; FRANCO, M. ; CRENZEL, E. ; OBERTI, A. . Seminário Internacional 45 anos do golpe e da ditadura na Argentina: história, memória e diálogos com o Brasil. 2021. (Outro).</t>
+          <t>Workers of the Golden Age of Social Democracy, 1945-1975.The Rebuilding of Democracy after 1945. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Maria Paula Nascimento Araujo</t>
+          <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>ARAUJO, M. P. N.; SILVA, I. P. ; MANGUEIRA, B. ; PEDRETTI, L. ; CORREA, L. ; CUNHA, M. . História Oral, memória e experiência na luta por direitos. 2021. (Outro).</t>
+          <t>XI Seminário do Programa de Pós-Graduação em História Social da Universidade do Estado do Rio de Janeiro.Crise do fordismo, desindustrialização e resistência operária: o que a história do trabalho tem a dizer?. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Marieta de Moraes Ferreira</t>
+          <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>1964-2024 A distadura brasileira em perspectiva comparada.Ditadura militar e ensino de história. 2024. (Seminário).</t>
+          <t>Conversas Contemporâneas.História Pública e os Mundos do Trabalho. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Marieta de Moraes Ferreira</t>
+          <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>XII Seminario Brasileiro de teoria e historiografia- Ensinar história  e imaginar democracias.Ensino de historia, profissionalização e democracia. 2024. (Seminário).</t>
+          <t>IV Seminário Internacional Mundos do Trabalho.Só resta o passado para os trabalhadores? História social e o futuro do trabalho. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Marieta de Moraes Ferreira</t>
+          <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>XVII encontro nacional de história oral.participante.
-						2024. (Encontro).</t>
+          <t>re:work Lectures series.Football and Labour History in Brazil: the local and the global.
+                            2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Marieta de Moraes Ferreira</t>
+          <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>XVII encontro nacional de história oral.convidado e participante , palestrante.
-						2024. (Encontro).</t>
+          <t>Simpósio Internacional "Primeiro de Maio: pilares e desafios das relações trabalhistas contemporâneas".História social do trabalho no Brasil: trajetórias e desafios.
+                            2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Marieta de Moraes Ferreira</t>
+          <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>XXII International Oral History Conference. A história oral no Brasil e suas relações com a International Oral History  Association (IOHA). 2023. (Congresso).</t>
+          <t>Terceiro Encontro de Processos de Reflexão sobre a formação da classe trabalhadora.Sindicatos e "democracia racial" no Brasil (1945-1964).
+                            2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Marieta de Moraes Ferreira</t>
+          <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>democracia em foco.A fusão do Rio de janeiro: efeitos sobre arranjos políticos fluminenses. 2022. (Seminário).</t>
+          <t>UFRJ + 100: Desafios para o Brasil.Mundos do trabalho no século XXI. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Marieta de Moraes Ferreira</t>
+          <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>histoire du temps present: reflexions e changements.História do tempo presente.
-						2022. (Encontro).</t>
+          <t>Por mi raza hablará el espiritu.Collage histórico-cultural brasileño.
+						2023. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Marieta de Moraes Ferreira</t>
+          <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>FERREIRA, MARIETA DE MORAES; HOCHMAN, G. ; OLIVEIRA, L. M. L. ; OLIVEIRA, D. . 1922;O Passado no presente- permanências e transformações. 2022. (Outro).</t>
+          <t>Projeto de Extensão Os militares na história do Brasil - Complexidades do passado e incertezas do futuro.Os militares na transição política do Brasil.
+						2023. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>40 th Annual Conference of AIS: Israel and Israel Studies: The European and International Perspectiv. Exploring the Landscape: Israel Studies in Non-Western Contexts. 2024. (Congresso).</t>
+          <t>VI Semana de História da UFRJ.Anistia e transição política: suas conexões com o Brasil atual.
+						2023. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Abordagens Históricas e Historiográficas, no XXIV Encontro Regional de História da Anpuh-MG. Novos Negacionismos do Holocausto e do Nazismo: estratégias e linguagens. 2024. (Congresso).</t>
+          <t>Laboratório Circuitos oceânicos: petições e comunicação política da América portuguesa ao Império do Brasil.O batismo e a conversão do cativeiro em escravidão (Angola e Brasil, c. 1715-c.1850). 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>aula inaugural do PPGCOM/UFMT.A nova  gramática da extrema direita.
-						2024. (Encontro).</t>
+          <t>Aula Inaugural no Instituto Pretos Novos.Catolicismo e Escravidão Resgate, batismo e compadrio (Luanda e Rio, século XVIII). 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Brazil: Histories and Legacies March 31, April 1-2, 2024, Brown University.The Language of Bolsonaro. 2024. (Seminário).</t>
+          <t>Colóquio de 1822 a 2022- Brasil, Brasis em construção - debates.Mesa Escravidão e liberdade no Brasil independente/ Trabalho apresentado: Da América portuguesa ao império do Brasil: continuidades do escravismo. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Extrema direita no Brasil Sujeitos e coletivos pela ?restauração nacional?.Nova Gramática Política da Extrema Direita.
-						2024. (Encontro).</t>
+          <t>Congreso Internacional Esclavas, horras y no blancas nacidas libres en los mundos ibéricos: actuación, movilidad y memorias. Siglos XVI-XIX. Mesa redonda 2 / Trabalho Senhoras forras (Rio de Janeiro, século XVIII). 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Gramáticas de violência e reconstrução no Horizonte: a guerra na Palestina e suas consequências políticas.Gramáticas de violência e reconstrução no Horizonte: a guerra na Palestina e suas consequências políticas.
-						2024. (Encontro).</t>
+          <t>XVIII Ciclo de Seminários Imagética e Conexões Mundiais ? Mestiçagens no Mundo Moderno.Agentes das mestiçagens (São Gonçalo e Rio de Janeiro, séculos XVIII e XIX). 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>III Seminário Nacional de Educação em Direitos Humanos da Unespar. Extremismos no século XXI e o diálogo como ato revolucionário. 2024. (Congresso).</t>
+          <t>Conferência de Abertura da I Jornada de Egressos Professor Manolo Florentino.Homenagem a Manolo Florentino. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Lançamento 10ª edição CEBRI-Revista | A guerra de Gaza e seus reflexos no Brasil.A Guerra de Gza e seus reflexos no Brasil. 2024. (Outra).</t>
+          <t>De escravo a senhor: trajetórias (séculos XVI-XIX).Encontros do Grupo de Estudos História da Escracidão e História dos Índios: diálogos. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Nova era dos Extremos: debates sobre paz e democracia na ordem mundial".A nova Gramática da Extrema Direita.
-						2024. (Encontro).</t>
+          <t>Encontro do Grupo de Estudos História da Escravidão e História dos Índios.FORMAS DE SER FORRO (LUANDA, RIO DE JANEIRO E SÃO PAULO, SÉCULOS XVII-XVIII).
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>PPGH-UNIMONTES.Gramáticas de violência e reconstrução no Horizonte: a guerra na Palestina e suas consequências políticas.
-						2024. (Simpósio).</t>
+          <t>Seminário de Estudos Pós-Graduados.Classificações de qualidades de cor no Brasil colonial: os casos de São Paulo e Rio de Janeiro.. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Seminário Internacional- 1964 + 60. Direitas Ontem e Hoje. 2024. (Congresso).</t>
+          <t>Seminário Internacional Antigo Regime nos Trópicos: 20 anos. Senhores forros: nomear a escravidão para reproduzir a desigualdade em uma sociedade de antigo regime (Rio de Janeiro, Século XVIII). 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Uso Políticos do Holocausto e do Genocídio.Instrumentalização do Antissemitismo no Brasil.
-						2024. (Simpósio).</t>
+          <t>VII Jornada de Pesquisadores da Fundação Biblioteca Nacional.Projeto Resgate Renovações e conexões historiográficas. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>Silvia Regina Liebel</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>XVII Congresso da Associação de Estudos Brasileiros. Negros e Judeus em Diálogo: Relações Raciais, Políticas, Religiosas e Culturais. 2024. (Congresso).</t>
+          <t>História Global: temas e debates.Literatura de rua e reforço da ordem nos séculos XVI e XVII. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>Silvia Regina Liebel</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Direita Radical em Debate-USP. A colonização do judaísmo pelo bolsonarismo: estratégias da nova extrema direita brasileira. 2023. (Congresso).</t>
+          <t>História das mulheres e das relações de gênero (séculos XIII-XVIII). Catherine de Médicis, rainha da França e açougueira do São Bartolomeu. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>Silvia Regina Liebel</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Disciplina Raça , Genero e Etnia- Pós Graduação Direito Usp.Identidades em Choque: Judeidade e Negritude no Brasil.
-						2023. (Encontro).</t>
+          <t>IV Seminário Virtual Internacional de História Moderna.Da Eva tentadora à bruxa demoníaca: pecado, fraqueza e desvio no Martelo das Feiticeiras. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -5153,44 +5164,45 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>DWIH SÃO PAULO NA 75ª REUNIÃO ANUAL DA SBPC. É preciso combater ?letramento nazista? em progresso no Brasil. 2023. (Congresso).</t>
+          <t>A Era de Ares: Reflexões a Propósito do Centenário do Fascismo. Mediação de Venerando la Tradición, depreciando la Historicidad: la guerra contra Ucrania, Conferência de Claudio Ingerflom. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Encontro de Pesquisa: História Política e Extrema Direita. Encontro de Pesquisa: História Política e Extrema Direita. 2023. (Congresso).</t>
+          <t>XX Encontro de História da Anpuh-RJ.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Enfrentamento ao Neonazismo em Santa Catarina.. Pós nazismo no Brasil hoje. 2023. (Congresso).</t>
+          <t>XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC 2020 - Edição Especial). 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>Vitor Izecksohn</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -5198,14 +5210,14 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Hamas X Israel: Impressões iniciais e algumas projeções-IRI  PUC rj.Nethanyahu, Hamas e a implusão dos conceiros de segurança nacional. 2023. (Seminário).</t>
+          <t>14th Rio de La Plata WWorkshop. American Confederates and Argentinean Federalistas in the Age of State -Building, 1848-1870.. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>Vitor Izecksohn</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -5213,1504 +5225,67 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>II Congresso IBI NO Campus: Estudos sobre antissemitismo. Estudos sobre antissemitismo. 2023. (Congresso).</t>
+          <t>Ways of War.The Campaing of Cordilleras in the Paraguayan War. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>William de Souza Martins</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>II Simpósio IBI no Campus. Israel Hamas e a Guerra: ra ?Conflito Israel-Palestina: perspectivas de paz e coexistência.?. 2023. (Congresso).</t>
+          <t>Mesa Redonda na 18ª Primavera dos Museus.O Recolhimento de mulheres de Santa Teresa em Itaipu e o contexto histórico e social da Região Oceânica nos séculos XVIII e XIX. 2024. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>William de Souza Martins</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Israel como modelo cultural: imaginários e usos na nova extrema-direita.Israel imaginária e redes ideológicas transnacionais: O Não Judeu- judeu e a Extrema Direita.
-						2023. (Simpósio).</t>
+          <t>Bicentenário da Independência do Brasil.A Igreja na formação do Brasil independente. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>William de Souza Martins</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Israel na Enrcrizilhada.Israel e a nova direita.
-						2023. (Encontro).</t>
+          <t>Perspectivas em História Moderna.Teologia política no ultramar: o gelasianismo no espaço atlântico. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>William de Souza Martins</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Michel Gherman fala sobre ?A gramática da nova extrema direita: cenários e possibilidades?.A gramática da nova extrema direita: cenários e possibilidad. 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Michel Gherman</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Semana da Economia 2023 - Ascensão do Neonazismo.A Extrema direita e o Pós Nazismo e o Judeu Imaginário no Brasil.
-						2023. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Michel Gherman</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Sociedade Brasileira para o Progresso da Ciência. O PAPEL DA EDUCAÇÃO E DA CIÊNCIA PARA SUPERAR, NA ALEMANHA E NO BRASIL, O PRECONCEITO E O ÓDIO (DWIH-SP, SBPC). 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Michel Gherman</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>Um ano do Movimento Nacional em Defesa dos Direitos das Vítimas.Enfrentamento do discurso de ódio ? mecanismos para evitar a vitimização. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Michel Gherman</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>33a Reunião Brasileira de Antropologia.Backlash: ?guerra ao gênero? e aos ?identitarismos.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Michel Gherman</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>46o Encontro Anual do Anpons.Sociologia da Cultura em tempos incertos: Espectros e configurações na cena política contemporânea.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Michel Gherman</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Antisemitismo en America Latina.Reflections on a Concealed Hate: Antisemitism and the Far Right in Brazil / Reflexión sobre un odio disimulado: Antisemitismo y la Extrema Derecha en Bras. 2022. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Michel Gherman</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Lançamento de Livro "O Não Judeu Judeu": Tentativa de Colonização do Judaismo pelo Bolsonarismo.Lançamento de Livro "O Não Judeu Judeu": Tentativa de Colonização do Judaismo pelo Bolsonarismo.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Michel Gherman</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Novembro Negro.Um letramento antifascista: Por uma sociologia de Combate ao Nazismo.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Michel Gherman</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>O judeu imaginário nos horizontes políticos da Nova Direita. O judeu imaginário nos horizontes políticos da Nova Direita. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Michel Gherman</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>Produção de Ciência na Era do Negacionismo.Mediação. 2022. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Michel Gherman</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>THE EIGHTEENTH WORLD CONGRESS OF JEWISH STUDIES August 8-12, 2022 PROGRAM JERUSALEM. Senkman Non-Jews, Jews, and The Brazilian New Right Movements: A Case of Political Conversion and ?Disconversion. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Michel Gherman</t>
-        </is>
-      </c>
-      <c r="B227" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>Aula Inaugural: Departamento de Historia e PPGH unb.O conflito palestino-israelense e sua pertinência na gramática política contemporânea?.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Michel Gherman</t>
-        </is>
-      </c>
-      <c r="B228" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>etween Converted and Disconverted; Anti-Semitism and Philosemitism: Drama and Change Among Jews and New Far Right Movements in Brazil.etween Converted and Disconverted; Anti-Semitism and Philosemitism: Drama and Change Among Jews and New Far Right Movements in Brazil.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Michel Gherman</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>Instituto de Desarollo Economico y Social. Brasil, Israel y los Judios en Tiempos de Bolsonaro. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Michel Gherman</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>Assaf Sthephanie ; PECHMAN, R. ; Marcondes Guilherme ; Penha-Lopes Vania ; SEGAL, R. ; Lerner, Katia ; MORAES, L. E. ; Caldas, Pedro ; GRIN, M. ; Caldeira Odilon ;GHERMAN, MICHEL; FRANCA, D. ; LEMOS, B. ; Bastos, Bianca ; Mello, Juçara . Usos políticos do Holocausto e do Genocídio. 2024. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Michel Gherman</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>Herz, Monica ; SPOSNIK, A. ;GHERMAN, MICHEL. Israel como modelo cultural: imaginários e usos na nova extrema-direita. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Michel Gherman</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>AMARAL, J. ; LEMOS, B. ; Zunino, Olga ; RIBAS, A. ; Bastos, Bianca ; FRANCA, D. ;GHERMAN, MICHEL. Encontro de Pesquisa: História Política e Extrema Direita. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Michel Gherman</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>HERZ, M. ;GHERMAN, MICHEL; MIZRAHI, G. . Israel Imaginária na diplomacia brasileira de Bolsonaro. 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Monica Grin</t>
-        </is>
-      </c>
-      <c r="B234" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>32 Simpósio Nacional de História ANPUH Nacional.Jean Améry e o advento da vítima ressentida.
-						2023. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>Monica Grin</t>
-        </is>
-      </c>
-      <c r="B235" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>Histrória Política e Extrema Direita.Fundamentalismo, Conspiracionismo e Neofascismo.
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>Monica Grin</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>I Congresso Internacional de Pesquisadores em Estudos Judaicos. Resistências brasileiras ao nazismo e à ditadura. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>Monica Grin</t>
-        </is>
-      </c>
-      <c r="B237" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Israel como modelo cultural: imaginarios e usos na nova extrema-direita.ressentimentos morais e extrema-direita.
-						2023. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Monica Grin</t>
-        </is>
-      </c>
-      <c r="B238" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>O Julgamento de Eichmann em Perspectiva Transmedial: figuras da memória, do direito e da Justiça em literatura  e cinema.O Impacto do Julgamento de Eichmann no "paraíso racial": impressões da média brasileira sobre perpetradores e vítimas de violência racial (1960-1970).
-						2022. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>Monica Grin</t>
-        </is>
-      </c>
-      <c r="B239" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>Congresso Nacional de Pesquisadores em Estudos Judaicos 2021.Sobre o Direito ao Ressentimento: Vítima, memória e reparação.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>Monica Grin</t>
-        </is>
-      </c>
-      <c r="B240" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>Perspectivas em História Moderna: ciclo de conferências.Como estudar a questão racial na história moderna/colonial?. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>Monica Grin</t>
-        </is>
-      </c>
-      <c r="B241" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>Recepção e memória do Julgamento de Eichmann em Perspectiva  Transnacionalns.Recepção do Julgamento de Eichmann no Brasil: projeto e perspectivas.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>Monica Grin</t>
-        </is>
-      </c>
-      <c r="B242" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>XIX International Research Conference da Latin American Jewish Studies Association. A Divided Community: the Right Wing and Jews in Brazil. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>Monica Grin</t>
-        </is>
-      </c>
-      <c r="B243" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>GRIN, Monica; MAIO, Marcos Chor ; GHERMAN, M. ; HAJ, J. A. E. ; Monteiro, Giovanna ; DAVIDI, E. . Israel na Encruzilhada. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>Mônica Lima e Souza</t>
-        </is>
-      </c>
-      <c r="B244" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Jornada de Estudos Históricos Manoel Salgado Guimarães  2023.Atuei como moderadora da mesa.
-						2023. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>Murilo Sebe Bon Meihy</t>
-        </is>
-      </c>
-      <c r="B245" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Democracia e diversidade: o modelo político do Líbano e do Brasil.A política libanesa e seu contexto regional. 2024. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>Murilo Sebe Bon Meihy</t>
-        </is>
-      </c>
-      <c r="B246" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>1a. Conferência Internacional Arab Latinos: migrações e solidariedade.Memória, território e direitos culturais. 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>Murilo Sebe Bon Meihy</t>
-        </is>
-      </c>
-      <c r="B247" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>CAMPOS, G. A. G. ; HAMSHARI, A. ;MEIHY, M. S. B.. 1a. Conferência Internacional Arab Latinos: migrações e solidariedade. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>Murilo Sebe Bon Meihy</t>
-        </is>
-      </c>
-      <c r="B248" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>MEIHY, M. S. B.; OSMAN, S. A. ; SANTOS, P. T. . Da guerra do Terror ao retorno do Talibã. 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>Paulo Roberto Ribeiro Fontes</t>
-        </is>
-      </c>
-      <c r="B249" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>100 anos de E.P.Thompson.E.P.Thompson e a História Social do Trabalho.
-                            2024. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>Paulo Roberto Ribeiro Fontes</t>
-        </is>
-      </c>
-      <c r="B250" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>Deindustrialization and Transformation in Brazil and Germany ? comparative perspectives.Factories and Favelas: working-class memories and (de)industrialization in Rio de Janeiro. 2024. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>Paulo Roberto Ribeiro Fontes</t>
-        </is>
-      </c>
-      <c r="B251" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>Ciclo de palestras do Laboratório História e Natureza da UFRJ.Só resta o passado para os trabalhadores? Desindustrialização e o futuro do trabalho.
-                            2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>Paulo Roberto Ribeiro Fontes</t>
-        </is>
-      </c>
-      <c r="B252" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>Consuming the city.Consumer Capitalism and its Consequences. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>Paulo Roberto Ribeiro Fontes</t>
-        </is>
-      </c>
-      <c r="B253" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>História e narrativas audiovisuais.Memórias de um Rio fabril: história do trabalho e narrativas audiovisuais.
-                            2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>Paulo Roberto Ribeiro Fontes</t>
-        </is>
-      </c>
-      <c r="B254" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>re:work Final Conference.How Labour (History) is doing? A round trip. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>Paulo Roberto Ribeiro Fontes</t>
-        </is>
-      </c>
-      <c r="B255" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>Seminários do Grupo de pesquisa: "Globalização, Trabalho e Lutas Sociais"."Só resta o passado para os trabalhadores?": desindustrialização e história social do trabalho. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>Paulo Roberto Ribeiro Fontes</t>
-        </is>
-      </c>
-      <c r="B256" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>Workers of the Golden Age of Social Democracy, 1945-1975.The Rebuilding of Democracy after 1945. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>Paulo Roberto Ribeiro Fontes</t>
-        </is>
-      </c>
-      <c r="B257" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>XI Seminário do Programa de Pós-Graduação em História Social da Universidade do Estado do Rio de Janeiro.Crise do fordismo, desindustrialização e resistência operária: o que a história do trabalho tem a dizer?. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>Paulo Roberto Ribeiro Fontes</t>
-        </is>
-      </c>
-      <c r="B258" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>Conversas Contemporâneas.História Pública e os Mundos do Trabalho. 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>Paulo Roberto Ribeiro Fontes</t>
-        </is>
-      </c>
-      <c r="B259" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>IV Seminário Internacional Mundos do Trabalho.Só resta o passado para os trabalhadores? História social e o futuro do trabalho. 2022. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>Paulo Roberto Ribeiro Fontes</t>
-        </is>
-      </c>
-      <c r="B260" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>re:work Lectures series.Football and Labour History in Brazil: the local and the global.
-                            2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>Paulo Roberto Ribeiro Fontes</t>
-        </is>
-      </c>
-      <c r="B261" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>Simpósio Internacional "Primeiro de Maio: pilares e desafios das relações trabalhistas contemporâneas".História social do trabalho no Brasil: trajetórias e desafios.
-                            2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>Paulo Roberto Ribeiro Fontes</t>
-        </is>
-      </c>
-      <c r="B262" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>Terceiro Encontro de Processos de Reflexão sobre a formação da classe trabalhadora.Sindicatos e "democracia racial" no Brasil (1945-1964).
-                            2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>Paulo Roberto Ribeiro Fontes</t>
-        </is>
-      </c>
-      <c r="B263" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>UFRJ + 100: Desafios para o Brasil.Mundos do trabalho no século XXI. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>Paulo Roberto Ribeiro Fontes</t>
-        </is>
-      </c>
-      <c r="B264" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>FONTES, Paulo. Workshop Desindustrialização e História Social: a construção de um campo de pesquisa (Brasil e Alemanha). 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>Paulo Roberto Ribeiro Fontes</t>
-        </is>
-      </c>
-      <c r="B265" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>FONTES, Paulo; COUTO, A. ; CORROCHANO, C. . O futuro das profissões. 2022. (Exposição).</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>Renato Luis do Couto Neto e Lemos</t>
-        </is>
-      </c>
-      <c r="B266" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>Por mi raza hablará el espiritu.Collage histórico-cultural brasileño.
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>Renato Luis do Couto Neto e Lemos</t>
-        </is>
-      </c>
-      <c r="B267" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>Projeto de Extensão Os militares na história do Brasil - Complexidades do passado e incertezas do futuro.Os militares na transição política do Brasil.
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>Renato Luis do Couto Neto e Lemos</t>
-        </is>
-      </c>
-      <c r="B268" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>VI Semana de História da UFRJ.Anistia e transição política: suas conexões com o Brasil atual.
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>Renato Luis do Couto Neto e Lemos</t>
-        </is>
-      </c>
-      <c r="B269" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>LEMOS, Renato Luís do Couto Neto e. Sessão Coordenada Emrpesariado e Estado. 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>Roberto Guedes Ferreira</t>
-        </is>
-      </c>
-      <c r="B270" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>Laboratório Circuitos oceânicos: petições e comunicação política da América portuguesa ao Império do Brasil.O batismo e a conversão do cativeiro em escravidão (Angola e Brasil, c. 1715-c.1850). 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>Roberto Guedes Ferreira</t>
-        </is>
-      </c>
-      <c r="B271" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>Aula Inaugural no Instituto Pretos Novos.Catolicismo e Escravidão Resgate, batismo e compadrio (Luanda e Rio, século XVIII). 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>Roberto Guedes Ferreira</t>
-        </is>
-      </c>
-      <c r="B272" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>Colóquio de 1822 a 2022- Brasil, Brasis em construção - debates.Mesa Escravidão e liberdade no Brasil independente/ Trabalho apresentado: Da América portuguesa ao império do Brasil: continuidades do escravismo. 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>Roberto Guedes Ferreira</t>
-        </is>
-      </c>
-      <c r="B273" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>Congreso Internacional Esclavas, horras y no blancas nacidas libres en los mundos ibéricos: actuación, movilidad y memorias. Siglos XVI-XIX. Mesa redonda 2 / Trabalho Senhoras forras (Rio de Janeiro, século XVIII). 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>Roberto Guedes Ferreira</t>
-        </is>
-      </c>
-      <c r="B274" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>XVIII Ciclo de Seminários Imagética e Conexões Mundiais ? Mestiçagens no Mundo Moderno.Agentes das mestiçagens (São Gonçalo e Rio de Janeiro, séculos XVIII e XIX). 2022. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>Roberto Guedes Ferreira</t>
-        </is>
-      </c>
-      <c r="B275" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>Conferência de Abertura da I Jornada de Egressos Professor Manolo Florentino.Homenagem a Manolo Florentino. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>Roberto Guedes Ferreira</t>
-        </is>
-      </c>
-      <c r="B276" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>De escravo a senhor: trajetórias (séculos XVI-XIX).Encontros do Grupo de Estudos História da Escracidão e História dos Índios: diálogos. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>Roberto Guedes Ferreira</t>
-        </is>
-      </c>
-      <c r="B277" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>Encontro do Grupo de Estudos História da Escravidão e História dos Índios.FORMAS DE SER FORRO (LUANDA, RIO DE JANEIRO E SÃO PAULO, SÉCULOS XVII-XVIII).
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>Roberto Guedes Ferreira</t>
-        </is>
-      </c>
-      <c r="B278" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>Seminário de Estudos Pós-Graduados.Classificações de qualidades de cor no Brasil colonial: os casos de São Paulo e Rio de Janeiro.. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>Roberto Guedes Ferreira</t>
-        </is>
-      </c>
-      <c r="B279" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>Seminário Internacional Antigo Regime nos Trópicos: 20 anos. Senhores forros: nomear a escravidão para reproduzir a desigualdade em uma sociedade de antigo regime (Rio de Janeiro, Século XVIII). 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>Roberto Guedes Ferreira</t>
-        </is>
-      </c>
-      <c r="B280" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>VII Jornada de Pesquisadores da Fundação Biblioteca Nacional.Projeto Resgate Renovações e conexões historiográficas. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>Roberto Guedes Ferreira</t>
-        </is>
-      </c>
-      <c r="B281" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>GUEDES, ROBERTO; FRAGOSO, J. L. R. ; BICALHO, M. F. B. ; SAMPAIO, Antonio Carlos Jucá de ; MELLO, I. ; CONCEICAO, H. . Seminário Internacional Antigo Regime nos Trópicos: 20 anos. 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>Roberto Guedes Ferreira</t>
-        </is>
-      </c>
-      <c r="B282" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>GUEDES, ROBERTO; IVO, I. P. ; Eduardo França Paiva . Co-org. das palestras do Grupo de Estudos História da Escraivão e História dos Índios: diálogos. 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>Silvia Regina Liebel</t>
-        </is>
-      </c>
-      <c r="B283" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>História Global: temas e debates.Literatura de rua e reforço da ordem nos séculos XVI e XVII. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>Silvia Regina Liebel</t>
-        </is>
-      </c>
-      <c r="B284" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>História das mulheres e das relações de gênero (séculos XIII-XVIII). Catherine de Médicis, rainha da França e açougueira do São Bartolomeu. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>Silvia Regina Liebel</t>
-        </is>
-      </c>
-      <c r="B285" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>IV Seminário Virtual Internacional de História Moderna.Da Eva tentadora à bruxa demoníaca: pecado, fraqueza e desvio no Martelo das Feiticeiras. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Silvia Regina Liebel</t>
-        </is>
-      </c>
-      <c r="B286" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>ARINOS, T. M. ;LIEBEL, Vinícius;LIEBEL, Silvia.;LIEBEL, Silvia.. O antissemitismo no fascismo espanhol. Palestra de Toni Morant i Ariños. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>Silvia Regina Liebel</t>
-        </is>
-      </c>
-      <c r="B287" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>LIEBEL, Silvia.;LIEBEL, Silvia.;LIEBEL, Vinícius; HERMANN, J. ; MARTINS, W. S. ; SANTOS, B. C. C. . Entre História Global e Microstoria: investigar a partir de processos da Inquisição Portuguesa. Palestra com José Pedro Paiva. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>Silvia Regina Liebel</t>
-        </is>
-      </c>
-      <c r="B288" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>LIEBEL, Vinícius;LIEBEL, Silvia.;LIEBEL, Silvia.; CORDEIRO, J. ; REIS FILHO, D. A. ; ROLLEMBERG, D. ; ROTTA, H. . A Era de Ares. Reflexões a propósito do centenário do fascismo. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>Silvia Regina Liebel</t>
-        </is>
-      </c>
-      <c r="B289" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>BOTTI, A. ;LIEBEL, Vinícius;LIEBEL, Silvia.;LIEBEL, Silvia.. Os nacionalismos europeus e a atitude da Igreja Católica frente a eles (séculos XIX e XX). Palestra de Alfonso Botti. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>Silvia Regina Liebel</t>
-        </is>
-      </c>
-      <c r="B290" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>LIEBEL, Silvia.;LIEBEL, Silvia.; REIS, M. V. . História das mulheres e das relações de gênero (séculos XIII-XVIII). 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>Vinícius Aurélio Liebel</t>
-        </is>
-      </c>
-      <c r="B291" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>A Era de Ares: Reflexões a Propósito do Centenário do Fascismo. Mediação de Venerando la Tradición, depreciando la Historicidad: la guerra contra Ucrania, Conferência de Claudio Ingerflom. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>Vinícius Aurélio Liebel</t>
-        </is>
-      </c>
-      <c r="B292" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>XX Encontro de História da Anpuh-RJ.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>Vinícius Aurélio Liebel</t>
-        </is>
-      </c>
-      <c r="B293" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC 2020 - Edição Especial). 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>Vinícius Aurélio Liebel</t>
-        </is>
-      </c>
-      <c r="B294" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>LIEBEL, Vinícius;LIEBEL, Silvia; CORDEIRO, Janaína ; ROLLEMBERG, Denise ; REIS FILHO, D. A. ; ROTTA, H. R. . A Era de Ares: Reflexões a Propósito do Centenário do Fascismo. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>Vinícius Aurélio Liebel</t>
-        </is>
-      </c>
-      <c r="B295" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>MORANT I ARIÑOS, T. ;LIEBEL, Vinícius. O Antissemitismo no Fascismo Espanhol. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>Vinícius Aurélio Liebel</t>
-        </is>
-      </c>
-      <c r="B296" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>LIEBEL, Silvia;LIEBEL, Vinícius; CATÃO, B. ; HERMANN, J. ; Martins, W. . Entre História Global e Microstoria - investigar a partir de processos da inquisição portuguesa - Palestra com José Pedro Paiva. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>Vinícius Aurélio Liebel</t>
-        </is>
-      </c>
-      <c r="B297" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>HEUER, Wolfgang ;LIEBEL, Vinícius. Cosmos e República ? Sustentabilidade e Responsabilidade em Hannah Arendt e Alexander von Humboldt - Palestra de Wolfgang Heuer. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>Vinícius Aurélio Liebel</t>
-        </is>
-      </c>
-      <c r="B298" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>BOTTI, A. ;LIEBEL, Silvia;LIEBEL, Vinícius. Os Nacionalismos Europeus e a Atitude da Igreja Católica frente a Eles (séc. XIX e XX) - Palestra de Alfonso Botti. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>Vinícius Aurélio Liebel</t>
-        </is>
-      </c>
-      <c r="B299" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>LIEBEL, Vinícius; CORDEIRO, Janaína . ST Direitas, História e Memória (Anpuh-RJ). 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>Vinícius Aurélio Liebel</t>
-        </is>
-      </c>
-      <c r="B300" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>LIEBEL, Vinícius. Coordenação de Sessão de Apresentação de Trabalhos - XLII JICTAC. 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>Vitor Izecksohn</t>
-        </is>
-      </c>
-      <c r="B301" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>14th Rio de La Plata WWorkshop. American Confederates and Argentinean Federalistas in the Age of State -Building, 1848-1870.. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>Vitor Izecksohn</t>
-        </is>
-      </c>
-      <c r="B302" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>Ways of War.The Campaing of Cordilleras in the Paraguayan War. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>Vitor Izecksohn</t>
-        </is>
-      </c>
-      <c r="B303" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>Schulz, John ; CRUZ, C. A. S. ; DIEGUEZ, C. ;IZECKSOHN, Vitor. Os Militares na Política. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>William de Souza Martins</t>
-        </is>
-      </c>
-      <c r="B304" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>Mesa Redonda na 18ª Primavera dos Museus.O Recolhimento de mulheres de Santa Teresa em Itaipu e o contexto histórico e social da Região Oceânica nos séculos XVIII e XIX. 2024. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>William de Souza Martins</t>
-        </is>
-      </c>
-      <c r="B305" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>Bicentenário da Independência do Brasil.A Igreja na formação do Brasil independente. 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>William de Souza Martins</t>
-        </is>
-      </c>
-      <c r="B306" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>Perspectivas em História Moderna.Teologia política no ultramar: o gelasianismo no espaço atlântico. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>William de Souza Martins</t>
-        </is>
-      </c>
-      <c r="B307" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
           <t>Seminário Internacional Antigo Regime nos Trópicos/ART 20 anos.Culturas e religiosidades. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>William de Souza Martins</t>
-        </is>
-      </c>
-      <c r="B308" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>MARTINS, W. S.. Jornada de Estudos Históricos Professor Manoel Salgado - Edição 2023. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>William de Souza Martins</t>
-        </is>
-      </c>
-      <c r="B309" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>MARTINS, W. S.. Simpósio Temático Práticas religiosas e representações políticas e sociais no mundo moderno (no âmbito da Jornada Manoel Salgado). 2023. (Outro).</t>
         </is>
       </c>
     </row>

--- a/data/Eventos.xlsx
+++ b/data/Eventos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -829,7 +829,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Antonio Carlos Jucá de Sampaio</t>
+          <t>Andrea Daher</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -837,7 +837,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SAMPAIO, ANTONIO CARLOS JUCÁ DE. 31º Simpósio Nacional de História da ANPUH. 2021. (Congresso).</t>
+          <t>DAHER, Andrea. A pequena grande história de Giovanni Levi. 2021. Filme.</t>
         </is>
       </c>
     </row>
@@ -852,7 +852,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SAMPAIO, ANTONIO CARLOS JUCÁ DE. Seminário Internacional "Antigo Regime nos Trópicos: 20 anos". 2021. (Congresso).</t>
+          <t>SAMPAIO, ANTONIO CARLOS JUCÁ DE. 31º Simpósio Nacional de História da ANPUH. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SAMPAIO, ANTONIO CARLOS JUCÁ DE. Simpósio temático "O Império e seus idiomas: governos ultramarinos, negociantes e escravos no mundo português". 2021. (Congresso).</t>
+          <t>SAMPAIO, ANTONIO CARLOS JUCÁ DE. Seminário Internacional "Antigo Regime nos Trópicos: 20 anos". 2021. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -882,37 +882,37 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SAMPAIO, ANTONIO CARLOS JUCÁ DE. ART em teses: novas pesquisas. 2021. (Congresso).</t>
+          <t>SAMPAIO, ANTONIO CARLOS JUCÁ DE. Simpósio temático "O Império e seus idiomas: governos ultramarinos, negociantes e escravos no mundo português". 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Beatriz Catão Cruz Santos</t>
+          <t>Antonio Carlos Jucá de Sampaio</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SOUZA, F. P. ;SANTOS, Beatriz Catão Cruz. Pardos livres e a articulação de suas redes de poder na milícia e no artesanato (São Paulo, 1810-1821). 2023. (Outro).</t>
+          <t>SAMPAIO, ANTONIO CARLOS JUCÁ DE. ART em teses: novas pesquisas. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Deivid Valério Gaia</t>
+          <t>Beatriz Catão Cruz Santos</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Gaia, Deivid Valério. Organização do XXXII Ciclo de debates em História Antiga, realizado pelo laboratório de História Antiga (LHIA),. 2022. (Congresso).</t>
+          <t>SOUZA, F. P. ;SANTOS, Beatriz Catão Cruz. Pardos livres e a articulação de suas redes de poder na milícia e no artesanato (São Paulo, 1810-1821). 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>FORMISANO, M. ;Gaia, Deivid Valério; SANTORO, F. . Organização do curso de extensão sobre História Antiga e problemas ambientais com Marco Formisano da Universidade de Gant - Belgica. 2022. (Outro).</t>
+          <t>Gaia, Deivid Valério. Organização do XXXII Ciclo de debates em História Antiga, realizado pelo laboratório de História Antiga (LHIA),. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -938,18 +938,18 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Gaia, Deivid Valério. Organização do XXXI Ciclo de debates em História Antiga, realizado pelo laboratório de História Antiga (LHIA),. 2021. (Congresso).</t>
+          <t>FORMISANO, M. ;Gaia, Deivid Valério; SANTORO, F. . Organização do curso de extensão sobre História Antiga e problemas ambientais com Marco Formisano da Universidade de Gant - Belgica. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Felipe Charbel Teixeira</t>
+          <t>Deivid Valério Gaia</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -957,22 +957,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CHARBEL, Felipe; MAGRI, Ieda ; GUTIERREZ, Rafael . Leituras do contemporâneo: literatura e crítica no Brasil e na Argentina. 2021. (Congresso).</t>
+          <t>Gaia, Deivid Valério. Organização do XXXI Ciclo de debates em História Antiga, realizado pelo laboratório de História Antiga (LHIA),. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Gabriel de Carvalho Godoy Castanho</t>
+          <t>Felipe Charbel Teixeira</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CASTANHO, G; MAGNANI, E. ; PERREAUX, N. . Digitizing the Middle Ages: The Impacts of Digitized Corpora on Medieval Historiography (Mesa de comunicações no International Congress on Medieval Studies - Kalamazoo). 2023. (Outro).</t>
+          <t>CHARBEL, Felipe; MAGRI, Ieda ; GUTIERREZ, Rafael . Leituras do contemporâneo: literatura e crítica no Brasil e na Argentina. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CASTANHO, G; MAGNANI, E. ; PERREAUX, N. . Digitizing the Middle Ages: the impacts of digitized corpora on medieval historiography (Mesa de comunicações no International Medieval Congress - Leeds). 2023. (Outro).</t>
+          <t>CASTANHO, G; MAGNANI, E. ; PERREAUX, N. . Digitizing the Middle Ages: The Impacts of Digitized Corpora on Medieval Historiography (Mesa de comunicações no International Congress on Medieval Studies - Kalamazoo). 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CASTANHO, G; et alii. . A digitalização da medievalística brasileira  (e além...)  - XIII Encontro Internacional do LATHIMM. 2023. (Congresso).</t>
+          <t>CASTANHO, G; MAGNANI, E. ; PERREAUX, N. . Digitizing the Middle Ages: the impacts of digitized corpora on medieval historiography (Mesa de comunicações no International Medieval Congress - Leeds). 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CASTANHO, G; NEVES, L. C. S. . Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. 2022. (Outro).</t>
+          <t>CASTANHO, G; et alii. . A digitalização da medievalística brasileira  (e além...)  - XIII Encontro Internacional do LATHIMM. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CASTANHO, G; PEREIRA, A. P. L. . Jornada  Emoções na Idade Média: abordagens,  historiografias e filosofias. 2022. (Outro).</t>
+          <t>CASTANHO, G; NEVES, L. C. S. . Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. 2022. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CASTANHO, G; NEVES, L. C. S. ; et alii. . Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. Conceitos e Historiografias. 2022. (Outro).</t>
+          <t>CASTANHO, G; PEREIRA, A. P. L. . Jornada  Emoções na Idade Média: abordagens,  historiografias e filosofias. 2022. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CASTANHO, G; NEVES, L. C. S. ; et alii. . Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. Estudos não "gregorianos". 2022. (Outro).</t>
+          <t>CASTANHO, G; NEVES, L. C. S. ; et alii. . Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. Conceitos e Historiografias. 2022. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CASTANHO, G; PEREIRA, A. P. L. . Jornada  Emoções na Idade Média: abordagens, historiografias e literaturas. 2022. (Outro).</t>
+          <t>CASTANHO, G; NEVES, L. C. S. ; et alii. . Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. Estudos não "gregorianos". 2022. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1088,11 +1088,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CASTANHO, G; PEREIRA, A. P. L. . Jornada Emoções na Idade Média: abordagens e historiografias. 2021. (Outro).</t>
+          <t>CASTANHO, G; PEREIRA, A. P. L. . Jornada  Emoções na Idade Média: abordagens, historiografias e literaturas. 2022. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CASTANHO, G C G; ASFORA, W. C. . Estudos do Discurso Medieval (ST 08  no XIV EIEM). 2021. (Outro).</t>
+          <t>CASTANHO, G; PEREIRA, A. P. L. . Jornada Emoções na Idade Média: abordagens e historiografias. 2021. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1122,22 +1122,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MAGNANI, E. ;CASTANHO, G C G; et alii. . Journée d?études CBMA (Corpus Burgundiae Medii Aevi) ? Hagiographie bourguignonne 2.0 ? corpus électronique et nouvelles recherches. 2021. (Outro).</t>
+          <t>CASTANHO, G C G; ASFORA, W. C. . Estudos do Discurso Medieval (ST 08  no XIV EIEM). 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Henrique Buarque de Gusmão</t>
+          <t>Gabriel de Carvalho Godoy Castanho</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GUSMAO, H. B.; SILVA, T. B. ; AZEVEDO, E. R. ; MOURA, M. . Semana de estudos em história do teatro. 2024. (Congresso).</t>
+          <t>MAGNANI, E. ;CASTANHO, G C G; et alii. . Journée d?études CBMA (Corpus Burgundiae Medii Aevi) ? Hagiographie bourguignonne 2.0 ? corpus électronique et nouvelles recherches. 2021. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1148,11 +1148,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GUSMAO, H. B.; SODRE, C. ; WAJNBERG, D. S. ; OLIVEIRA, D. . Jornada Studio Stanislavski: 30 anos de experimentação teatral. 2023. (Congresso).</t>
+          <t>GUSMAO, H. B.; SILVA, T. B. ; AZEVEDO, E. R. ; MOURA, M. . Semana de estudos em história do teatro. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1163,11 +1163,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GUSMAO, H. B.; DAHER, Andrea . Jornada de Estudos O ?efeito de escândalo? na literatura e nas artes brasileiras. 2022. (Outro).</t>
+          <t>GUSMAO, H. B.; SODRE, C. ; WAJNBERG, D. S. ; OLIVEIRA, D. . Jornada Studio Stanislavski: 30 anos de experimentação teatral. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1178,11 +1178,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SILVA, T. B. ;GUSMAO, H. B.; FERREIRA, V. A. . Colóquio Teatro e Sociedade. 2021. (Outro).</t>
+          <t>GUSMAO, H. B.; DAHER, Andrea . Jornada de Estudos O ?efeito de escândalo? na literatura e nas artes brasileiras. 2022. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1197,22 +1197,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GUSMAO, H. B.. IV Encontro Fluminense de Teoria e Historiografia. 2021. (Outro).</t>
+          <t>SILVA, T. B. ;GUSMAO, H. B.; FERREIRA, V. A. . Colóquio Teatro e Sociedade. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Isabele de Matos Pereira de Mello</t>
+          <t>Henrique Buarque de Gusmão</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>FRAGOSO, J. ;SAMPAIO, A. C. J.;FERREIRA, R. G.;MELLO, Isabele de Matos P. de. Seminário: Humanidades Digitais e o uso do software Transkribus na pesquisa histórica. 2023. (Outro).</t>
+          <t>GUSMAO, H. B.. IV Encontro Fluminense de Teoria e Historiografia. 2021. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1223,11 +1223,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MELLO, Isabele de Matos P. de;LOUREIRO, M. J. G.. VIII Encontro Internacional de História Colonial - Coordenação de Simpósio Temático: O governo da justiça: instituições, discursos, poderes e magistrados (sécs. XVII-XIX). 2021. (Outro).</t>
+          <t>FRAGOSO, J. ;SAMPAIO, A. C. J.;FERREIRA, R. G.;MELLO, Isabele de Matos P. de. Seminário: Humanidades Digitais e o uso do software Transkribus na pesquisa histórica. 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>FRAGOSO, J. ;BICALHO, M. F.;SAMPAIO, A. C. J.;FERREIRA, R. G.;MELLO, Isabele de Matos P. de; ALMEIDA, Carla M. ; CONCEICAO, H. . ART em Teses: Novas Pesquisas. 2021. (Outro).</t>
+          <t>MELLO, Isabele de Matos P. de;LOUREIRO, M. J. G.. VIII Encontro Internacional de História Colonial - Coordenação de Simpósio Temático: O governo da justiça: instituições, discursos, poderes e magistrados (sécs. XVII-XIX). 2021. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1257,14 +1257,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ALMEIDA, Carla M. ;BICALHO, Maria Fernanda B.; CONCEICAO, H. ;FERREIRA, R. G.; FRAGOSO, J. ;MELLO, Isabele de Matos P. de;SAMPAIO, A. C. J.. Seminário Internacional Antigo Regime nos Trópicos - 20 Anos. 2021. (Outro).</t>
+          <t>FRAGOSO, J. ;BICALHO, M. F.;SAMPAIO, A. C. J.;FERREIRA, R. G.;MELLO, Isabele de Matos P. de; ALMEIDA, Carla M. ; CONCEICAO, H. . ART em Teses: Novas Pesquisas. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Joao Luis Ribeiro Fragoso</t>
+          <t>Isabele de Matos Pereira de Mello</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>FRAGOSO, JOÃO; BICALHO, M. F. ; SAMPAIO, A. C. J. ; FERREIRA, Roberto Guedes ; MELLO, I. ;ALMEIDA, Carla Maria Carvalho de; CONCEICAO, H. S. . Antigo Regime nos Trópicos: 20 anos - Congresso Intarnacional. 2021. (Congresso).</t>
+          <t>ALMEIDA, Carla M. ;BICALHO, Maria Fernanda B.; CONCEICAO, H. ;FERREIRA, R. G.; FRAGOSO, J. ;MELLO, Isabele de Matos P. de;SAMPAIO, A. C. J.. Seminário Internacional Antigo Regime nos Trópicos - 20 Anos. 2021. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1287,22 +1287,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>FRAGOSO, JOÃO; BICALHO, M. F. ; SAMPAIO, A. C. J. ; FERREIRA, Roberto Guedes ; CONCEICAO, H. S. ;ALMEIDA, Carla Maria Carvalho de; MELLO, I. . Art em Teses. 2021. (Congresso).</t>
+          <t>FRAGOSO, JOÃO; BICALHO, M. F. ; SAMPAIO, A. C. J. ; FERREIRA, Roberto Guedes ; MELLO, I. ;ALMEIDA, Carla Maria Carvalho de; CONCEICAO, H. S. . Antigo Regime nos Trópicos: 20 anos - Congresso Intarnacional. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Lise Fernanda Sedrez</t>
+          <t>Joao Luis Ribeiro Fragoso</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SEDREZ, Lise F.; EICKELKAMP, U. . Landscapes of Deindustrialization - Panel in two sessions. 2024. (Outro).</t>
+          <t>FRAGOSO, JOÃO; BICALHO, M. F. ; SAMPAIO, A. C. J. ; FERREIRA, Roberto Guedes ; CONCEICAO, H. S. ;ALMEIDA, Carla Maria Carvalho de; MELLO, I. . Art em Teses. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1313,11 +1313,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SEDREZ, Lise F.. 12o. Semana de Integração Acadêmica da UFRJ. 2023. (Outro).</t>
+          <t>SEDREZ, Lise F.; EICKELKAMP, U. . Landscapes of Deindustrialization - Panel in two sessions. 2024. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>FONTES, P. R. R.;SEDREZ, Lise F.; SANTOS, R. . Desindustrialização e História Social: a experiência alemã. 2023. (Outro).</t>
+          <t>SEDREZ, Lise F.. 12o. Semana de Integração Acadêmica da UFRJ. 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1343,11 +1343,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SEDREZ, Lise F.. 11 Semana de Integração Acadêmica da UFRJ. 2022. (Outro).</t>
+          <t>FONTES, P. R. R.;SEDREZ, Lise F.; SANTOS, R. . Desindustrialização e História Social: a experiência alemã. 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1358,26 +1358,26 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Sedrez, Lise. X SIMPOSIO SOLCHA. 2021. (Congresso).</t>
+          <t>SEDREZ, Lise F.. 11 Semana de Integração Acadêmica da UFRJ. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Lorena Lopes da Costa</t>
+          <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>LESSA, F. ; GAIA, D. V. ; MEGA, M. ; BUSTAMANTE, R. ; PEIXOTO, P. ;LOPES DA COSTA, L.. XXXIV Ciclo de Debates em História Antiga. 2024. (Congresso).</t>
+          <t>Sedrez, Lise. X SIMPOSIO SOLCHA. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1388,11 +1388,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>BUSTAMANTE, R. ; GAIA, D. V. ; LESSA, F. ; MEGA, M. ; PEIXOTO, P. ;LOPES DA COSTA, L.. XXXIII Ciclo de Debates em História Antiga - LHIA. 2023. (Congresso).</t>
+          <t>LESSA, F. ; GAIA, D. V. ; MEGA, M. ; BUSTAMANTE, R. ; PEIXOTO, P. ;LOPES DA COSTA, L.. XXXIV Ciclo de Debates em História Antiga. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1403,26 +1403,26 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>PEIXOTO, P. ;LOPES DA COSTA, L.. XXXII Ciclo de Debates em História Antiga - LHIA. 2022. (Congresso).</t>
+          <t>BUSTAMANTE, R. ; GAIA, D. V. ; LESSA, F. ; MEGA, M. ; PEIXOTO, P. ;LOPES DA COSTA, L.. XXXIII Ciclo de Debates em História Antiga - LHIA. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Luiza Larangeira da Silva Mello</t>
+          <t>Lorena Lopes da Costa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SILVA MELLO, L. L.; RODRIGUES, H. E. . Seminário Nacional História e Ficção: as formas do (des)encontro. 2024. (Congresso).</t>
+          <t>PEIXOTO, P. ;LOPES DA COSTA, L.. XXXII Ciclo de Debates em História Antiga - LHIA. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1433,18 +1433,18 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>LARANGEIRA DA SILVA MELLO, L.; CALDAS, Pedro S. P. ; CORREIA, S. A. B. . I Jornada de Estudos em Pensamento Crítico Contemporâneo: experiências, memórias e mediações das crises do século XX. 2023. (Congresso).</t>
+          <t>SILVA MELLO, L. L.; RODRIGUES, H. E. . Seminário Nacional História e Ficção: as formas do (des)encontro. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Maria Paula Nascimento Araujo</t>
+          <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MANGUEIRA, B. ; SANTOS, D. R. ; SILVA, I. P. ; CORREA, L. ;ARAUJO, M. P. N.; Ferreira, M. M. ; GHERMAN, M. ; QUADRAT, S. V. ; PINTO, S. ; SILVA, F. C. ; RIOS, C. ; GEROMEL, B. ; GOMES, P. C. ; RIBERTI, L. ; DAHAS, N. . Semináro História Oral, Memória e Violência Política no Mundo Contemporâneo. 2023. (Outro).</t>
+          <t>LARANGEIRA DA SILVA MELLO, L.; CALDAS, Pedro S. P. ; CORREIA, S. A. B. . I Jornada de Estudos em Pensamento Crítico Contemporâneo: experiências, memórias e mediações das crises do século XX. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1463,11 +1463,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ARAUJO, MARIA PAULA NASCIMENTO; SILVA, I. P. ; Fico, Carlos ; QUADRAT, S. V. ; BAUER, C. S. ; CATELA, L. ; CAPELATO, M. H. R. ; GHERMAN, M. ; PIRES JUNIOR, P. A. ; FRANCO, M. ; CRENZEL, E. ; OBERTI, A. . Seminário Internacional 45 anos do golpe e da ditadura na Argentina: história, memória e diálogos com o Brasil. 2021. (Outro).</t>
+          <t>MANGUEIRA, B. ; SANTOS, D. R. ; SILVA, I. P. ; CORREA, L. ;ARAUJO, M. P. N.; Ferreira, M. M. ; GHERMAN, M. ; QUADRAT, S. V. ; PINTO, S. ; SILVA, F. C. ; RIOS, C. ; GEROMEL, B. ; GOMES, P. C. ; RIBERTI, L. ; DAHAS, N. . Semináro História Oral, Memória e Violência Política no Mundo Contemporâneo. 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1482,37 +1482,37 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ARAUJO, M. P. N.; SILVA, I. P. ; MANGUEIRA, B. ; PEDRETTI, L. ; CORREA, L. ; CUNHA, M. . História Oral, memória e experiência na luta por direitos. 2021. (Outro).</t>
+          <t>ARAUJO, MARIA PAULA NASCIMENTO; SILVA, I. P. ; Fico, Carlos ; QUADRAT, S. V. ; BAUER, C. S. ; CATELA, L. ; CAPELATO, M. H. R. ; GHERMAN, M. ; PIRES JUNIOR, P. A. ; FRANCO, M. ; CRENZEL, E. ; OBERTI, A. . Seminário Internacional 45 anos do golpe e da ditadura na Argentina: história, memória e diálogos com o Brasil. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Marieta de Moraes Ferreira</t>
+          <t>Maria Paula Nascimento Araujo</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>FERREIRA, MARIETA DE MORAES; HOCHMAN, G. ; OLIVEIRA, L. M. L. ; OLIVEIRA, D. . 1922;O Passado no presente- permanências e transformações. 2022. (Outro).</t>
+          <t>ARAUJO, M. P. N.; SILVA, I. P. ; MANGUEIRA, B. ; PEDRETTI, L. ; CORREA, L. ; CUNHA, M. . História Oral, memória e experiência na luta por direitos. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>Marieta de Moraes Ferreira</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Assaf Sthephanie ; PECHMAN, R. ; Marcondes Guilherme ; Penha-Lopes Vania ; SEGAL, R. ; Lerner, Katia ; MORAES, L. E. ; Caldas, Pedro ; GRIN, M. ; Caldeira Odilon ;GHERMAN, MICHEL; FRANCA, D. ; LEMOS, B. ; Bastos, Bianca ; Mello, Juçara . Usos políticos do Holocausto e do Genocídio. 2024. (Congresso).</t>
+          <t>FERREIRA, MARIETA DE MORAES; HOCHMAN, G. ; OLIVEIRA, L. M. L. ; OLIVEIRA, D. . 1922;O Passado no presente- permanências e transformações. 2022. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1523,11 +1523,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Herz, Monica ; SPOSNIK, A. ;GHERMAN, MICHEL. Israel como modelo cultural: imaginários e usos na nova extrema-direita. 2023. (Congresso).</t>
+          <t>Assaf Sthephanie ; PECHMAN, R. ; Marcondes Guilherme ; Penha-Lopes Vania ; SEGAL, R. ; Lerner, Katia ; MORAES, L. E. ; Caldas, Pedro ; GRIN, M. ; Caldeira Odilon ;GHERMAN, MICHEL; FRANCA, D. ; LEMOS, B. ; Bastos, Bianca ; Mello, Juçara . Usos políticos do Holocausto e do Genocídio. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>AMARAL, J. ; LEMOS, B. ; Zunino, Olga ; RIBAS, A. ; Bastos, Bianca ; FRANCA, D. ;GHERMAN, MICHEL. Encontro de Pesquisa: História Política e Extrema Direita. 2023. (Congresso).</t>
+          <t>Herz, Monica ; SPOSNIK, A. ;GHERMAN, MICHEL. Israel como modelo cultural: imaginários e usos na nova extrema-direita. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1553,33 +1553,33 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>HERZ, M. ;GHERMAN, MICHEL; MIZRAHI, G. . Israel Imaginária na diplomacia brasileira de Bolsonaro. 2021. (Outro).</t>
+          <t>AMARAL, J. ; LEMOS, B. ; Zunino, Olga ; RIBAS, A. ; Bastos, Bianca ; FRANCA, D. ;GHERMAN, MICHEL. Encontro de Pesquisa: História Política e Extrema Direita. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Monica Grin</t>
+          <t>Michel Gherman</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>GRIN, Monica; MAIO, Marcos Chor ; GHERMAN, M. ; HAJ, J. A. E. ; Monteiro, Giovanna ; DAVIDI, E. . Israel na Encruzilhada. 2023. (Outro).</t>
+          <t>HERZ, M. ;GHERMAN, MICHEL; MIZRAHI, G. . Israel Imaginária na diplomacia brasileira de Bolsonaro. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Murilo Sebe Bon Meihy</t>
+          <t>Monica Grin</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CAMPOS, G. A. G. ; HAMSHARI, A. ;MEIHY, M. S. B.. 1a. Conferência Internacional Arab Latinos: migrações e solidariedade. 2023. (Outro).</t>
+          <t>GRIN, Monica; MAIO, Marcos Chor ; GHERMAN, M. ; HAJ, J. A. E. ; Monteiro, Giovanna ; DAVIDI, E. . Israel na Encruzilhada. 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1598,26 +1598,26 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MEIHY, M. S. B.; OSMAN, S. A. ; SANTOS, P. T. . Da guerra do Terror ao retorno do Talibã. 2021. (Outro).</t>
+          <t>CAMPOS, G. A. G. ; HAMSHARI, A. ;MEIHY, M. S. B.. 1a. Conferência Internacional Arab Latinos: migrações e solidariedade. 2023. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Nuno Carlos de Fragoso Vidal</t>
+          <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>VIDAL, NUNO. Conferência de Luanda ?Processos de Democratização e Desenvolvimento em Angola?, Quinta-feira 9 de Junho de 2022,  Universidade Católica de Angola, Salão Nobre, Edifício Sede - Palanca  9 de Junho de 2022 UCAN ? Luanda. 2022. (Congresso).</t>
+          <t>MEIHY, M. S. B.; OSMAN, S. A. ; SANTOS, P. T. . Da guerra do Terror ao retorno do Talibã. 2021. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Fragoso Vidal, Nuno. Conferência de Maputo - Pluralism Democratization and Electoral Integrity in Angola and Mozambique. 2022. (Congresso).</t>
+          <t>VIDAL, NUNO. Conferência de Luanda ?Processos de Democratização e Desenvolvimento em Angola?, Quinta-feira 9 de Junho de 2022,  Universidade Católica de Angola, Salão Nobre, Edifício Sede - Palanca  9 de Junho de 2022 UCAN ? Luanda. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Fragoso Vidal, Nuno. Pannel 2-O-4 on Electoral integrity in the Mozambique 2019 election and the democratization process. 2022. (Outro).</t>
+          <t>Fragoso Vidal, Nuno. Conferência de Maputo - Pluralism Democratization and Electoral Integrity in Angola and Mozambique. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1662,22 +1662,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Fragoso Vidal, Nuno. Conferência Lisboa, ?Pluralismo, Democratização e Eleições em Angola e Moçambique?. 2022. (Congresso).</t>
+          <t>Fragoso Vidal, Nuno. Pannel 2-O-4 on Electoral integrity in the Mozambique 2019 election and the democratization process. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Paulo Roberto Ribeiro Fontes</t>
+          <t>Nuno Carlos de Fragoso Vidal</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>FONTES, Paulo. Workshop Desindustrialização e História Social: a construção de um campo de pesquisa (Brasil e Alemanha). 2023. (Outro).</t>
+          <t>Fragoso Vidal, Nuno. Conferência Lisboa, ?Pluralismo, Democratização e Eleições em Angola e Moçambique?. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1688,33 +1688,33 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>FONTES, Paulo; COUTO, A. ; CORROCHANO, C. . O futuro das profissões. 2022. (Exposição).</t>
+          <t>FONTES, Paulo. Workshop Desindustrialização e História Social: a construção de um campo de pesquisa (Brasil e Alemanha). 2023. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Renato Luis do Couto Neto e Lemos</t>
+          <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>LEMOS, Renato Luís do Couto Neto e. Sessão Coordenada Emrpesariado e Estado. 2021. (Outro).</t>
+          <t>FONTES, Paulo; COUTO, A. ; CORROCHANO, C. . O futuro das profissões. 2022. (Exposição).</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Roberto Guedes Ferreira</t>
+          <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>GUEDES, ROBERTO; FRAGOSO, J. L. R. ; BICALHO, M. F. B. ; SAMPAIO, Antonio Carlos Jucá de ; MELLO, I. ; CONCEICAO, H. . Seminário Internacional Antigo Regime nos Trópicos: 20 anos. 2021. (Outro).</t>
+          <t>LEMOS, Renato Luís do Couto Neto e. Sessão Coordenada Emrpesariado e Estado. 2021. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1737,22 +1737,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>GUEDES, ROBERTO; IVO, I. P. ; Eduardo França Paiva . Co-org. das palestras do Grupo de Estudos História da Escraivão e História dos Índios: diálogos. 2021. (Outro).</t>
+          <t>GUEDES, ROBERTO; FRAGOSO, J. L. R. ; BICALHO, M. F. B. ; SAMPAIO, Antonio Carlos Jucá de ; MELLO, I. ; CONCEICAO, H. . Seminário Internacional Antigo Regime nos Trópicos: 20 anos. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Silvia Regina Liebel</t>
+          <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ARINOS, T. M. ;LIEBEL, Vinícius;LIEBEL, Silvia.;LIEBEL, Silvia.. O antissemitismo no fascismo espanhol. Palestra de Toni Morant i Ariños. 2023. (Outro).</t>
+          <t>GUEDES, ROBERTO; IVO, I. P. ; Eduardo França Paiva . Co-org. das palestras do Grupo de Estudos História da Escraivão e História dos Índios: diálogos. 2021. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>LIEBEL, Silvia.;LIEBEL, Silvia.;LIEBEL, Vinícius; HERMANN, J. ; MARTINS, W. S. ; SANTOS, B. C. C. . Entre História Global e Microstoria: investigar a partir de processos da Inquisição Portuguesa. Palestra com José Pedro Paiva. 2023. (Outro).</t>
+          <t>ARINOS, T. M. ;LIEBEL, Vinícius;LIEBEL, Silvia.;LIEBEL, Silvia.. O antissemitismo no fascismo espanhol. Palestra de Toni Morant i Ariños. 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>LIEBEL, Vinícius;LIEBEL, Silvia.;LIEBEL, Silvia.; CORDEIRO, J. ; REIS FILHO, D. A. ; ROLLEMBERG, D. ; ROTTA, H. . A Era de Ares. Reflexões a propósito do centenário do fascismo. 2023. (Congresso).</t>
+          <t>LIEBEL, Silvia.;LIEBEL, Silvia.;LIEBEL, Vinícius; HERMANN, J. ; MARTINS, W. S. ; SANTOS, B. C. C. . Entre História Global e Microstoria: investigar a partir de processos da Inquisição Portuguesa. Palestra com José Pedro Paiva. 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1793,11 +1793,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>BOTTI, A. ;LIEBEL, Vinícius;LIEBEL, Silvia.;LIEBEL, Silvia.. Os nacionalismos europeus e a atitude da Igreja Católica frente a eles (séculos XIX e XX). Palestra de Alfonso Botti. 2022. (Outro).</t>
+          <t>LIEBEL, Vinícius;LIEBEL, Silvia.;LIEBEL, Silvia.; CORDEIRO, J. ; REIS FILHO, D. A. ; ROLLEMBERG, D. ; ROTTA, H. . A Era de Ares. Reflexões a propósito do centenário do fascismo. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1808,26 +1808,26 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>LIEBEL, Silvia.;LIEBEL, Silvia.; REIS, M. V. . História das mulheres e das relações de gênero (séculos XIII-XVIII). 2021. (Congresso).</t>
+          <t>BOTTI, A. ;LIEBEL, Vinícius;LIEBEL, Silvia.;LIEBEL, Silvia.. Os nacionalismos europeus e a atitude da Igreja Católica frente a eles (séculos XIX e XX). Palestra de Alfonso Botti. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Vinícius Aurélio Liebel</t>
+          <t>Silvia Regina Liebel</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>LIEBEL, Vinícius;LIEBEL, Silvia; CORDEIRO, Janaína ; ROLLEMBERG, Denise ; REIS FILHO, D. A. ; ROTTA, H. R. . A Era de Ares: Reflexões a Propósito do Centenário do Fascismo. 2023. (Congresso).</t>
+          <t>LIEBEL, Silvia.;LIEBEL, Silvia.; REIS, M. V. . História das mulheres e das relações de gênero (séculos XIII-XVIII). 2021. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>MORANT I ARIÑOS, T. ;LIEBEL, Vinícius. O Antissemitismo no Fascismo Espanhol. 2023. (Outro).</t>
+          <t>LIEBEL, Vinícius;LIEBEL, Silvia; CORDEIRO, Janaína ; ROLLEMBERG, Denise ; REIS FILHO, D. A. ; ROTTA, H. R. . A Era de Ares: Reflexões a Propósito do Centenário do Fascismo. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>LIEBEL, Silvia;LIEBEL, Vinícius; CATÃO, B. ; HERMANN, J. ; Martins, W. . Entre História Global e Microstoria - investigar a partir de processos da inquisição portuguesa - Palestra com José Pedro Paiva. 2023. (Outro).</t>
+          <t>MORANT I ARIÑOS, T. ;LIEBEL, Vinícius. O Antissemitismo no Fascismo Espanhol. 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1868,11 +1868,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HEUER, Wolfgang ;LIEBEL, Vinícius. Cosmos e República ? Sustentabilidade e Responsabilidade em Hannah Arendt e Alexander von Humboldt - Palestra de Wolfgang Heuer. 2022. (Outro).</t>
+          <t>LIEBEL, Silvia;LIEBEL, Vinícius; CATÃO, B. ; HERMANN, J. ; Martins, W. . Entre História Global e Microstoria - investigar a partir de processos da inquisição portuguesa - Palestra com José Pedro Paiva. 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>BOTTI, A. ;LIEBEL, Silvia;LIEBEL, Vinícius. Os Nacionalismos Europeus e a Atitude da Igreja Católica frente a Eles (séc. XIX e XX) - Palestra de Alfonso Botti. 2022. (Outro).</t>
+          <t>HEUER, Wolfgang ;LIEBEL, Vinícius. Cosmos e República ? Sustentabilidade e Responsabilidade em Hannah Arendt e Alexander von Humboldt - Palestra de Wolfgang Heuer. 2022. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>LIEBEL, Vinícius; CORDEIRO, Janaína . ST Direitas, História e Memória (Anpuh-RJ). 2022. (Outro).</t>
+          <t>BOTTI, A. ;LIEBEL, Silvia;LIEBEL, Vinícius. Os Nacionalismos Europeus e a Atitude da Igreja Católica frente a Eles (séc. XIX e XX) - Palestra de Alfonso Botti. 2022. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1913,41 +1913,41 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>LIEBEL, Vinícius. Coordenação de Sessão de Apresentação de Trabalhos - XLII JICTAC. 2021. (Outro).</t>
+          <t>LIEBEL, Vinícius; CORDEIRO, Janaína . ST Direitas, História e Memória (Anpuh-RJ). 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Vitor Izecksohn</t>
+          <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Schulz, John ; CRUZ, C. A. S. ; DIEGUEZ, C. ;IZECKSOHN, Vitor. Os Militares na Política. 2022. (Outro).</t>
+          <t>LIEBEL, Vinícius. Coordenação de Sessão de Apresentação de Trabalhos - XLII JICTAC. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>William de Souza Martins</t>
+          <t>Vitor Izecksohn</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>MARTINS, W. S.. Jornada de Estudos Históricos Professor Manoel Salgado - Edição 2023. 2023. (Outro).</t>
+          <t>Schulz, John ; CRUZ, C. A. S. ; DIEGUEZ, C. ;IZECKSOHN, Vitor. Os Militares na Política. 2022. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1961,6 +1961,21 @@
         <v>2023</v>
       </c>
       <c r="C102" t="inlineStr">
+        <is>
+          <t>MARTINS, W. S.. Jornada de Estudos Históricos Professor Manoel Salgado - Edição 2023. 2023. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>William de Souza Martins</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C103" t="inlineStr">
         <is>
           <t>MARTINS, W. S.. Simpósio Temático Práticas religiosas e representações políticas e sociais no mundo moderno (no âmbito da Jornada Manoel Salgado). 2023. (Outro).</t>
         </is>
@@ -1977,7 +1992,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2517,7 +2532,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Andrea Daher</t>
+          <t>Andréa Casa Nova Maia</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2525,2767 +2540,4177 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Workshop:  Da América ao Pacífico. Para além do mito do ?selvagem?.A presença da "palavra selvagem". 2024. (Outra).</t>
+          <t>CARDOSO, L. C. ; LEMOS, C. M. E. ;MAIA, ANDRÉA CASA NOVA. "ST 30: Paisagem, memória e diversidade nas cidades fluminenses: entre o patrimônio de pedra e cal, material e o intangível, imaterial de indígenas, quilombolas e imigrantes que conformam nossa paisagem cultural",. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>Andréa Casa Nova Maia</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MAIA, ANDRÉA CASA NOVA. Desindustrialização e História Social: a experiência alemã. 2023. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Andréa Casa Nova Maia</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MAIA, ANDRÉA CASA NOVA. 11ª Semana de Integração Acadêmica da Universidade Federal do Rio de Janeiro. 2022. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Andréa Casa Nova Maia</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MAIA, ANDRÉA CASA NOVA. Simpósio 17 - Imagens e História: Abordagens multidisciplinares no Ensino e Pesquisa em História da XV Semana de História Política e XII Seminário Nacional de História: Política, Cultura e Sociedade. 2022. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Andréa Casa Nova Maia</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MAIA, ANDRÉA CASA NOVA. XVI Encontro Nacional de História Oral. 2022. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Andréa Casa Nova Maia</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MAIA, A. C. N.. XVI Encontro Nacional de História Oral - Pandemia e Futuros Possíveis. 2022. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Andréa Casa Nova Maia</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>MAIA, ANDRÉA CASA NOVA. História Oral: Gênero e intersecções - Debate com as vencedoras do 2º Prêmio Ecléa Bosi de teses. 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Andréa Casa Nova Maia</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MAIA, ANDRÉA CASA NOVA. Sessão Relações Étnicas e Raciais I da XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC/UFRJ). 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Andréa Casa Nova Maia</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>MAIA, ANDRÉA CASA NOVA. Sessão Sexualidade e Identidade de Gênero da XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC/UFRJ). 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Andréa Casa Nova Maia</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MAIA, ANDRÉA CASA NOVA. Sessão Espaços Urbanos do Rio de Janeiro da XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC/UFRJ). 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Andréa Casa Nova Maia</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MAIA, ANDRÉA CASA NOVA. Sessão Representação e Identidade Feminina da XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC/UFRJ). 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Andréa Casa Nova Maia</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MAIA, ANDRÉA CASA NOVA. 42ª Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC). 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Andréa Casa Nova Maia</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>MAIA, ANDRÉA CASA NOVA. 1º Ciclo de Debates IMAM - Laboratório de Imagem, Memória, Arte e Metrópole. 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Andréa Casa Nova Maia</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>MAIA, ANDRÉA CASA NOVA. XI Encontro Regional Sul de História Oral. 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Andréa Casa Nova Maia</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>MAIA, ANDRÉA CASA NOVA. ST 12 - Pandemia, temporalidade e arquivo: Os desafios de arquivar a experiência contemporânea do 31º  Simpósio Nacional de História. 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Andréa Casa Nova Maia</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>MAIA, ANDRÉA CASA NOVA. ST: Imprensa e cidadania entre o Império e a Reública - projetos de modernidade e estratégias de inclusão na cidade do Rio de Janeiro, IV Seminário Internacional Brasil no século XIX. 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Andréa Casa Nova Maia</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>MAIA, ANDRÉA CASA NOVA. Simpósio 17 - Imagens e História: abordagens multidisciplinares no Ensino e Pesquisa em História da XV Semana de História Política e XII Seminário Nacional de História: Política, Cultura e Sociedade da Universidade do Estado do Rio de Janeiro. 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Andréa Casa Nova Maia</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>MAIA, ANDRÉA CASA NOVA; CORREA, R. S. . Curso de Formação em História Oral. 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Andréa Casa Nova Maia</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>MAIA, A. C. N.; SILVA, M. R. . XIII Encontro Regional Nordeste de História Oral: Práticas antirracistas e narrativas inclusivas. 2021. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Andréa Casa Nova Maia</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MAIA, A. C. N.. XV Semana de História Política da Universidade do Estado do Rio de Janeiro | XII Seminário Nacional de História: Política, Cultura e Sociedade. 2021. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Andrea Daher</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Workshop:  Da América ao Pacífico. Para além do mito do ?selvagem?.A presença da "palavra selvagem". 2024. (Outra).</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Andrea Daher</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>DAHER, Andrea; LILTI, A. . Apresentação do livro de Antoine Lilti, A herança das Luzes. 2024. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Andrea Daher</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DAHER, Andrea; DESCOLA, Ph. . Mundos compostos: conversa com Philippe Descola. 2023. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Andrea Daher</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>DAHER, Andrea; DESCOLA, Ph. . Conferência de Philippe Descola: Cosmopolíticas da Terra. 2023. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Andrea Daher</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>DAHER, Andrea; DESCOLA, Ph. . Exibição de filme e debate: "Compor os mundos. O pensamento de Philippe Descola" de Eliza Lévy. 2023. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Andrea Daher</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DAHER, Andrea; LEVI, G. . Debate com Giovanni Levi. 2022. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
           <t>Antonio Carlos Jucá de Sampaio</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C36" t="inlineStr">
+      <c r="B61" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>IX Encontro Internacional de História Colonial.Economia, moeda e crédito: um debate necessário.
 						2023. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>Antonio Carlos Jucá de Sampaio</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C37" t="inlineStr">
+      <c r="B62" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>Seminário Antigo Regime nos Trópicos: 20 anos.Mercado urbano e economia costumeira: a urbe carioca no setecentos. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Antonio Carlos Jucá de Sampaio</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>SAMPAIO, ANTONIO CARLOS JUCÁ DE. 31º Simpósio Nacional de História da ANPUH. 2021. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Antonio Carlos Jucá de Sampaio</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SAMPAIO, ANTONIO CARLOS JUCÁ DE. Seminário Internacional "Antigo Regime nos Trópicos: 20 anos". 2021. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Antonio Carlos Jucá de Sampaio</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>SAMPAIO, ANTONIO CARLOS JUCÁ DE. Simpósio temático "O Império e seus idiomas: governos ultramarinos, negociantes e escravos no mundo português". 2021. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Antonio Carlos Jucá de Sampaio</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>SAMPAIO, ANTONIO CARLOS JUCÁ DE. ART em teses: novas pesquisas. 2021. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>Beatriz Catão Cruz Santos</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B67" t="n">
         <v>2024</v>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>21º Encontro de História da ANPUH-Rio.Contas poucas, mas feitas. A procissão de Corpus Christi no orçamento da câmara de Lisboa ? 1ª metade do século XVIII.
 						2024. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>Beatriz Catão Cruz Santos</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C39" t="inlineStr">
+      <c r="B68" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>Memory and Performance: Classical Reception in Early Modern Festivals (15th-18th Century).The meanings of awnings and columns at the Lisbon Corpus Christi procession (1717-1777). 2023. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>Beatriz Catão Cruz Santos</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C40" t="inlineStr">
+      <c r="B69" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>11a Semana de Integração Acadêmica da UFRJ.Religiosidades, Relações Sociais, Poder 2 (Coodenador e avaliador). 2022. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>Beatriz Catão Cruz Santos</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C41" t="inlineStr">
+      <c r="B70" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>Rituais públicos e alteridade no império português. As procissões no espaço e no tempo -  Corpus Christi e São Sebastião no Rio de Janeiro do século XVIII. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>Beatriz Catão Cruz Santos</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C42" t="inlineStr">
+      <c r="B71" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C71" t="inlineStr">
         <is>
           <t>Mapear os Rituais Públicos no Império Português.O insigne pintor: uma leitura da autobiografia poética de Vieira Lusitano. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Beatriz Catão Cruz Santos</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>SOUZA, F. P. ;SANTOS, Beatriz Catão Cruz. Pardos livres e a articulação de suas redes de poder na milícia e no artesanato (São Paulo, 1810-1821). 2023. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Felipe Charbel Teixeira</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CHARBEL, Felipe; MAGRI, Ieda ; GUTIERREZ, Rafael . Leituras do contemporâneo: literatura e crítica no Brasil e na Argentina. 2021. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>Fernando Luiz Vale Castro</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C43" t="inlineStr">
+      <c r="B74" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C74" t="inlineStr">
         <is>
           <t>Perspectivas Pós-coloniais e Decoloniais.Palestra.
 						2023. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>Fernando Luiz Vale Castro</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C44" t="inlineStr">
+      <c r="B75" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C75" t="inlineStr">
         <is>
           <t>VI Semana de História da UFRJ.Memória e História: regimes ditatoriais na América Latina. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>Fernando Luiz Vale Castro</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C45" t="inlineStr">
+      <c r="B76" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C76" t="inlineStr">
         <is>
           <t>XX Semana de Relações Internacionais.?Latino, hispânico ou sul-americano? Questões étnicas e identitárias no continente?.
 						2021. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>Gabriel de Carvalho Godoy Castanho</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C46" t="inlineStr">
+      <c r="B77" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>International Congress on Medieval Studies. Digitizing the Middle Ages: The Impacts of Digitized Corpora on Medieval Historiography. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>Gabriel de Carvalho Godoy Castanho</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C47" t="inlineStr">
+      <c r="B78" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>11ª SEMANA DE INTEGRAÇÃO ACADÊMICA DA UFRJ.História, Arte, Representação 2. 2022. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>Gabriel de Carvalho Godoy Castanho</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C48" t="inlineStr">
+      <c r="B79" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C79" t="inlineStr">
         <is>
           <t>1ª. Semana de Ciências Sociais, Geografia e História da FMU (REMOTO vi via Youtube)).Sobre desertos e homens: A história da solidão ocidental.. 2021. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>Gabriel de Carvalho Godoy Castanho</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C49" t="inlineStr">
+      <c r="B80" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C80" t="inlineStr">
         <is>
           <t>XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC 2020 - Edição Especial).Centro de Filosofia e Ciências Humanas - Oral Padrão - Sessão 44. 2021. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Gabriel de Carvalho Godoy Castanho</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>CASTANHO, G; MAGNANI, E. ; PERREAUX, N. . Digitizing the Middle Ages: The Impacts of Digitized Corpora on Medieval Historiography (Mesa de comunicações no International Congress on Medieval Studies - Kalamazoo). 2023. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Gabriel de Carvalho Godoy Castanho</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>CASTANHO, G; MAGNANI, E. ; PERREAUX, N. . Digitizing the Middle Ages: the impacts of digitized corpora on medieval historiography (Mesa de comunicações no International Medieval Congress - Leeds). 2023. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Gabriel de Carvalho Godoy Castanho</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>CASTANHO, G; et alii. . A digitalização da medievalística brasileira  (e além...)  - XIII Encontro Internacional do LATHIMM. 2023. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Gabriel de Carvalho Godoy Castanho</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CASTANHO, G; NEVES, L. C. S. . Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. 2022. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Gabriel de Carvalho Godoy Castanho</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>CASTANHO, G; PEREIRA, A. P. L. . Jornada  Emoções na Idade Média: abordagens,  historiografias e filosofias. 2022. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Gabriel de Carvalho Godoy Castanho</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>CASTANHO, G; NEVES, L. C. S. ; et alii. . Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. Conceitos e Historiografias. 2022. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Gabriel de Carvalho Godoy Castanho</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CASTANHO, G; NEVES, L. C. S. ; et alii. . Jornada Eclesiologias Medievais: Os estudos eclesiológicos desenvolvidos no país. Estudos não "gregorianos". 2022. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Gabriel de Carvalho Godoy Castanho</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>CASTANHO, G; PEREIRA, A. P. L. . Jornada  Emoções na Idade Média: abordagens, historiografias e literaturas. 2022. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Gabriel de Carvalho Godoy Castanho</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>CASTANHO, G; PEREIRA, A. P. L. . Jornada Emoções na Idade Média: abordagens e historiografias. 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Gabriel de Carvalho Godoy Castanho</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>CASTANHO, G C G; ASFORA, W. C. . Estudos do Discurso Medieval (ST 08  no XIV EIEM). 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Gabriel de Carvalho Godoy Castanho</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>MAGNANI, E. ;CASTANHO, G C G; et alii. . Journée d?études CBMA (Corpus Burgundiae Medii Aevi) ? Hagiographie bourguignonne 2.0 ? corpus électronique et nouvelles recherches. 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>Hanna Sonkajärvi</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B92" t="n">
         <v>2024</v>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Metamorfoses Jurídicas: Metodologia, História, Codificação.Ponderações sobre a importância de estudar história da prática juridical no Brasil. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>Hanna Sonkajärvi</t>
         </is>
       </c>
-      <c r="B51" t="n">
+      <c r="B93" t="n">
         <v>2024</v>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>Poderes, poli-centrismo y regulaciones comerciales en los espacios ibéricos: monopolios, privilegios y regímenes exclusivos.Protecting the Basque Merchant's Privileges in the Early Modern Atlantic. The Coordinating Efforts of the Political Body of the Juntas y Regimientos de Vizcaya. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>Hanna Sonkajärvi</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C52" t="inlineStr">
+      <c r="B94" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C94" t="inlineStr">
         <is>
           <t>Law and Diversity. European and Latin American experiences from a legal historical perspective - Private Law II -.Max-Planck-Institut für Rechtsgeschichte und Rechtstheorie. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>Hanna Sonkajärvi</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C53" t="inlineStr">
+      <c r="B95" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C95" t="inlineStr">
         <is>
           <t>Palestra, seminário de pesquisa, Instituto de História, Universidade de Regensburg.Die Juntas y Regimientos de Vizcaya: Eine zentrale Organisation der baskischen Handelskoordination in der Frühen Neuzeit. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>Henrique Buarque de Gusmão</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C54" t="inlineStr">
+      <c r="B96" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C96" t="inlineStr">
         <is>
           <t>32o Simpósio Nacional de História da ANPUH.Divas na boca do lixo: escândalos e sucessos na cena carioca dos anos 1960.
 						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>Henrique Buarque de Gusmão</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C55" t="inlineStr">
+      <c r="B97" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C97" t="inlineStr">
         <is>
           <t>20º Encontro de História da ANPUH-Rio.A longa história da temporada que não houve: "Perdoa-me por me traíres" em São Paulo (1957).
 						2022. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>Henrique Buarque de Gusmão</t>
         </is>
       </c>
-      <c r="B56" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C56" t="inlineStr">
+      <c r="B98" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C98" t="inlineStr">
         <is>
           <t>Jornada de Estudos O ?efeito de escândalo? na literatura e nas artes brasileiras.O espetáculo do escândalo. Nelson Rodrigues protagonista do ?caso Perdoa-me por me traíres?. 2022. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>Henrique Buarque de Gusmão</t>
         </is>
       </c>
-      <c r="B57" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C57" t="inlineStr">
+      <c r="B99" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C99" t="inlineStr">
         <is>
           <t>XVIII Encontro Internacional da ABRALIC: Mundos com/partilhados.O dramaturgo comentador de sua obra: a performance de Nelson Rodrigues como defensor de um sentido para sua obra.
 						2022. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>Henrique Buarque de Gusmão</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C58" t="inlineStr">
+      <c r="B100" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C100" t="inlineStr">
         <is>
           <t>Colóquio Teatro e Sociedade. Textos, atrizes e públicos. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>Henrique Buarque de Gusmão</t>
         </is>
       </c>
-      <c r="B59" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C59" t="inlineStr">
+      <c r="B101" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C101" t="inlineStr">
         <is>
           <t>I Jornada de Egressos Manolo Florentino.Sociedade e Cultura. 2021. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Henrique Buarque de Gusmão</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>GUSMAO, H. B.; SILVA, T. B. ; AZEVEDO, E. R. ; MOURA, M. . Semana de estudos em história do teatro. 2024. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Henrique Buarque de Gusmão</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>GUSMAO, H. B.; SODRE, C. ; WAJNBERG, D. S. ; OLIVEIRA, D. . Jornada Studio Stanislavski: 30 anos de experimentação teatral. 2023. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Henrique Buarque de Gusmão</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>GUSMAO, H. B.; DAHER, Andrea . Jornada de Estudos O ?efeito de escândalo? na literatura e nas artes brasileiras. 2022. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Henrique Buarque de Gusmão</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>SILVA, T. B. ;GUSMAO, H. B.; FERREIRA, V. A. . Colóquio Teatro e Sociedade. 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Henrique Buarque de Gusmão</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>GUSMAO, H. B.. IV Encontro Fluminense de Teoria e Historiografia. 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t>Isabele de Matos Pereira de Mello</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C60" t="inlineStr">
+      <c r="B107" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C107" t="inlineStr">
         <is>
           <t>II Ciclo de Conferências - Perspectivas em História Moderna.Negociação e Conflito (Palestrante George Félix Cabral; Coordenadora do debate: Isabele Mello).. 2021. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>Isabele de Matos Pereira de Mello</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C61" t="inlineStr">
+      <c r="B108" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C108" t="inlineStr">
         <is>
           <t>Seminário Internacional Antigo Regime nos Trópicos - 20 Anos.Juízes sindicantes e sindicados: as residências e o perfil das testemunhas na América portuguesa (séc. XVIII). 2021. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+    <row r="109">
+      <c r="A109" t="inlineStr">
         <is>
           <t>Isabele de Matos Pereira de Mello</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C62" t="inlineStr">
+      <c r="B109" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C109" t="inlineStr">
         <is>
           <t>VIII Encontro Internacional de História Colonial.O funcionamento dos Auditórios no século XVIII: A dinâmica entre os magistrados e os conhecedores nos negócios forenses.
 						2021. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Isabele de Matos Pereira de Mello</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>FRAGOSO, J. ;SAMPAIO, A. C. J.;FERREIRA, R. G.;MELLO, Isabele de Matos P. de. Seminário: Humanidades Digitais e o uso do software Transkribus na pesquisa histórica. 2023. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Isabele de Matos Pereira de Mello</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>MELLO, Isabele de Matos P. de;LOUREIRO, M. J. G.. VIII Encontro Internacional de História Colonial - Coordenação de Simpósio Temático: O governo da justiça: instituições, discursos, poderes e magistrados (sécs. XVII-XIX). 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Isabele de Matos Pereira de Mello</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>FRAGOSO, J. ;BICALHO, M. F.;SAMPAIO, A. C. J.;FERREIRA, R. G.;MELLO, Isabele de Matos P. de; ALMEIDA, Carla M. ; CONCEICAO, H. . ART em Teses: Novas Pesquisas. 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Isabele de Matos Pereira de Mello</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ALMEIDA, Carla M. ;BICALHO, Maria Fernanda B.; CONCEICAO, H. ;FERREIRA, R. G.; FRAGOSO, J. ;MELLO, Isabele de Matos P. de;SAMPAIO, A. C. J.. Seminário Internacional Antigo Regime nos Trópicos - 20 Anos. 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>Jacqueline Hermann</t>
         </is>
       </c>
-      <c r="B63" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C63" t="inlineStr">
+      <c r="B114" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C114" t="inlineStr">
         <is>
           <t>Congresso Internacional Migrações Forçadas entre a cristandade o Islão. Judeu, língua, espião, embaicador: Matias Bicudo a serviço de D.Antônio, Prior do Crato (1580-1590). 2023. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t>Jacqueline Hermann</t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C64" t="inlineStr">
+      <c r="B115" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C115" t="inlineStr">
         <is>
           <t>Mesa Redonda Morte e Ficção do Rei Dom Sebastião.Morte e Ficção do Rei Dom Sebastião. 2023. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>Jacqueline Hermann</t>
         </is>
       </c>
-      <c r="B65" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C65" t="inlineStr">
+      <c r="B116" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C116" t="inlineStr">
         <is>
           <t>Fake News na Época Moderna.Acreditavam os modernos em suas crenças?Mistério, profecia e política na construção da verdade. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>Jacqueline Hermann</t>
         </is>
       </c>
-      <c r="B66" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C66" t="inlineStr">
+      <c r="B117" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C117" t="inlineStr">
         <is>
           <t>Jornada de Estudos Históricos Professor Manoel Salgado.O legado de Manoel. 2022. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>Jacqueline Hermann</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C67" t="inlineStr">
+      <c r="B118" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C118" t="inlineStr">
         <is>
           <t>A Inquisição Portuguesa: 200 anos depois. Mesa 3: Freiras, visionárias e sacerdócio. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+    <row r="119">
+      <c r="A119" t="inlineStr">
         <is>
           <t>Jacqueline Hermann</t>
         </is>
       </c>
-      <c r="B68" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C68" t="inlineStr">
+      <c r="B119" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C119" t="inlineStr">
         <is>
           <t>Colóquio ?Fake News na Época Moderna?.Entre verdadeiros e falsos profetas: D.João de Castro, Bandarra e o messianismo político português. 2021. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="120">
+      <c r="A120" t="inlineStr">
         <is>
           <t>Jacqueline Hermann</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C69" t="inlineStr">
+      <c r="B120" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C120" t="inlineStr">
         <is>
           <t>Perspectiva em História Moderna."Em uma Época de Traduções": tradução, materialidade do impresso e conexões anglo-ibéricas no século XVII".. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t>João Rodolfo Munhoz Ohara</t>
         </is>
       </c>
-      <c r="B70" t="n">
+      <c r="B121" t="n">
         <v>2024</v>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>5th INTH Conference. History and Inductive Risk, or the Social Harms of Bad Histories. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+    <row r="122">
+      <c r="A122" t="inlineStr">
         <is>
           <t>João Rodolfo Munhoz Ohara</t>
         </is>
       </c>
-      <c r="B71" t="n">
+      <c r="B122" t="n">
         <v>2024</v>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>XII Seminário Brasileiro de Teoria e História da Historiografia.Realismos e Antirrealismos Históricos. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+    <row r="123">
+      <c r="A123" t="inlineStr">
         <is>
           <t>João Rodolfo Munhoz Ohara</t>
         </is>
       </c>
-      <c r="B72" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C72" t="inlineStr">
+      <c r="B123" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C123" t="inlineStr">
         <is>
           <t>X Conferência de Epistemologia Social.Construindo pontes entre a epistemologia social e a filosofia da história. 2023. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+    <row r="124">
+      <c r="A124" t="inlineStr">
         <is>
           <t>João Rodolfo Munhoz Ohara</t>
         </is>
       </c>
-      <c r="B73" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C73" t="inlineStr">
+      <c r="B124" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C124" t="inlineStr">
         <is>
           <t>Centre for Philosophical Studies of History Research Seminar.Historical Knowledge and Epistemic Dependence: Issues of Trust and Expertise. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>João Rodolfo Munhoz Ohara</t>
         </is>
       </c>
-      <c r="B74" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C74" t="inlineStr">
+      <c r="B125" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C125" t="inlineStr">
         <is>
           <t>Seminário Brasileiro de Teoria e História da Historiografia.Ethos do historiador e autonomia relativa da disciplina. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>João Rodolfo Munhoz Ohara</t>
         </is>
       </c>
-      <c r="B75" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C75" t="inlineStr">
+      <c r="B126" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C126" t="inlineStr">
         <is>
           <t>Ética na Pesquisa com Seres Humanos e no Ensino de História.Existe uma "Ética da História"? Os historiadores e nossas relações com o passado.. 2021. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>João Rodolfo Munhoz Ohara</t>
         </is>
       </c>
-      <c r="B76" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C76" t="inlineStr">
+      <c r="B127" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C127" t="inlineStr">
         <is>
           <t>Semana de Recepção de História.A Emergência da Historiografia Brasileira Universitária (1942-1980). 2021. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>Jorge Victor de Araújo Souza</t>
         </is>
       </c>
-      <c r="B77" t="n">
+      <c r="B128" t="n">
         <v>2024</v>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>JICTAC 2024.Filosofia, Estética, Emoções.
 						2024. (Simpósio).</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>Jorge Victor de Araújo Souza</t>
         </is>
       </c>
-      <c r="B78" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C78" t="inlineStr">
+      <c r="B129" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C129" t="inlineStr">
         <is>
           <t>IX Encontro Internacional de História Colonial (EIHC): ?Dimensões globais e locais dos impérios coloniais: redes, circulação e dinâmicas (sécs. XV-XIX)?,. Iconografia Imperial: o mito colonial do indígena ingenuamente generoso e a sua contravisualidade. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>Jorge Victor de Araújo Souza</t>
         </is>
       </c>
-      <c r="B79" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C79" t="inlineStr">
+      <c r="B130" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C130" t="inlineStr">
         <is>
           <t>V Semana Infernal: Pactos e Rituais.DEMÔNIOS NA CULTURA POLÍTICA CASTELHANA: IMAGENS EM LIVROS DE EMBLEMAS. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>Jorge Victor de Araújo Souza</t>
         </is>
       </c>
-      <c r="B80" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C80" t="inlineStr">
+      <c r="B131" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C131" t="inlineStr">
         <is>
           <t>Encontro Nacional de Estudos da Imagem e V Encontro Internacional de Estudos da Imagem,.NO PALCO DAS LETRAS: ESCRITA E IMAGEM ENREDADOS NA EMBLEMÁTICA DO SÉCULO DE OURO ESPANHOL?.
 						2021. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>Jorge Victor de Araújo Souza</t>
         </is>
       </c>
-      <c r="B81" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C81" t="inlineStr">
+      <c r="B132" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C132" t="inlineStr">
         <is>
           <t>I SEMANA DA PÓS-GRADUAÇÃO IFF MARICÁ.Mnemosyne entre disputas: quando uma divindade participa da derrubada de estátuas..
 						2021. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>Joao Luis Ribeiro Fragoso</t>
         </is>
       </c>
-      <c r="B82" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C82" t="inlineStr">
+      <c r="B133" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C133" t="inlineStr">
         <is>
           <t>lecture our Joseph C. Miller Memorilal Lecture Series.Sugar Mill Owners, Slavery and the Slave Trade in  Brazil : Bahia and Rio de Janeiro, 1600-1750. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>Joao Luis Ribeiro Fragoso</t>
         </is>
       </c>
-      <c r="B83" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C83" t="inlineStr">
+      <c r="B134" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C134" t="inlineStr">
         <is>
           <t>FAMILIA, ESTRATEGIAS DE PODER Y CAMBIO GENERACIONAL EN.Gerações de famílias da elite colonial na América lusa ao longo do século XVIII: terra e estratégias poder no Rio de Janeiro.. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Joao Luis Ribeiro Fragoso</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>FRAGOSO, JOÃO; BICALHO, M. F. ; SAMPAIO, A. C. J. ; FERREIRA, Roberto Guedes ; MELLO, I. ;ALMEIDA, Carla Maria Carvalho de; CONCEICAO, H. S. . Antigo Regime nos Trópicos: 20 anos - Congresso Intarnacional. 2021. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Joao Luis Ribeiro Fragoso</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>FRAGOSO, JOÃO; BICALHO, M. F. ; SAMPAIO, A. C. J. ; FERREIRA, Roberto Guedes ; CONCEICAO, H. S. ;ALMEIDA, Carla Maria Carvalho de; MELLO, I. . Art em Teses. 2021. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
-      <c r="B84" t="n">
+      <c r="B137" t="n">
         <v>2024</v>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>4th World Congress of Environmental History. Oral history and noxious deindustrialization in comparative perspective: preliminary reflections on the cases of Guanabara Bay (Brazil) and Bizkaia Bay (Spain) in the Great Acceleration. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
-      <c r="B85" t="n">
+      <c r="B138" t="n">
         <v>2024</v>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>Minicurso virtual Wikipédia para professores universitários.Experiências de História Ambiental na Wikipedia. 2024. (Oficina).</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
-      <c r="B86" t="n">
+      <c r="B139" t="n">
         <v>2024</v>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>Mundos em Colisão: Representações, Práticas e Materialidade (XV-XIX).História Ambiental da Época Moderna: Revisitando os limites entre Cultura e Natureza.
 						2024. (Simpósio).</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
-      <c r="B87" t="n">
+      <c r="B140" t="n">
         <v>2024</v>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>Rio de Janeiro em Foco: Desenvolvimento, Crise Climática e Urbanização  na CIdade Maravilhosa.Rio de Janeiro em Foco: Desenvolvimento, Crise Climática e Urbanização  na CIdade Maravilhosa. 2024. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
-      <c r="B88" t="n">
+      <c r="B141" t="n">
         <v>2024</v>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>Società Italiana degli Urbanisti. Communities and Climates: stories of vulnerability, resilience and places. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
-      <c r="B89" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C89" t="inlineStr">
+      <c r="B142" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C142" t="inlineStr">
         <is>
           <t>XI Simposio de la Sociedad Latinoamericana y Caribeña de Historia Ambiental. Morro de Babilonia: dos medos nasce uma floresta, e de uma floresta novas identidades comunitárias. Rio de Janeiro, 1955- 2020. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
-      <c r="B90" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C90" t="inlineStr">
+      <c r="B143" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C143" t="inlineStr">
         <is>
           <t>XI Simposio de la Sociedad Latinoamericana y Caribeña de Historia Ambiental. Fundadores: 20 anos de história ambiental latinoamericana y caribeña. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
-      <c r="B91" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C91" t="inlineStr">
+      <c r="B144" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C144" t="inlineStr">
         <is>
           <t>XI Simposio de la Sociedad Latinoamericana y Caribeña de Historia Ambiental. Apresentação do Livro: História Ambiental e Ecologia Urbana para Quito. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
-      <c r="B92" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C92" t="inlineStr">
+      <c r="B145" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C145" t="inlineStr">
         <is>
           <t>XXII IOHAInternational Conference: Oral History in a Digital and Audiovisual World. Redes de solidaridad en tiempos de inundacióndel Río Doce: Governador Valadares, Minas Gerais, Brazil. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
-      <c r="B93" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C93" t="inlineStr">
+      <c r="B146" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C146" t="inlineStr">
         <is>
           <t>11 Semana de Integração Acadêmica da UFRJ.
 						2022. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
-      <c r="B94" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C94" t="inlineStr">
+      <c r="B147" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C147" t="inlineStr">
         <is>
           <t>American Society for Environmental History?s 2022 Annual Conference. Babilonia Hill: urban forestry, community identity and strategy in Rio de Janeiro (1995-2020). 2022. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
-      <c r="B95" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C95" t="inlineStr">
+      <c r="B148" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C148" t="inlineStr">
         <is>
           <t>Environmental History symposium.Tales of an Urban Forest: The human and non-human communities of Morro da Babilônia, Rio de Janeiro, (1995-2021).
 						2022. (Simpósio).</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
-      <c r="B96" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C96" t="inlineStr">
+      <c r="B149" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C149" t="inlineStr">
         <is>
           <t>Environmental History symposium.Tales of an Urban Forest: The human and non-human communities of Morro da Babilônia, Rio de Janeiro, (1995-2021).
 						2022. (Simpósio).</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Lise Fernanda Sedrez</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>SEDREZ, Lise F.; EICKELKAMP, U. . Landscapes of Deindustrialization - Panel in two sessions. 2024. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Lise Fernanda Sedrez</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>SEDREZ, Lise F.. 12o. Semana de Integração Acadêmica da UFRJ. 2023. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Lise Fernanda Sedrez</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>FONTES, P. R. R.;SEDREZ, Lise F.; SANTOS, R. . Desindustrialização e História Social: a experiência alemã. 2023. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Lise Fernanda Sedrez</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>SEDREZ, Lise F.. 11 Semana de Integração Acadêmica da UFRJ. 2022. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Lise Fernanda Sedrez</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Sedrez, Lise. X SIMPOSIO SOLCHA. 2021. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>Lorena Lopes da Costa</t>
         </is>
       </c>
-      <c r="B97" t="n">
+      <c r="B155" t="n">
         <v>2024</v>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>IV Seminário  Docere, Delectare et Movere: Sonhos, Ficções e (ir)Racionalidades.Mirar (e ver) os símiles da Ilíada no sertão. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+    <row r="156">
+      <c r="A156" t="inlineStr">
         <is>
           <t>Lorena Lopes da Costa</t>
         </is>
       </c>
-      <c r="B98" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C98" t="inlineStr">
+      <c r="B156" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C156" t="inlineStr">
         <is>
           <t>L?INVENTION D?ORIGINES GRECQUES DANS LES CULTURES TEXTUELLES ET VISUELLES DE L?EUROPE PRÉ-MODERNE (1100-1600). Chanter un Ulysse portugais : l?héroïsme maritime pour présenter le nouveau monde. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+    <row r="157">
+      <c r="A157" t="inlineStr">
         <is>
           <t>Lorena Lopes da Costa</t>
         </is>
       </c>
-      <c r="B99" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C99" t="inlineStr">
+      <c r="B157" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C157" t="inlineStr">
         <is>
           <t>Laboratório de Estudos sobre Ficção e História LEFH.Guimarães Rosa lê Homero: os símiles da Ilíada no Grande Sertão. 2023. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+    <row r="158">
+      <c r="A158" t="inlineStr">
         <is>
           <t>Lorena Lopes da Costa</t>
         </is>
       </c>
-      <c r="B100" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C100" t="inlineStr">
+      <c r="B158" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C158" t="inlineStr">
         <is>
           <t>O Pré-Capitalismo em Perspectiva &amp; II Jornada Norte-Fluminense de Estudos sobre o Pré-Capitalismp. Cantar um Ulisses português: o presente na Antiguidade. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+    <row r="159">
+      <c r="A159" t="inlineStr">
         <is>
           <t>Lorena Lopes da Costa</t>
         </is>
       </c>
-      <c r="B101" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C101" t="inlineStr">
+      <c r="B159" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C159" t="inlineStr">
         <is>
           <t>Razão e História:  do século XVII ao XXI.Recepção da Antiguidade: uma interseção  entre a Teoria e os Estudos Clássicos. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+    <row r="160">
+      <c r="A160" t="inlineStr">
         <is>
           <t>Lorena Lopes da Costa</t>
         </is>
       </c>
-      <c r="B102" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C102" t="inlineStr">
+      <c r="B160" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C160" t="inlineStr">
         <is>
           <t>X CIEAM. Odisseu à moda portuguesa. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+    <row r="161">
+      <c r="A161" t="inlineStr">
         <is>
           <t>Lorena Lopes da Costa</t>
         </is>
       </c>
-      <c r="B103" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C103" t="inlineStr">
+      <c r="B161" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C161" t="inlineStr">
         <is>
           <t>X Simpósio Lendo, Vendo e Ouvindo o Passado: "Metamorfoses" e metamorfoses.A metamorfose do herói: odisseias francesas de 1914.
 						2022. (Simpósio).</t>
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+    <row r="162">
+      <c r="A162" t="inlineStr">
         <is>
           <t>Lorena Lopes da Costa</t>
         </is>
       </c>
-      <c r="B104" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C104" t="inlineStr">
+      <c r="B162" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C162" t="inlineStr">
         <is>
           <t>31° Simpósio Nacional de História ? História, verdade e tecnologia.A Ilíada e o Ciclo Épico no sertão de João Guimarães Rosa.
 						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+    <row r="163">
+      <c r="A163" t="inlineStr">
         <is>
           <t>Lorena Lopes da Costa</t>
         </is>
       </c>
-      <c r="B105" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C105" t="inlineStr">
+      <c r="B163" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C163" t="inlineStr">
         <is>
           <t>31 Simpósio Nacional de História.A Ilíada e o Ciclo Épico no sertão de João Guimarães Rosa.
 						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+    <row r="164">
+      <c r="A164" t="inlineStr">
         <is>
           <t>Lorena Lopes da Costa</t>
         </is>
       </c>
-      <c r="B106" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C106" t="inlineStr">
+      <c r="B164" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C164" t="inlineStr">
         <is>
           <t>Encontros da Escola Lacaniana de Psicanálise de Vitória.Homero, João Guimarães Rosa e o som das nossas dores. 2021. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+    <row r="165">
+      <c r="A165" t="inlineStr">
         <is>
           <t>Lorena Lopes da Costa</t>
         </is>
       </c>
-      <c r="B107" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C107" t="inlineStr">
+      <c r="B165" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C165" t="inlineStr">
         <is>
           <t>II Encontro Nacional de História do Baixo Amazonas.Narrar e existir: Sônia Viegas, leitora de João Guimarães Rosa.
 						2021. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+    <row r="166">
+      <c r="A166" t="inlineStr">
         <is>
           <t>Lorena Lopes da Costa</t>
         </is>
       </c>
-      <c r="B108" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C108" t="inlineStr">
+      <c r="B166" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C166" t="inlineStr">
         <is>
           <t>III SEMANA ACADÊMICA DE HISTÓRIA.A relevância da Antiguidade e as (re)leituras feministas da Odisseia.
 						2021. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+    <row r="167">
+      <c r="A167" t="inlineStr">
         <is>
           <t>Lorena Lopes da Costa</t>
         </is>
       </c>
-      <c r="B109" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C109" t="inlineStr">
+      <c r="B167" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C167" t="inlineStr">
         <is>
           <t>Kyklos 2021 (CHS / Harvard University) - The Greek Epic Cycle and its Reception.Reception of the Iliad and the Epic Cycle in postcolonial literature by João Guimarães  Rosa: the Greek hero in the Brazilian backlands. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+    <row r="168">
+      <c r="A168" t="inlineStr">
         <is>
           <t>Lorena Lopes da Costa</t>
         </is>
       </c>
-      <c r="B110" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C110" t="inlineStr">
+      <c r="B168" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C168" t="inlineStr">
         <is>
           <t>XXXI Ciclo de Debates em História Antiga.O que faz a dor: Hécuba na Ilíada e no teatro de Eurípides. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Lorena Lopes da Costa</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>LESSA, F. ; GAIA, D. V. ; MEGA, M. ; BUSTAMANTE, R. ; PEIXOTO, P. ;LOPES DA COSTA, L.. XXXIV Ciclo de Debates em História Antiga. 2024. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Lorena Lopes da Costa</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>BUSTAMANTE, R. ; GAIA, D. V. ; LESSA, F. ; MEGA, M. ; PEIXOTO, P. ;LOPES DA COSTA, L.. XXXIII Ciclo de Debates em História Antiga - LHIA. 2023. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Lorena Lopes da Costa</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>PEIXOTO, P. ;LOPES DA COSTA, L.. XXXII Ciclo de Debates em História Antiga - LHIA. 2022. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
         <is>
           <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
-      <c r="B111" t="n">
+      <c r="B172" t="n">
         <v>2024</v>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>5th INTH Network Conference: History &amp; Responsibility: Doing History in Times of Conflicting Political Demands.The writing of crisis in Annie Ernaux?s and Elena Ferrante?s work.
 						2024. (Simpósio).</t>
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+    <row r="173">
+      <c r="A173" t="inlineStr">
         <is>
           <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
-      <c r="B112" t="n">
+      <c r="B173" t="n">
         <v>2024</v>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>XII Seminário Brasileiro de Teoria e História da Historiografia (SNHH).História e Ficção em Annie Ernaux e Elena Ferrante. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+    <row r="174">
+      <c r="A174" t="inlineStr">
         <is>
           <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
-      <c r="B113" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C113" t="inlineStr">
+      <c r="B174" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C174" t="inlineStr">
         <is>
           <t>11a Semana de Integração Acadêmica da UFRJ.Coordenadora de Sessão. 2022. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+    <row r="175">
+      <c r="A175" t="inlineStr">
         <is>
           <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
-      <c r="B114" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C114" t="inlineStr">
+      <c r="B175" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C175" t="inlineStr">
         <is>
           <t>4th INTH Network Conference: Media, Mediations and Mediators: (Re) Mediating History in the 21st Century.Figurations of Time: the end in Elena Ferrante?s Neapolitan tetralogy.
 						2022. (Simpósio).</t>
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+    <row r="176">
+      <c r="A176" t="inlineStr">
         <is>
           <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
-      <c r="B115" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C115" t="inlineStr">
+      <c r="B176" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C176" t="inlineStr">
         <is>
           <t>Colóquio Teatro e Sociedade.Shakespeare, entre o epos e o romance. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+    <row r="177">
+      <c r="A177" t="inlineStr">
         <is>
           <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
-      <c r="B116" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C116" t="inlineStr">
+      <c r="B177" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C177" t="inlineStr">
         <is>
           <t>I Jornada Internacional de Estudos sobre Henry James.?Vontade de crescer?: formação, cultura e modernidade na obra de Henry James. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Luiza Larangeira da Silva Mello</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>SILVA MELLO, L. L.; RODRIGUES, H. E. . Seminário Nacional História e Ficção: as formas do (des)encontro. 2024. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Luiza Larangeira da Silva Mello</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>LARANGEIRA DA SILVA MELLO, L.; CALDAS, Pedro S. P. ; CORREIA, S. A. B. . I Jornada de Estudos em Pensamento Crítico Contemporâneo: experiências, memórias e mediações das crises do século XX. 2023. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
         <is>
           <t>Maria Paula Nascimento Araujo</t>
         </is>
       </c>
-      <c r="B117" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C117" t="inlineStr">
+      <c r="B180" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C180" t="inlineStr">
         <is>
           <t>XVI Encontro Nacional de História Oral - Pandemia e Futuros Possíveis.A luta das mulheres pela ampliação democrática: depoimentos de mulheres colombianas no esforço pela paz.
 						2022. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Maria Paula Nascimento Araujo</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>MANGUEIRA, B. ; SANTOS, D. R. ; SILVA, I. P. ; CORREA, L. ;ARAUJO, M. P. N.; Ferreira, M. M. ; GHERMAN, M. ; QUADRAT, S. V. ; PINTO, S. ; SILVA, F. C. ; RIOS, C. ; GEROMEL, B. ; GOMES, P. C. ; RIBERTI, L. ; DAHAS, N. . Semináro História Oral, Memória e Violência Política no Mundo Contemporâneo. 2023. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Maria Paula Nascimento Araujo</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>ARAUJO, MARIA PAULA NASCIMENTO; SILVA, I. P. ; Fico, Carlos ; QUADRAT, S. V. ; BAUER, C. S. ; CATELA, L. ; CAPELATO, M. H. R. ; GHERMAN, M. ; PIRES JUNIOR, P. A. ; FRANCO, M. ; CRENZEL, E. ; OBERTI, A. . Seminário Internacional 45 anos do golpe e da ditadura na Argentina: história, memória e diálogos com o Brasil. 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Maria Paula Nascimento Araujo</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>ARAUJO, M. P. N.; SILVA, I. P. ; MANGUEIRA, B. ; PEDRETTI, L. ; CORREA, L. ; CUNHA, M. . História Oral, memória e experiência na luta por direitos. 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
         <is>
           <t>Marieta de Moraes Ferreira</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B184" t="n">
         <v>2024</v>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>1964-2024 A distadura brasileira em perspectiva comparada.Ditadura militar e ensino de história. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+    <row r="185">
+      <c r="A185" t="inlineStr">
         <is>
           <t>Marieta de Moraes Ferreira</t>
         </is>
       </c>
-      <c r="B119" t="n">
+      <c r="B185" t="n">
         <v>2024</v>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>XII Seminario Brasileiro de teoria e historiografia- Ensinar história  e imaginar democracias.Ensino de historia, profissionalização e democracia. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+    <row r="186">
+      <c r="A186" t="inlineStr">
         <is>
           <t>Marieta de Moraes Ferreira</t>
         </is>
       </c>
-      <c r="B120" t="n">
+      <c r="B186" t="n">
         <v>2024</v>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>XVII encontro nacional de história oral.participante.
 						2024. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+    <row r="187">
+      <c r="A187" t="inlineStr">
         <is>
           <t>Marieta de Moraes Ferreira</t>
         </is>
       </c>
-      <c r="B121" t="n">
+      <c r="B187" t="n">
         <v>2024</v>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>XVII encontro nacional de história oral.convidado e participante , palestrante.
 						2024. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+    <row r="188">
+      <c r="A188" t="inlineStr">
         <is>
           <t>Marieta de Moraes Ferreira</t>
         </is>
       </c>
-      <c r="B122" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C122" t="inlineStr">
+      <c r="B188" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C188" t="inlineStr">
         <is>
           <t>XXII International Oral History Conference. A história oral no Brasil e suas relações com a International Oral History  Association (IOHA). 2023. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+    <row r="189">
+      <c r="A189" t="inlineStr">
         <is>
           <t>Marieta de Moraes Ferreira</t>
         </is>
       </c>
-      <c r="B123" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C123" t="inlineStr">
+      <c r="B189" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C189" t="inlineStr">
         <is>
           <t>democracia em foco.A fusão do Rio de janeiro: efeitos sobre arranjos políticos fluminenses. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+    <row r="190">
+      <c r="A190" t="inlineStr">
         <is>
           <t>Marieta de Moraes Ferreira</t>
         </is>
       </c>
-      <c r="B124" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C124" t="inlineStr">
+      <c r="B190" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C190" t="inlineStr">
         <is>
           <t>histoire du temps present: reflexions e changements.História do tempo presente.
 						2022. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Marieta de Moraes Ferreira</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>FERREIRA, MARIETA DE MORAES; HOCHMAN, G. ; OLIVEIRA, L. M. L. ; OLIVEIRA, D. . 1922;O Passado no presente- permanências e transformações. 2022. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B125" t="n">
+      <c r="B192" t="n">
         <v>2024</v>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C192" t="inlineStr">
         <is>
           <t>40 th Annual Conference of AIS: Israel and Israel Studies: The European and International Perspectiv. Exploring the Landscape: Israel Studies in Non-Western Contexts. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+    <row r="193">
+      <c r="A193" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B126" t="n">
+      <c r="B193" t="n">
         <v>2024</v>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>Abordagens Históricas e Historiográficas, no XXIV Encontro Regional de História da Anpuh-MG. Novos Negacionismos do Holocausto e do Nazismo: estratégias e linguagens. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+    <row r="194">
+      <c r="A194" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B127" t="n">
+      <c r="B194" t="n">
         <v>2024</v>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t>aula inaugural do PPGCOM/UFMT.A nova  gramática da extrema direita.
 						2024. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+    <row r="195">
+      <c r="A195" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B128" t="n">
+      <c r="B195" t="n">
         <v>2024</v>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>Brazil: Histories and Legacies March 31, April 1-2, 2024, Brown University.The Language of Bolsonaro. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+    <row r="196">
+      <c r="A196" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B129" t="n">
+      <c r="B196" t="n">
         <v>2024</v>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C196" t="inlineStr">
         <is>
           <t>Extrema direita no Brasil Sujeitos e coletivos pela ?restauração nacional?.Nova Gramática Política da Extrema Direita.
 						2024. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+    <row r="197">
+      <c r="A197" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B130" t="n">
+      <c r="B197" t="n">
         <v>2024</v>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>Gramáticas de violência e reconstrução no Horizonte: a guerra na Palestina e suas consequências políticas.Gramáticas de violência e reconstrução no Horizonte: a guerra na Palestina e suas consequências políticas.
 						2024. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+    <row r="198">
+      <c r="A198" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B131" t="n">
+      <c r="B198" t="n">
         <v>2024</v>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>III Seminário Nacional de Educação em Direitos Humanos da Unespar. Extremismos no século XXI e o diálogo como ato revolucionário. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+    <row r="199">
+      <c r="A199" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B132" t="n">
+      <c r="B199" t="n">
         <v>2024</v>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>Lançamento 10ª edição CEBRI-Revista | A guerra de Gaza e seus reflexos no Brasil.A Guerra de Gza e seus reflexos no Brasil. 2024. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+    <row r="200">
+      <c r="A200" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B133" t="n">
+      <c r="B200" t="n">
         <v>2024</v>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>Nova era dos Extremos: debates sobre paz e democracia na ordem mundial".A nova Gramática da Extrema Direita.
 						2024. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+    <row r="201">
+      <c r="A201" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B134" t="n">
+      <c r="B201" t="n">
         <v>2024</v>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>PPGH-UNIMONTES.Gramáticas de violência e reconstrução no Horizonte: a guerra na Palestina e suas consequências políticas.
 						2024. (Simpósio).</t>
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+    <row r="202">
+      <c r="A202" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B135" t="n">
+      <c r="B202" t="n">
         <v>2024</v>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>Seminário Internacional- 1964 + 60. Direitas Ontem e Hoje. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+    <row r="203">
+      <c r="A203" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B136" t="n">
+      <c r="B203" t="n">
         <v>2024</v>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>Uso Políticos do Holocausto e do Genocídio.Instrumentalização do Antissemitismo no Brasil.
 						2024. (Simpósio).</t>
         </is>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+    <row r="204">
+      <c r="A204" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B137" t="n">
+      <c r="B204" t="n">
         <v>2024</v>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>XVII Congresso da Associação de Estudos Brasileiros. Negros e Judeus em Diálogo: Relações Raciais, Políticas, Religiosas e Culturais. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+    <row r="205">
+      <c r="A205" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B138" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C138" t="inlineStr">
+      <c r="B205" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C205" t="inlineStr">
         <is>
           <t>Direita Radical em Debate-USP. A colonização do judaísmo pelo bolsonarismo: estratégias da nova extrema direita brasileira. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+    <row r="206">
+      <c r="A206" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B139" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C139" t="inlineStr">
+      <c r="B206" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C206" t="inlineStr">
         <is>
           <t>Disciplina Raça , Genero e Etnia- Pós Graduação Direito Usp.Identidades em Choque: Judeidade e Negritude no Brasil.
 						2023. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+    <row r="207">
+      <c r="A207" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B140" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C140" t="inlineStr">
+      <c r="B207" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C207" t="inlineStr">
         <is>
           <t>DWIH SÃO PAULO NA 75ª REUNIÃO ANUAL DA SBPC. É preciso combater ?letramento nazista? em progresso no Brasil. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+    <row r="208">
+      <c r="A208" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B141" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C141" t="inlineStr">
+      <c r="B208" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C208" t="inlineStr">
         <is>
           <t>Encontro de Pesquisa: História Política e Extrema Direita. Encontro de Pesquisa: História Política e Extrema Direita. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+    <row r="209">
+      <c r="A209" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B142" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C142" t="inlineStr">
+      <c r="B209" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C209" t="inlineStr">
         <is>
           <t>Enfrentamento ao Neonazismo em Santa Catarina.. Pós nazismo no Brasil hoje. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+    <row r="210">
+      <c r="A210" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B143" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C143" t="inlineStr">
+      <c r="B210" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C210" t="inlineStr">
         <is>
           <t>Hamas X Israel: Impressões iniciais e algumas projeções-IRI  PUC rj.Nethanyahu, Hamas e a implusão dos conceiros de segurança nacional. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+    <row r="211">
+      <c r="A211" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B144" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C144" t="inlineStr">
+      <c r="B211" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C211" t="inlineStr">
         <is>
           <t>II Congresso IBI NO Campus: Estudos sobre antissemitismo. Estudos sobre antissemitismo. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+    <row r="212">
+      <c r="A212" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B145" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C145" t="inlineStr">
+      <c r="B212" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C212" t="inlineStr">
         <is>
           <t>II Simpósio IBI no Campus. Israel Hamas e a Guerra: ra ?Conflito Israel-Palestina: perspectivas de paz e coexistência.?. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+    <row r="213">
+      <c r="A213" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B146" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C146" t="inlineStr">
+      <c r="B213" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C213" t="inlineStr">
         <is>
           <t>Israel como modelo cultural: imaginários e usos na nova extrema-direita.Israel imaginária e redes ideológicas transnacionais: O Não Judeu- judeu e a Extrema Direita.
 						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+    <row r="214">
+      <c r="A214" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B147" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C147" t="inlineStr">
+      <c r="B214" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C214" t="inlineStr">
         <is>
           <t>Israel na Enrcrizilhada.Israel e a nova direita.
 						2023. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+    <row r="215">
+      <c r="A215" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B148" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C148" t="inlineStr">
+      <c r="B215" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C215" t="inlineStr">
         <is>
           <t>Michel Gherman fala sobre ?A gramática da nova extrema direita: cenários e possibilidades?.A gramática da nova extrema direita: cenários e possibilidad. 2023. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+    <row r="216">
+      <c r="A216" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B149" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C149" t="inlineStr">
+      <c r="B216" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C216" t="inlineStr">
         <is>
           <t>Semana da Economia 2023 - Ascensão do Neonazismo.A Extrema direita e o Pós Nazismo e o Judeu Imaginário no Brasil.
 						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+    <row r="217">
+      <c r="A217" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B150" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C150" t="inlineStr">
+      <c r="B217" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C217" t="inlineStr">
         <is>
           <t>Sociedade Brasileira para o Progresso da Ciência. O PAPEL DA EDUCAÇÃO E DA CIÊNCIA PARA SUPERAR, NA ALEMANHA E NO BRASIL, O PRECONCEITO E O ÓDIO (DWIH-SP, SBPC). 2023. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
+    <row r="218">
+      <c r="A218" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B151" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C151" t="inlineStr">
+      <c r="B218" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C218" t="inlineStr">
         <is>
           <t>Um ano do Movimento Nacional em Defesa dos Direitos das Vítimas.Enfrentamento do discurso de ódio ? mecanismos para evitar a vitimização. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
+    <row r="219">
+      <c r="A219" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B152" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C152" t="inlineStr">
+      <c r="B219" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C219" t="inlineStr">
         <is>
           <t>33a Reunião Brasileira de Antropologia.Backlash: ?guerra ao gênero? e aos ?identitarismos.
 						2022. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
+    <row r="220">
+      <c r="A220" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B153" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C153" t="inlineStr">
+      <c r="B220" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C220" t="inlineStr">
         <is>
           <t>46o Encontro Anual do Anpons.Sociologia da Cultura em tempos incertos: Espectros e configurações na cena política contemporânea.
 						2022. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
+    <row r="221">
+      <c r="A221" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B154" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C154" t="inlineStr">
+      <c r="B221" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C221" t="inlineStr">
         <is>
           <t>Antisemitismo en America Latina.Reflections on a Concealed Hate: Antisemitism and the Far Right in Brazil / Reflexión sobre un odio disimulado: Antisemitismo y la Extrema Derecha en Bras. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
+    <row r="222">
+      <c r="A222" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B155" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C155" t="inlineStr">
+      <c r="B222" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C222" t="inlineStr">
         <is>
           <t>Lançamento de Livro "O Não Judeu Judeu": Tentativa de Colonização do Judaismo pelo Bolsonarismo.Lançamento de Livro "O Não Judeu Judeu": Tentativa de Colonização do Judaismo pelo Bolsonarismo.
 						2022. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
+    <row r="223">
+      <c r="A223" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B156" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C156" t="inlineStr">
+      <c r="B223" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C223" t="inlineStr">
         <is>
           <t>Novembro Negro.Um letramento antifascista: Por uma sociologia de Combate ao Nazismo.
 						2022. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+    <row r="224">
+      <c r="A224" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B157" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C157" t="inlineStr">
+      <c r="B224" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C224" t="inlineStr">
         <is>
           <t>O judeu imaginário nos horizontes políticos da Nova Direita. O judeu imaginário nos horizontes políticos da Nova Direita. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
+    <row r="225">
+      <c r="A225" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B158" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C158" t="inlineStr">
+      <c r="B225" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C225" t="inlineStr">
         <is>
           <t>Produção de Ciência na Era do Negacionismo.Mediação. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
+    <row r="226">
+      <c r="A226" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B159" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C159" t="inlineStr">
+      <c r="B226" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C226" t="inlineStr">
         <is>
           <t>THE EIGHTEENTH WORLD CONGRESS OF JEWISH STUDIES August 8-12, 2022 PROGRAM JERUSALEM. Senkman Non-Jews, Jews, and The Brazilian New Right Movements: A Case of Political Conversion and ?Disconversion. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
+    <row r="227">
+      <c r="A227" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B160" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C160" t="inlineStr">
+      <c r="B227" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C227" t="inlineStr">
         <is>
           <t>Aula Inaugural: Departamento de Historia e PPGH unb.O conflito palestino-israelense e sua pertinência na gramática política contemporânea?.
 						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
+    <row r="228">
+      <c r="A228" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B161" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C161" t="inlineStr">
+      <c r="B228" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C228" t="inlineStr">
         <is>
           <t>etween Converted and Disconverted; Anti-Semitism and Philosemitism: Drama and Change Among Jews and New Far Right Movements in Brazil.etween Converted and Disconverted; Anti-Semitism and Philosemitism: Drama and Change Among Jews and New Far Right Movements in Brazil.
 						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
+    <row r="229">
+      <c r="A229" t="inlineStr">
         <is>
           <t>Michel Gherman</t>
         </is>
       </c>
-      <c r="B162" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C162" t="inlineStr">
+      <c r="B229" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C229" t="inlineStr">
         <is>
           <t>Instituto de Desarollo Economico y Social. Brasil, Israel y los Judios en Tiempos de Bolsonaro. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Michel Gherman</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Assaf Sthephanie ; PECHMAN, R. ; Marcondes Guilherme ; Penha-Lopes Vania ; SEGAL, R. ; Lerner, Katia ; MORAES, L. E. ; Caldas, Pedro ; GRIN, M. ; Caldeira Odilon ;GHERMAN, MICHEL; FRANCA, D. ; LEMOS, B. ; Bastos, Bianca ; Mello, Juçara . Usos políticos do Holocausto e do Genocídio. 2024. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Michel Gherman</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Herz, Monica ; SPOSNIK, A. ;GHERMAN, MICHEL. Israel como modelo cultural: imaginários e usos na nova extrema-direita. 2023. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Michel Gherman</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>AMARAL, J. ; LEMOS, B. ; Zunino, Olga ; RIBAS, A. ; Bastos, Bianca ; FRANCA, D. ;GHERMAN, MICHEL. Encontro de Pesquisa: História Política e Extrema Direita. 2023. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Michel Gherman</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>HERZ, M. ;GHERMAN, MICHEL; MIZRAHI, G. . Israel Imaginária na diplomacia brasileira de Bolsonaro. 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B163" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C163" t="inlineStr">
+      <c r="B234" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C234" t="inlineStr">
         <is>
           <t>32 Simpósio Nacional de História ANPUH Nacional.Jean Améry e o advento da vítima ressentida.
 						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
+    <row r="235">
+      <c r="A235" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B164" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C164" t="inlineStr">
+      <c r="B235" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C235" t="inlineStr">
         <is>
           <t>Histrória Política e Extrema Direita.Fundamentalismo, Conspiracionismo e Neofascismo.
 						2023. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
+    <row r="236">
+      <c r="A236" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B165" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C165" t="inlineStr">
+      <c r="B236" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C236" t="inlineStr">
         <is>
           <t>I Congresso Internacional de Pesquisadores em Estudos Judaicos. Resistências brasileiras ao nazismo e à ditadura. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
+    <row r="237">
+      <c r="A237" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B166" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C166" t="inlineStr">
+      <c r="B237" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C237" t="inlineStr">
         <is>
           <t>Israel como modelo cultural: imaginarios e usos na nova extrema-direita.ressentimentos morais e extrema-direita.
 						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
+    <row r="238">
+      <c r="A238" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B167" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C167" t="inlineStr">
+      <c r="B238" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C238" t="inlineStr">
         <is>
           <t>O Julgamento de Eichmann em Perspectiva Transmedial: figuras da memória, do direito e da Justiça em literatura  e cinema.O Impacto do Julgamento de Eichmann no "paraíso racial": impressões da média brasileira sobre perpetradores e vítimas de violência racial (1960-1970).
 						2022. (Simpósio).</t>
         </is>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
+    <row r="239">
+      <c r="A239" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B168" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C168" t="inlineStr">
+      <c r="B239" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C239" t="inlineStr">
         <is>
           <t>Congresso Nacional de Pesquisadores em Estudos Judaicos 2021.Sobre o Direito ao Ressentimento: Vítima, memória e reparação.
 						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
+    <row r="240">
+      <c r="A240" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B169" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C169" t="inlineStr">
+      <c r="B240" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C240" t="inlineStr">
         <is>
           <t>Perspectivas em História Moderna: ciclo de conferências.Como estudar a questão racial na história moderna/colonial?. 2021. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
+    <row r="241">
+      <c r="A241" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B170" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C170" t="inlineStr">
+      <c r="B241" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C241" t="inlineStr">
         <is>
           <t>Recepção e memória do Julgamento de Eichmann em Perspectiva  Transnacionalns.Recepção do Julgamento de Eichmann no Brasil: projeto e perspectivas.
 						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
+    <row r="242">
+      <c r="A242" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B171" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C171" t="inlineStr">
+      <c r="B242" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C242" t="inlineStr">
         <is>
           <t>XIX International Research Conference da Latin American Jewish Studies Association. A Divided Community: the Right Wing and Jews in Brazil. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Monica Grin</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>GRIN, Monica; MAIO, Marcos Chor ; GHERMAN, M. ; HAJ, J. A. E. ; Monteiro, Giovanna ; DAVIDI, E. . Israel na Encruzilhada. 2023. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
         <is>
           <t>Mônica Lima e Souza</t>
         </is>
       </c>
-      <c r="B172" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C172" t="inlineStr">
+      <c r="B244" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C244" t="inlineStr">
         <is>
           <t>Jornada de Estudos Históricos Manoel Salgado Guimarães  2023.Atuei como moderadora da mesa.
 						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
+    <row r="245">
+      <c r="A245" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B173" t="n">
+      <c r="B245" t="n">
         <v>2024</v>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C245" t="inlineStr">
         <is>
           <t>Democracia e diversidade: o modelo político do Líbano e do Brasil.A política libanesa e seu contexto regional. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+    <row r="246">
+      <c r="A246" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B174" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C174" t="inlineStr">
+      <c r="B246" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C246" t="inlineStr">
         <is>
           <t>1a. Conferência Internacional Arab Latinos: migrações e solidariedade.Memória, território e direitos culturais. 2023. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Murilo Sebe Bon Meihy</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>CAMPOS, G. A. G. ; HAMSHARI, A. ;MEIHY, M. S. B.. 1a. Conferência Internacional Arab Latinos: migrações e solidariedade. 2023. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Murilo Sebe Bon Meihy</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>MEIHY, M. S. B.; OSMAN, S. A. ; SANTOS, P. T. . Da guerra do Terror ao retorno do Talibã. 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B175" t="n">
+      <c r="B249" t="n">
         <v>2024</v>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>100 anos de E.P.Thompson.E.P.Thompson e a História Social do Trabalho.
                             2024. (Simpósio).</t>
         </is>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
+    <row r="250">
+      <c r="A250" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B176" t="n">
+      <c r="B250" t="n">
         <v>2024</v>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>Deindustrialization and Transformation in Brazil and Germany ? comparative perspectives.Factories and Favelas: working-class memories and (de)industrialization in Rio de Janeiro. 2024. (Oficina).</t>
         </is>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
+    <row r="251">
+      <c r="A251" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B177" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C177" t="inlineStr">
+      <c r="B251" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C251" t="inlineStr">
         <is>
           <t>Ciclo de palestras do Laboratório História e Natureza da UFRJ.Só resta o passado para os trabalhadores? Desindustrialização e o futuro do trabalho.
                             2023. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
+    <row r="252">
+      <c r="A252" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B178" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C178" t="inlineStr">
+      <c r="B252" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C252" t="inlineStr">
         <is>
           <t>Consuming the city.Consumer Capitalism and its Consequences. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
+    <row r="253">
+      <c r="A253" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B179" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C179" t="inlineStr">
+      <c r="B253" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C253" t="inlineStr">
         <is>
           <t>História e narrativas audiovisuais.Memórias de um Rio fabril: história do trabalho e narrativas audiovisuais.
                             2023. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
+    <row r="254">
+      <c r="A254" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B180" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C180" t="inlineStr">
+      <c r="B254" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C254" t="inlineStr">
         <is>
           <t>re:work Final Conference.How Labour (History) is doing? A round trip. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
+    <row r="255">
+      <c r="A255" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B181" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C181" t="inlineStr">
+      <c r="B255" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C255" t="inlineStr">
         <is>
           <t>Seminários do Grupo de pesquisa: "Globalização, Trabalho e Lutas Sociais"."Só resta o passado para os trabalhadores?": desindustrialização e história social do trabalho. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
+    <row r="256">
+      <c r="A256" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B182" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C182" t="inlineStr">
+      <c r="B256" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C256" t="inlineStr">
         <is>
           <t>Workers of the Golden Age of Social Democracy, 1945-1975.The Rebuilding of Democracy after 1945. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
+    <row r="257">
+      <c r="A257" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B183" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C183" t="inlineStr">
+      <c r="B257" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C257" t="inlineStr">
         <is>
           <t>XI Seminário do Programa de Pós-Graduação em História Social da Universidade do Estado do Rio de Janeiro.Crise do fordismo, desindustrialização e resistência operária: o que a história do trabalho tem a dizer?. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
+    <row r="258">
+      <c r="A258" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B184" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C184" t="inlineStr">
+      <c r="B258" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C258" t="inlineStr">
         <is>
           <t>Conversas Contemporâneas.História Pública e os Mundos do Trabalho. 2022. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
+    <row r="259">
+      <c r="A259" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B185" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C185" t="inlineStr">
+      <c r="B259" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C259" t="inlineStr">
         <is>
           <t>IV Seminário Internacional Mundos do Trabalho.Só resta o passado para os trabalhadores? História social e o futuro do trabalho. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
+    <row r="260">
+      <c r="A260" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B186" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C186" t="inlineStr">
+      <c r="B260" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C260" t="inlineStr">
         <is>
           <t>re:work Lectures series.Football and Labour History in Brazil: the local and the global.
                             2022. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
+    <row r="261">
+      <c r="A261" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B187" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C187" t="inlineStr">
+      <c r="B261" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C261" t="inlineStr">
         <is>
           <t>Simpósio Internacional "Primeiro de Maio: pilares e desafios das relações trabalhistas contemporâneas".História social do trabalho no Brasil: trajetórias e desafios.
                             2021. (Simpósio).</t>
         </is>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
+    <row r="262">
+      <c r="A262" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B188" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C188" t="inlineStr">
+      <c r="B262" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C262" t="inlineStr">
         <is>
           <t>Terceiro Encontro de Processos de Reflexão sobre a formação da classe trabalhadora.Sindicatos e "democracia racial" no Brasil (1945-1964).
                             2021. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
+    <row r="263">
+      <c r="A263" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B189" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C189" t="inlineStr">
+      <c r="B263" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C263" t="inlineStr">
         <is>
           <t>UFRJ + 100: Desafios para o Brasil.Mundos do trabalho no século XXI. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Paulo Roberto Ribeiro Fontes</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>FONTES, Paulo. Workshop Desindustrialização e História Social: a construção de um campo de pesquisa (Brasil e Alemanha). 2023. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Paulo Roberto Ribeiro Fontes</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>FONTES, Paulo; COUTO, A. ; CORROCHANO, C. . O futuro das profissões. 2022. (Exposição).</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B190" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C190" t="inlineStr">
+      <c r="B266" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C266" t="inlineStr">
         <is>
           <t>Por mi raza hablará el espiritu.Collage histórico-cultural brasileño.
 						2023. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
+    <row r="267">
+      <c r="A267" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B191" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C191" t="inlineStr">
+      <c r="B267" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C267" t="inlineStr">
         <is>
           <t>Projeto de Extensão Os militares na história do Brasil - Complexidades do passado e incertezas do futuro.Os militares na transição política do Brasil.
 						2023. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
+    <row r="268">
+      <c r="A268" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B192" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C192" t="inlineStr">
+      <c r="B268" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C268" t="inlineStr">
         <is>
           <t>VI Semana de História da UFRJ.Anistia e transição política: suas conexões com o Brasil atual.
 						2023. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Renato Luis do Couto Neto e Lemos</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>LEMOS, Renato Luís do Couto Neto e. Sessão Coordenada Emrpesariado e Estado. 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B193" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C193" t="inlineStr">
+      <c r="B270" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C270" t="inlineStr">
         <is>
           <t>Laboratório Circuitos oceânicos: petições e comunicação política da América portuguesa ao Império do Brasil.O batismo e a conversão do cativeiro em escravidão (Angola e Brasil, c. 1715-c.1850). 2023. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
+    <row r="271">
+      <c r="A271" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B194" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C194" t="inlineStr">
+      <c r="B271" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C271" t="inlineStr">
         <is>
           <t>Aula Inaugural no Instituto Pretos Novos.Catolicismo e Escravidão Resgate, batismo e compadrio (Luanda e Rio, século XVIII). 2022. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
+    <row r="272">
+      <c r="A272" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B195" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C195" t="inlineStr">
+      <c r="B272" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C272" t="inlineStr">
         <is>
           <t>Colóquio de 1822 a 2022- Brasil, Brasis em construção - debates.Mesa Escravidão e liberdade no Brasil independente/ Trabalho apresentado: Da América portuguesa ao império do Brasil: continuidades do escravismo. 2022. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
+    <row r="273">
+      <c r="A273" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B196" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C196" t="inlineStr">
+      <c r="B273" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C273" t="inlineStr">
         <is>
           <t>Congreso Internacional Esclavas, horras y no blancas nacidas libres en los mundos ibéricos: actuación, movilidad y memorias. Siglos XVI-XIX. Mesa redonda 2 / Trabalho Senhoras forras (Rio de Janeiro, século XVIII). 2022. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
+    <row r="274">
+      <c r="A274" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B197" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C197" t="inlineStr">
+      <c r="B274" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C274" t="inlineStr">
         <is>
           <t>XVIII Ciclo de Seminários Imagética e Conexões Mundiais ? Mestiçagens no Mundo Moderno.Agentes das mestiçagens (São Gonçalo e Rio de Janeiro, séculos XVIII e XIX). 2022. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
+    <row r="275">
+      <c r="A275" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B198" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C198" t="inlineStr">
+      <c r="B275" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C275" t="inlineStr">
         <is>
           <t>Conferência de Abertura da I Jornada de Egressos Professor Manolo Florentino.Homenagem a Manolo Florentino. 2021. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
+    <row r="276">
+      <c r="A276" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B199" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C199" t="inlineStr">
+      <c r="B276" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C276" t="inlineStr">
         <is>
           <t>De escravo a senhor: trajetórias (séculos XVI-XIX).Encontros do Grupo de Estudos História da Escracidão e História dos Índios: diálogos. 2021. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
+    <row r="277">
+      <c r="A277" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B200" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C200" t="inlineStr">
+      <c r="B277" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C277" t="inlineStr">
         <is>
           <t>Encontro do Grupo de Estudos História da Escravidão e História dos Índios.FORMAS DE SER FORRO (LUANDA, RIO DE JANEIRO E SÃO PAULO, SÉCULOS XVII-XVIII).
 						2021. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
+    <row r="278">
+      <c r="A278" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B201" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C201" t="inlineStr">
+      <c r="B278" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C278" t="inlineStr">
         <is>
           <t>Seminário de Estudos Pós-Graduados.Classificações de qualidades de cor no Brasil colonial: os casos de São Paulo e Rio de Janeiro.. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
+    <row r="279">
+      <c r="A279" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B202" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C202" t="inlineStr">
+      <c r="B279" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C279" t="inlineStr">
         <is>
           <t>Seminário Internacional Antigo Regime nos Trópicos: 20 anos. Senhores forros: nomear a escravidão para reproduzir a desigualdade em uma sociedade de antigo regime (Rio de Janeiro, Século XVIII). 2021. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
+    <row r="280">
+      <c r="A280" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B203" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C203" t="inlineStr">
+      <c r="B280" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C280" t="inlineStr">
         <is>
           <t>VII Jornada de Pesquisadores da Fundação Biblioteca Nacional.Projeto Resgate Renovações e conexões historiográficas. 2021. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Roberto Guedes Ferreira</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>GUEDES, ROBERTO; FRAGOSO, J. L. R. ; BICALHO, M. F. B. ; SAMPAIO, Antonio Carlos Jucá de ; MELLO, I. ; CONCEICAO, H. . Seminário Internacional Antigo Regime nos Trópicos: 20 anos. 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Roberto Guedes Ferreira</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>GUEDES, ROBERTO; IVO, I. P. ; Eduardo França Paiva . Co-org. das palestras do Grupo de Estudos História da Escraivão e História dos Índios: diálogos. 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B204" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C204" t="inlineStr">
+      <c r="B283" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C283" t="inlineStr">
         <is>
           <t>História Global: temas e debates.Literatura de rua e reforço da ordem nos séculos XVI e XVII. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
+    <row r="284">
+      <c r="A284" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B205" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C205" t="inlineStr">
+      <c r="B284" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C284" t="inlineStr">
         <is>
           <t>História das mulheres e das relações de gênero (séculos XIII-XVIII). Catherine de Médicis, rainha da França e açougueira do São Bartolomeu. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
+    <row r="285">
+      <c r="A285" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B206" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C206" t="inlineStr">
+      <c r="B285" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C285" t="inlineStr">
         <is>
           <t>IV Seminário Virtual Internacional de História Moderna.Da Eva tentadora à bruxa demoníaca: pecado, fraqueza e desvio no Martelo das Feiticeiras. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Silvia Regina Liebel</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>ARINOS, T. M. ;LIEBEL, Vinícius;LIEBEL, Silvia.;LIEBEL, Silvia.. O antissemitismo no fascismo espanhol. Palestra de Toni Morant i Ariños. 2023. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Silvia Regina Liebel</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>LIEBEL, Silvia.;LIEBEL, Silvia.;LIEBEL, Vinícius; HERMANN, J. ; MARTINS, W. S. ; SANTOS, B. C. C. . Entre História Global e Microstoria: investigar a partir de processos da Inquisição Portuguesa. Palestra com José Pedro Paiva. 2023. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Silvia Regina Liebel</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>LIEBEL, Vinícius;LIEBEL, Silvia.;LIEBEL, Silvia.; CORDEIRO, J. ; REIS FILHO, D. A. ; ROLLEMBERG, D. ; ROTTA, H. . A Era de Ares. Reflexões a propósito do centenário do fascismo. 2023. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Silvia Regina Liebel</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>BOTTI, A. ;LIEBEL, Vinícius;LIEBEL, Silvia.;LIEBEL, Silvia.. Os nacionalismos europeus e a atitude da Igreja Católica frente a eles (séculos XIX e XX). Palestra de Alfonso Botti. 2022. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Silvia Regina Liebel</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>LIEBEL, Silvia.;LIEBEL, Silvia.; REIS, M. V. . História das mulheres e das relações de gênero (séculos XIII-XVIII). 2021. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B207" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C207" t="inlineStr">
+      <c r="B291" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C291" t="inlineStr">
         <is>
           <t>A Era de Ares: Reflexões a Propósito do Centenário do Fascismo. Mediação de Venerando la Tradición, depreciando la Historicidad: la guerra contra Ucrania, Conferência de Claudio Ingerflom. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
+    <row r="292">
+      <c r="A292" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B208" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C208" t="inlineStr">
+      <c r="B292" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C292" t="inlineStr">
         <is>
           <t>XX Encontro de História da Anpuh-RJ.
 						2022. (Encontro).</t>
         </is>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
+    <row r="293">
+      <c r="A293" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B209" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C209" t="inlineStr">
+      <c r="B293" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C293" t="inlineStr">
         <is>
           <t>XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC 2020 - Edição Especial). 2021. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Vinícius Aurélio Liebel</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>LIEBEL, Vinícius;LIEBEL, Silvia; CORDEIRO, Janaína ; ROLLEMBERG, Denise ; REIS FILHO, D. A. ; ROTTA, H. R. . A Era de Ares: Reflexões a Propósito do Centenário do Fascismo. 2023. (Congresso).</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Vinícius Aurélio Liebel</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>MORANT I ARIÑOS, T. ;LIEBEL, Vinícius. O Antissemitismo no Fascismo Espanhol. 2023. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Vinícius Aurélio Liebel</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>LIEBEL, Silvia;LIEBEL, Vinícius; CATÃO, B. ; HERMANN, J. ; Martins, W. . Entre História Global e Microstoria - investigar a partir de processos da inquisição portuguesa - Palestra com José Pedro Paiva. 2023. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Vinícius Aurélio Liebel</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>HEUER, Wolfgang ;LIEBEL, Vinícius. Cosmos e República ? Sustentabilidade e Responsabilidade em Hannah Arendt e Alexander von Humboldt - Palestra de Wolfgang Heuer. 2022. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Vinícius Aurélio Liebel</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>BOTTI, A. ;LIEBEL, Silvia;LIEBEL, Vinícius. Os Nacionalismos Europeus e a Atitude da Igreja Católica frente a Eles (séc. XIX e XX) - Palestra de Alfonso Botti. 2022. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Vinícius Aurélio Liebel</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>LIEBEL, Vinícius; CORDEIRO, Janaína . ST Direitas, História e Memória (Anpuh-RJ). 2022. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Vinícius Aurélio Liebel</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>LIEBEL, Vinícius. Coordenação de Sessão de Apresentação de Trabalhos - XLII JICTAC. 2021. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
         <is>
           <t>Vitor Izecksohn</t>
         </is>
       </c>
-      <c r="B210" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C210" t="inlineStr">
+      <c r="B301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C301" t="inlineStr">
         <is>
           <t>14th Rio de La Plata WWorkshop. American Confederates and Argentinean Federalistas in the Age of State -Building, 1848-1870.. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
+    <row r="302">
+      <c r="A302" t="inlineStr">
         <is>
           <t>Vitor Izecksohn</t>
         </is>
       </c>
-      <c r="B211" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C211" t="inlineStr">
+      <c r="B302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C302" t="inlineStr">
         <is>
           <t>Ways of War.The Campaing of Cordilleras in the Paraguayan War. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Vitor Izecksohn</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Schulz, John ; CRUZ, C. A. S. ; DIEGUEZ, C. ;IZECKSOHN, Vitor. Os Militares na Política. 2022. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B212" t="n">
+      <c r="B304" t="n">
         <v>2024</v>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C304" t="inlineStr">
         <is>
           <t>Mesa Redonda na 18ª Primavera dos Museus.O Recolhimento de mulheres de Santa Teresa em Itaipu e o contexto histórico e social da Região Oceânica nos séculos XVIII e XIX. 2024. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
+    <row r="305">
+      <c r="A305" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B213" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C213" t="inlineStr">
+      <c r="B305" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C305" t="inlineStr">
         <is>
           <t>Bicentenário da Independência do Brasil.A Igreja na formação do Brasil independente. 2022. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
+    <row r="306">
+      <c r="A306" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B214" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C214" t="inlineStr">
+      <c r="B306" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C306" t="inlineStr">
         <is>
           <t>Perspectivas em História Moderna.Teologia política no ultramar: o gelasianismo no espaço atlântico. 2021. (Outra).</t>
         </is>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
+    <row r="307">
+      <c r="A307" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B215" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C215" t="inlineStr">
+      <c r="B307" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C307" t="inlineStr">
         <is>
           <t>Seminário Internacional Antigo Regime nos Trópicos/ART 20 anos.Culturas e religiosidades. 2021. (Seminário).</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>William de Souza Martins</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>MARTINS, W. S.. Jornada de Estudos Históricos Professor Manoel Salgado - Edição 2023. 2023. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>William de Souza Martins</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>MARTINS, W. S.. Simpósio Temático Práticas religiosas e representações políticas e sociais no mundo moderno (no âmbito da Jornada Manoel Salgado). 2023. (Outro).</t>
         </is>
       </c>
     </row>
